--- a/WD_BDRC_data.xlsx
+++ b/WD_BDRC_data.xlsx
@@ -593,7 +593,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -716,7 +716,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -757,7 +757,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M109" t="inlineStr"/>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M160" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M164" t="inlineStr"/>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M221" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M222" t="inlineStr"/>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M224" t="inlineStr"/>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M226" t="inlineStr"/>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>{'eft:rin-chen-tsho', 'eft:rinchen-tso'}</t>
+          <t>{'eft:rinchen-tso', 'eft:rin-chen-tsho'}</t>
         </is>
       </c>
       <c r="M228" t="inlineStr"/>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M229" t="inlineStr"/>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M230" t="inlineStr"/>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M232" t="inlineStr"/>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M234" t="inlineStr"/>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M235" t="inlineStr"/>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M237" t="inlineStr"/>
@@ -11060,7 +11060,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M238" t="inlineStr"/>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M239" t="inlineStr"/>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M242" t="inlineStr"/>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M247" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M248" t="inlineStr"/>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M249" t="inlineStr"/>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M250" t="inlineStr"/>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M252" t="inlineStr"/>
@@ -11772,7 +11772,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M254" t="inlineStr"/>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M256" t="inlineStr"/>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M258" t="inlineStr"/>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M260" t="inlineStr"/>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M263" t="inlineStr"/>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M264" t="inlineStr"/>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M265" t="inlineStr"/>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M267" t="inlineStr"/>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M269" t="inlineStr"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M272" t="inlineStr"/>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M276" t="inlineStr"/>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M277" t="inlineStr"/>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M291" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M296" t="inlineStr"/>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M298" t="inlineStr"/>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M299" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M301" t="inlineStr"/>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M304" t="inlineStr"/>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M305" t="inlineStr"/>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M307" t="inlineStr"/>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M309" t="inlineStr"/>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M311" t="inlineStr"/>
@@ -14318,7 +14318,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M312" t="inlineStr"/>
@@ -14363,7 +14363,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M313" t="inlineStr"/>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M315" t="inlineStr"/>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M316" t="inlineStr"/>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M318" t="inlineStr"/>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M321" t="inlineStr"/>
@@ -14768,7 +14768,7 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M322" t="inlineStr"/>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M323" t="inlineStr"/>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M324" t="inlineStr"/>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M326" t="inlineStr"/>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M327" t="inlineStr"/>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="M328" t="inlineStr"/>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M329" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M332" t="inlineStr"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M334" t="inlineStr"/>
@@ -15349,7 +15349,7 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M335" t="inlineStr"/>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M336" t="inlineStr"/>
@@ -15439,7 +15439,7 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>{'eft:rin-chen-tsho', 'eft:rinchen-tso'}</t>
+          <t>{'eft:rinchen-tso', 'eft:rin-chen-tsho'}</t>
         </is>
       </c>
       <c r="M337" t="inlineStr"/>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M340" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M342" t="inlineStr"/>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M343" t="inlineStr"/>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M345" t="inlineStr"/>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M346" t="inlineStr"/>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M347" t="inlineStr"/>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M348" t="inlineStr"/>
@@ -16065,7 +16065,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M351" t="inlineStr"/>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M352" t="inlineStr"/>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M355" t="inlineStr"/>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="M357" t="inlineStr"/>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M358" t="inlineStr"/>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M361" t="inlineStr"/>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M363" t="inlineStr"/>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M364" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M366" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M367" t="inlineStr"/>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M369" t="inlineStr"/>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M370" t="inlineStr"/>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M374" t="inlineStr"/>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M375" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M377" t="inlineStr"/>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M378" t="inlineStr"/>
@@ -17481,7 +17481,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M383" t="inlineStr"/>
@@ -17526,7 +17526,7 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M384" t="inlineStr"/>
@@ -17612,7 +17612,7 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="M386" t="inlineStr"/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M387" t="inlineStr"/>
@@ -17878,7 +17878,7 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M392" t="inlineStr"/>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M393" t="inlineStr"/>
@@ -18013,7 +18013,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M395" t="inlineStr"/>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M397" t="inlineStr"/>
@@ -18148,7 +18148,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M398" t="inlineStr"/>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M400" t="inlineStr"/>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M403" t="inlineStr"/>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M404" t="inlineStr"/>
@@ -18496,7 +18496,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M406" t="inlineStr"/>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M407" t="inlineStr"/>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M409" t="inlineStr"/>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M411" t="inlineStr"/>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M413" t="inlineStr"/>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M415" t="inlineStr"/>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M416" t="inlineStr"/>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M417" t="inlineStr"/>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M419" t="inlineStr"/>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M421" t="inlineStr"/>
@@ -19216,7 +19216,7 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M422" t="inlineStr"/>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M424" t="inlineStr"/>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M425" t="inlineStr"/>
@@ -19441,7 +19441,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M427" t="inlineStr"/>
@@ -19486,7 +19486,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M428" t="inlineStr"/>
@@ -19576,7 +19576,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M430" t="inlineStr"/>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M431" t="inlineStr"/>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M433" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M434" t="inlineStr"/>
@@ -19846,7 +19846,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M436" t="inlineStr"/>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M438" t="inlineStr"/>
@@ -20067,7 +20067,7 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M441" t="inlineStr"/>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M443" t="inlineStr"/>
@@ -20198,7 +20198,7 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M444" t="inlineStr"/>
@@ -20460,7 +20460,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M450" t="inlineStr"/>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M453" t="inlineStr"/>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M455" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M459" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M461" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M462" t="inlineStr"/>
@@ -21209,7 +21209,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M467" t="inlineStr"/>
@@ -21254,7 +21254,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M468" t="inlineStr"/>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M471" t="inlineStr"/>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M474" t="inlineStr"/>
@@ -21688,7 +21688,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M478" t="inlineStr"/>
@@ -21778,7 +21778,7 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M480" t="inlineStr"/>
@@ -21823,7 +21823,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M481" t="inlineStr"/>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M487" t="inlineStr"/>
@@ -22220,7 +22220,7 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M490" t="inlineStr"/>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M491" t="inlineStr"/>
@@ -22310,7 +22310,7 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M492" t="inlineStr"/>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M493" t="inlineStr"/>
@@ -22531,7 +22531,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M497" t="inlineStr"/>
@@ -23108,7 +23108,7 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M510" t="inlineStr"/>
@@ -24153,7 +24153,7 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M535" t="inlineStr"/>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M611" t="inlineStr"/>
@@ -27434,7 +27434,7 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M612" t="inlineStr"/>
@@ -31752,7 +31752,7 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M714" t="inlineStr"/>
@@ -31842,7 +31842,7 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M716" t="inlineStr"/>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M721" t="inlineStr"/>
@@ -32641,7 +32641,7 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M735" t="inlineStr"/>
@@ -33190,7 +33190,7 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M748" t="inlineStr"/>
@@ -33489,7 +33489,7 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M755" t="inlineStr"/>
@@ -33575,7 +33575,7 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="M757" t="inlineStr"/>
@@ -33620,7 +33620,7 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M758" t="inlineStr"/>
@@ -33796,7 +33796,7 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M762" t="inlineStr"/>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M799" t="inlineStr"/>
@@ -35423,7 +35423,7 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M801" t="inlineStr"/>
@@ -35755,7 +35755,7 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M809" t="inlineStr"/>
@@ -35800,7 +35800,7 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M810" t="inlineStr"/>
@@ -36050,7 +36050,7 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M816" t="inlineStr"/>
@@ -36095,7 +36095,7 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M817" t="inlineStr"/>
@@ -36140,7 +36140,7 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M818" t="inlineStr"/>
@@ -36185,7 +36185,7 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M819" t="inlineStr"/>
@@ -36316,7 +36316,7 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M822" t="inlineStr"/>
@@ -36451,7 +36451,7 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M825" t="inlineStr"/>
@@ -36541,7 +36541,7 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M827" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M828" t="inlineStr"/>
@@ -36672,7 +36672,7 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M830" t="inlineStr"/>
@@ -36762,7 +36762,7 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M832" t="inlineStr"/>
@@ -36930,7 +36930,7 @@
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M836" t="inlineStr"/>
@@ -37110,7 +37110,7 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M840" t="inlineStr"/>
@@ -37196,7 +37196,7 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M842" t="inlineStr"/>
@@ -37241,7 +37241,7 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M843" t="inlineStr"/>
@@ -37286,7 +37286,7 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M844" t="inlineStr"/>
@@ -37372,7 +37372,7 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M846" t="inlineStr"/>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M847" t="inlineStr"/>
@@ -37503,7 +37503,7 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M849" t="inlineStr"/>
@@ -37548,7 +37548,7 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M850" t="inlineStr"/>
@@ -37724,7 +37724,7 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M854" t="inlineStr"/>
@@ -37769,7 +37769,7 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M855" t="inlineStr"/>
@@ -37945,7 +37945,7 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M859" t="inlineStr"/>
@@ -38031,7 +38031,7 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M861" t="inlineStr"/>
@@ -38117,7 +38117,7 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M863" t="inlineStr"/>
@@ -38162,7 +38162,7 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M864" t="inlineStr"/>
@@ -38248,7 +38248,7 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M866" t="inlineStr"/>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M867" t="inlineStr"/>
@@ -38379,7 +38379,7 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M869" t="inlineStr"/>
@@ -38424,7 +38424,7 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M870" t="inlineStr"/>
@@ -38510,7 +38510,7 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M872" t="inlineStr"/>
@@ -38555,7 +38555,7 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M873" t="inlineStr"/>
@@ -38641,7 +38641,7 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M875" t="inlineStr"/>
@@ -38686,7 +38686,7 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M876" t="inlineStr"/>
@@ -38772,7 +38772,7 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M878" t="inlineStr"/>
@@ -38817,7 +38817,7 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M879" t="inlineStr"/>
@@ -38907,7 +38907,7 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M881" t="inlineStr"/>
@@ -38952,7 +38952,7 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M882" t="inlineStr"/>
@@ -39038,7 +39038,7 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M884" t="inlineStr"/>
@@ -39173,7 +39173,7 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M887" t="inlineStr"/>
@@ -39218,7 +39218,7 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M888" t="inlineStr"/>
@@ -39304,7 +39304,7 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M890" t="inlineStr"/>
@@ -39349,7 +39349,7 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M891" t="inlineStr"/>
@@ -39439,7 +39439,7 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M893" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M898" t="inlineStr"/>
@@ -39738,7 +39738,7 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M900" t="inlineStr"/>
@@ -39783,7 +39783,7 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M901" t="inlineStr"/>
@@ -39869,7 +39869,7 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M903" t="inlineStr"/>
@@ -40000,7 +40000,7 @@
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M906" t="inlineStr"/>
@@ -40131,7 +40131,7 @@
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M909" t="inlineStr"/>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M913" t="inlineStr"/>
@@ -40348,7 +40348,7 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M914" t="inlineStr"/>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M915" t="inlineStr"/>
@@ -40438,7 +40438,7 @@
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M916" t="inlineStr"/>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M919" t="inlineStr"/>
@@ -40659,7 +40659,7 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M921" t="inlineStr"/>
@@ -40794,7 +40794,7 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M924" t="inlineStr"/>
@@ -40884,7 +40884,7 @@
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M926" t="inlineStr"/>
@@ -40974,7 +40974,7 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M928" t="inlineStr"/>
@@ -41060,7 +41060,7 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M930" t="inlineStr"/>
@@ -41146,7 +41146,7 @@
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M932" t="inlineStr"/>
@@ -41281,7 +41281,7 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M935" t="inlineStr"/>
@@ -41367,7 +41367,7 @@
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M937" t="inlineStr"/>
@@ -41502,7 +41502,7 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M940" t="inlineStr"/>
@@ -41629,7 +41629,7 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M943" t="inlineStr"/>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M945" t="inlineStr"/>
@@ -41760,7 +41760,7 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M946" t="inlineStr"/>
@@ -41846,7 +41846,7 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M948" t="inlineStr"/>
@@ -41891,7 +41891,7 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M949" t="inlineStr"/>
@@ -41977,7 +41977,7 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M951" t="inlineStr"/>
@@ -42022,7 +42022,7 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M952" t="inlineStr"/>
@@ -42067,7 +42067,7 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M953" t="inlineStr"/>
@@ -42112,7 +42112,7 @@
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M954" t="inlineStr"/>
@@ -42157,7 +42157,7 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M955" t="inlineStr"/>
@@ -42202,7 +42202,7 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M956" t="inlineStr"/>
@@ -42411,7 +42411,7 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M961" t="inlineStr"/>
@@ -42501,7 +42501,7 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M963" t="inlineStr"/>
@@ -42628,7 +42628,7 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M966" t="inlineStr"/>
@@ -42673,7 +42673,7 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M967" t="inlineStr"/>
@@ -42718,7 +42718,7 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M968" t="inlineStr"/>
@@ -42894,7 +42894,7 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M972" t="inlineStr"/>
@@ -42939,7 +42939,7 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M973" t="inlineStr"/>
@@ -43025,7 +43025,7 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M975" t="inlineStr"/>
@@ -43070,7 +43070,7 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M976" t="inlineStr"/>
@@ -43156,7 +43156,7 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M978" t="inlineStr"/>
@@ -43246,7 +43246,7 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M980" t="inlineStr"/>
@@ -43291,7 +43291,7 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M981" t="inlineStr"/>
@@ -43377,7 +43377,7 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M983" t="inlineStr"/>
@@ -43422,7 +43422,7 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M984" t="inlineStr"/>
@@ -43508,7 +43508,7 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M986" t="inlineStr"/>
@@ -43553,7 +43553,7 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M987" t="inlineStr"/>
@@ -43639,7 +43639,7 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M989" t="inlineStr"/>
@@ -43684,7 +43684,7 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M990" t="inlineStr"/>
@@ -43770,7 +43770,7 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M992" t="inlineStr"/>
@@ -43815,7 +43815,7 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M993" t="inlineStr"/>
@@ -43901,7 +43901,7 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M995" t="inlineStr"/>
@@ -43991,7 +43991,7 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M997" t="inlineStr"/>
@@ -44036,7 +44036,7 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M998" t="inlineStr"/>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M999" t="inlineStr"/>
@@ -44167,7 +44167,7 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1001" t="inlineStr"/>
@@ -44212,7 +44212,7 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1002" t="inlineStr"/>
@@ -44298,7 +44298,7 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="M1004" t="inlineStr"/>
@@ -44343,7 +44343,7 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1005" t="inlineStr"/>
@@ -44388,7 +44388,7 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1006" t="inlineStr"/>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1008" t="inlineStr"/>
@@ -44519,7 +44519,7 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1009" t="inlineStr"/>
@@ -44605,7 +44605,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr"/>
@@ -44695,7 +44695,7 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1013" t="inlineStr"/>
@@ -44785,7 +44785,7 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1015" t="inlineStr"/>
@@ -44912,7 +44912,7 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1018" t="inlineStr"/>
@@ -44998,7 +44998,7 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1020" t="inlineStr"/>
@@ -45125,7 +45125,7 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1023" t="inlineStr"/>
@@ -45211,7 +45211,7 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1025" t="inlineStr"/>
@@ -45256,7 +45256,7 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1026" t="inlineStr"/>
@@ -45301,7 +45301,7 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1027" t="inlineStr"/>
@@ -45391,7 +45391,7 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1029" t="inlineStr"/>
@@ -45436,7 +45436,7 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1030" t="inlineStr"/>
@@ -45567,7 +45567,7 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1033" t="inlineStr"/>
@@ -45657,7 +45657,7 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1035" t="inlineStr"/>
@@ -45792,7 +45792,7 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1038" t="inlineStr"/>
@@ -45837,7 +45837,7 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1039" t="inlineStr"/>
@@ -45927,7 +45927,7 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1041" t="inlineStr"/>
@@ -45972,7 +45972,7 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1042" t="inlineStr"/>
@@ -46017,7 +46017,7 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1043" t="inlineStr"/>
@@ -46062,7 +46062,7 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1044" t="inlineStr"/>
@@ -46107,7 +46107,7 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1045" t="inlineStr"/>
@@ -46197,7 +46197,7 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1047" t="inlineStr"/>
@@ -46242,7 +46242,7 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1048" t="inlineStr"/>
@@ -46377,7 +46377,7 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1051" t="inlineStr"/>
@@ -46467,7 +46467,7 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M1053" t="inlineStr"/>
@@ -46639,7 +46639,7 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1057" t="inlineStr"/>
@@ -46684,7 +46684,7 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1058" t="inlineStr"/>
@@ -46819,7 +46819,7 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1061" t="inlineStr"/>
@@ -46950,7 +46950,7 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1064" t="inlineStr"/>
@@ -47085,7 +47085,7 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1067" t="inlineStr"/>
@@ -47827,7 +47827,7 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1085" t="inlineStr"/>
@@ -47917,7 +47917,7 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1087" t="inlineStr"/>
@@ -48044,7 +48044,7 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1090" t="inlineStr"/>
@@ -48089,7 +48089,7 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1091" t="inlineStr"/>
@@ -48175,7 +48175,7 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1093" t="inlineStr"/>
@@ -48261,7 +48261,7 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1095" t="inlineStr"/>
@@ -48351,7 +48351,7 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1097" t="inlineStr"/>
@@ -48396,7 +48396,7 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1098" t="inlineStr"/>
@@ -48929,7 +48929,7 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1111" t="inlineStr"/>
@@ -49019,7 +49019,7 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1113" t="inlineStr"/>
@@ -49064,7 +49064,7 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1114" t="inlineStr"/>
@@ -49154,7 +49154,7 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1116" t="inlineStr"/>
@@ -49199,7 +49199,7 @@
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1117" t="inlineStr"/>
@@ -49330,7 +49330,7 @@
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1120" t="inlineStr"/>
@@ -49461,7 +49461,7 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1123" t="inlineStr"/>
@@ -49547,7 +49547,7 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1125" t="inlineStr"/>
@@ -49592,7 +49592,7 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1126" t="inlineStr"/>
@@ -49637,7 +49637,7 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1127" t="inlineStr"/>
@@ -49805,7 +49805,7 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1131" t="inlineStr"/>
@@ -49891,7 +49891,7 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1133" t="inlineStr"/>
@@ -50018,7 +50018,7 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1136" t="inlineStr"/>
@@ -50108,7 +50108,7 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1138" t="inlineStr"/>
@@ -50153,7 +50153,7 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1139" t="inlineStr"/>
@@ -50243,7 +50243,7 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1141" t="inlineStr"/>
@@ -50288,7 +50288,7 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1142" t="inlineStr"/>
@@ -50333,7 +50333,7 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1143" t="inlineStr"/>
@@ -50378,7 +50378,7 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1144" t="inlineStr"/>
@@ -50423,7 +50423,7 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1145" t="inlineStr"/>
@@ -50718,7 +50718,7 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1152" t="inlineStr"/>
@@ -50849,7 +50849,7 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M1155" t="inlineStr"/>
@@ -50976,7 +50976,7 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1158" t="inlineStr"/>
@@ -51062,7 +51062,7 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1160" t="inlineStr"/>
@@ -51107,7 +51107,7 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1161" t="inlineStr"/>
@@ -51193,7 +51193,7 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1163" t="inlineStr"/>
@@ -51238,7 +51238,7 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1164" t="inlineStr"/>
@@ -51328,7 +51328,7 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1166" t="inlineStr"/>
@@ -51373,7 +51373,7 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1167" t="inlineStr"/>
@@ -51459,7 +51459,7 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1169" t="inlineStr"/>
@@ -51504,7 +51504,7 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1170" t="inlineStr"/>
@@ -51590,7 +51590,7 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1172" t="inlineStr"/>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1173" t="inlineStr"/>
@@ -51680,7 +51680,7 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1174" t="inlineStr"/>
@@ -51725,7 +51725,7 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1175" t="inlineStr"/>
@@ -51811,7 +51811,7 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1177" t="inlineStr"/>
@@ -51901,7 +51901,7 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1179" t="inlineStr"/>
@@ -52352,7 +52352,7 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1190" t="inlineStr"/>
@@ -52442,7 +52442,7 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1192" t="inlineStr"/>
@@ -52614,7 +52614,7 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1196" t="inlineStr"/>
@@ -52704,7 +52704,7 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1198" t="inlineStr"/>
@@ -52749,7 +52749,7 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1199" t="inlineStr"/>
@@ -52839,7 +52839,7 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1201" t="inlineStr"/>
@@ -52884,7 +52884,7 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1202" t="inlineStr"/>
@@ -52970,7 +52970,7 @@
       </c>
       <c r="L1204" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="M1204" t="inlineStr"/>
@@ -53015,7 +53015,7 @@
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1205" t="inlineStr"/>
@@ -53060,7 +53060,7 @@
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1206" t="inlineStr"/>
@@ -53236,7 +53236,7 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1210" t="inlineStr"/>
@@ -53322,7 +53322,7 @@
       </c>
       <c r="L1212" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="M1212" t="inlineStr"/>
@@ -53367,7 +53367,7 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1213" t="inlineStr"/>
@@ -53457,7 +53457,7 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M1215" t="inlineStr"/>
@@ -53502,7 +53502,7 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1216" t="inlineStr"/>
@@ -53629,7 +53629,7 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1219" t="inlineStr"/>
@@ -53674,7 +53674,7 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1220" t="inlineStr"/>
@@ -53719,7 +53719,7 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1221" t="inlineStr"/>
@@ -53764,7 +53764,7 @@
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1222" t="inlineStr"/>
@@ -53809,7 +53809,7 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1223" t="inlineStr"/>
@@ -53940,7 +53940,7 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1226" t="inlineStr"/>
@@ -54030,7 +54030,7 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1228" t="inlineStr"/>
@@ -54366,7 +54366,7 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1236" t="inlineStr"/>
@@ -54411,7 +54411,7 @@
       </c>
       <c r="L1237" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1237" t="inlineStr"/>
@@ -54501,7 +54501,7 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1239" t="inlineStr"/>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1242" t="inlineStr"/>
@@ -54722,7 +54722,7 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1244" t="inlineStr"/>
@@ -54767,7 +54767,7 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1245" t="inlineStr"/>
@@ -54853,7 +54853,7 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1247" t="inlineStr"/>
@@ -54898,7 +54898,7 @@
       </c>
       <c r="L1248" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1248" t="inlineStr"/>
@@ -54984,7 +54984,7 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1250" t="inlineStr"/>
@@ -55029,7 +55029,7 @@
       </c>
       <c r="L1251" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1251" t="inlineStr"/>
@@ -55115,7 +55115,7 @@
       </c>
       <c r="L1253" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1253" t="inlineStr"/>
@@ -55160,7 +55160,7 @@
       </c>
       <c r="L1254" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1254" t="inlineStr"/>
@@ -55246,7 +55246,7 @@
       </c>
       <c r="L1256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1256" t="inlineStr"/>
@@ -55291,7 +55291,7 @@
       </c>
       <c r="L1257" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1257" t="inlineStr"/>
@@ -55377,7 +55377,7 @@
       </c>
       <c r="L1259" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1259" t="inlineStr"/>
@@ -55422,7 +55422,7 @@
       </c>
       <c r="L1260" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1260" t="inlineStr"/>
@@ -55508,7 +55508,7 @@
       </c>
       <c r="L1262" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1262" t="inlineStr"/>
@@ -55553,7 +55553,7 @@
       </c>
       <c r="L1263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1263" t="inlineStr"/>
@@ -55598,7 +55598,7 @@
       </c>
       <c r="L1264" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1264" t="inlineStr"/>
@@ -55643,7 +55643,7 @@
       </c>
       <c r="L1265" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1265" t="inlineStr"/>
@@ -55688,7 +55688,7 @@
       </c>
       <c r="L1266" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1266" t="inlineStr"/>
@@ -55774,7 +55774,7 @@
       </c>
       <c r="L1268" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1268" t="inlineStr"/>
@@ -55819,7 +55819,7 @@
       </c>
       <c r="L1269" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1269" t="inlineStr"/>
@@ -55905,7 +55905,7 @@
       </c>
       <c r="L1271" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1271" t="inlineStr"/>
@@ -55995,7 +55995,7 @@
       </c>
       <c r="L1273" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1273" t="inlineStr"/>
@@ -56040,7 +56040,7 @@
       </c>
       <c r="L1274" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1274" t="inlineStr"/>
@@ -56126,7 +56126,7 @@
       </c>
       <c r="L1276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1276" t="inlineStr"/>
@@ -56298,7 +56298,7 @@
       </c>
       <c r="L1280" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1280" t="inlineStr"/>
@@ -56384,7 +56384,7 @@
       </c>
       <c r="L1282" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1282" t="inlineStr"/>
@@ -56429,7 +56429,7 @@
       </c>
       <c r="L1283" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1283" t="inlineStr"/>
@@ -56515,7 +56515,7 @@
       </c>
       <c r="L1285" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1285" t="inlineStr"/>
@@ -56605,7 +56605,7 @@
       </c>
       <c r="L1287" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1287" t="inlineStr"/>
@@ -56732,7 +56732,7 @@
       </c>
       <c r="L1290" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1290" t="inlineStr"/>
@@ -56945,7 +56945,7 @@
       </c>
       <c r="L1295" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1295" t="inlineStr"/>
@@ -56990,7 +56990,7 @@
       </c>
       <c r="L1296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1296" t="inlineStr"/>
@@ -57121,7 +57121,7 @@
       </c>
       <c r="L1299" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1299" t="inlineStr"/>
@@ -57412,7 +57412,7 @@
       </c>
       <c r="L1306" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1306" t="inlineStr"/>
@@ -57502,7 +57502,7 @@
       </c>
       <c r="L1308" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1308" t="inlineStr"/>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="L1310" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1310" t="inlineStr"/>
@@ -57838,7 +57838,7 @@
       </c>
       <c r="L1316" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1316" t="inlineStr"/>
@@ -57924,7 +57924,7 @@
       </c>
       <c r="L1318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1318" t="inlineStr"/>
@@ -58014,7 +58014,7 @@
       </c>
       <c r="L1320" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1320" t="inlineStr"/>
@@ -58059,7 +58059,7 @@
       </c>
       <c r="L1321" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1321" t="inlineStr"/>
@@ -58149,7 +58149,7 @@
       </c>
       <c r="L1323" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1323" t="inlineStr"/>
@@ -58194,7 +58194,7 @@
       </c>
       <c r="L1324" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1324" t="inlineStr"/>
@@ -58239,7 +58239,7 @@
       </c>
       <c r="L1325" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1325" t="inlineStr"/>
@@ -58325,7 +58325,7 @@
       </c>
       <c r="L1327" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1327" t="inlineStr"/>
@@ -58411,7 +58411,7 @@
       </c>
       <c r="L1329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1329" t="inlineStr"/>
@@ -58497,7 +58497,7 @@
       </c>
       <c r="L1331" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1331" t="inlineStr"/>
@@ -58583,7 +58583,7 @@
       </c>
       <c r="L1333" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1333" t="inlineStr"/>
@@ -58669,7 +58669,7 @@
       </c>
       <c r="L1335" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1335" t="inlineStr"/>
@@ -58759,7 +58759,7 @@
       </c>
       <c r="L1337" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1337" t="inlineStr"/>
@@ -58849,7 +58849,7 @@
       </c>
       <c r="L1339" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1339" t="inlineStr"/>
@@ -58894,7 +58894,7 @@
       </c>
       <c r="L1340" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1340" t="inlineStr"/>
@@ -58980,7 +58980,7 @@
       </c>
       <c r="L1342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1342" t="inlineStr"/>
@@ -59115,7 +59115,7 @@
       </c>
       <c r="L1345" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1345" t="inlineStr"/>
@@ -59250,7 +59250,7 @@
       </c>
       <c r="L1348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1348" t="inlineStr"/>
@@ -59295,7 +59295,7 @@
       </c>
       <c r="L1349" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1349" t="inlineStr"/>
@@ -59340,7 +59340,7 @@
       </c>
       <c r="L1350" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1350" t="inlineStr"/>
@@ -59385,7 +59385,7 @@
       </c>
       <c r="L1351" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M1351" t="inlineStr"/>
@@ -59512,7 +59512,7 @@
       </c>
       <c r="L1354" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1354" t="inlineStr"/>
@@ -59598,7 +59598,7 @@
       </c>
       <c r="L1356" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1356" t="inlineStr"/>
@@ -59643,7 +59643,7 @@
       </c>
       <c r="L1357" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1357" t="inlineStr"/>
@@ -59729,7 +59729,7 @@
       </c>
       <c r="L1359" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="M1359" t="inlineStr"/>
@@ -59774,7 +59774,7 @@
       </c>
       <c r="L1360" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1360" t="inlineStr"/>
@@ -59819,7 +59819,7 @@
       </c>
       <c r="L1361" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1361" t="inlineStr"/>
@@ -59905,7 +59905,7 @@
       </c>
       <c r="L1363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1363" t="inlineStr"/>
@@ -59950,7 +59950,7 @@
       </c>
       <c r="L1364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1364" t="inlineStr"/>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="L1366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1366" t="inlineStr"/>
@@ -60126,7 +60126,7 @@
       </c>
       <c r="L1368" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1368" t="inlineStr"/>
@@ -60212,7 +60212,7 @@
       </c>
       <c r="L1370" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1370" t="inlineStr"/>
@@ -60302,7 +60302,7 @@
       </c>
       <c r="L1372" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1372" t="inlineStr"/>
@@ -60478,7 +60478,7 @@
       </c>
       <c r="L1376" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1376" t="inlineStr"/>
@@ -60523,7 +60523,7 @@
       </c>
       <c r="L1377" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1377" t="inlineStr"/>
@@ -60568,7 +60568,7 @@
       </c>
       <c r="L1378" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1378" t="inlineStr"/>
@@ -60613,7 +60613,7 @@
       </c>
       <c r="L1379" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1379" t="inlineStr"/>
@@ -60744,7 +60744,7 @@
       </c>
       <c r="L1382" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1382" t="inlineStr"/>
@@ -60830,7 +60830,7 @@
       </c>
       <c r="L1384" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1384" t="inlineStr"/>
@@ -60965,7 +60965,7 @@
       </c>
       <c r="L1387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1387" t="inlineStr"/>
@@ -61010,7 +61010,7 @@
       </c>
       <c r="L1388" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1388" t="inlineStr"/>
@@ -61096,7 +61096,7 @@
       </c>
       <c r="L1390" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1390" t="inlineStr"/>
@@ -61141,7 +61141,7 @@
       </c>
       <c r="L1391" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1391" t="inlineStr"/>
@@ -61186,7 +61186,7 @@
       </c>
       <c r="L1392" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1392" t="inlineStr"/>
@@ -61276,7 +61276,7 @@
       </c>
       <c r="L1394" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1394" t="inlineStr"/>
@@ -61321,7 +61321,7 @@
       </c>
       <c r="L1395" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M1395" t="inlineStr"/>
@@ -61407,7 +61407,7 @@
       </c>
       <c r="L1397" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1397" t="inlineStr"/>
@@ -61452,7 +61452,7 @@
       </c>
       <c r="L1398" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1398" t="inlineStr"/>
@@ -61497,7 +61497,7 @@
       </c>
       <c r="L1399" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1399" t="inlineStr"/>
@@ -61542,7 +61542,7 @@
       </c>
       <c r="L1400" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1400" t="inlineStr"/>
@@ -61632,7 +61632,7 @@
       </c>
       <c r="L1402" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1402" t="inlineStr"/>
@@ -61804,7 +61804,7 @@
       </c>
       <c r="L1406" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M1406" t="inlineStr"/>
@@ -61849,7 +61849,7 @@
       </c>
       <c r="L1407" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1407" t="inlineStr"/>
@@ -61894,7 +61894,7 @@
       </c>
       <c r="L1408" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="M1408" t="inlineStr"/>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="L1410" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1410" t="inlineStr"/>
@@ -62111,7 +62111,7 @@
       </c>
       <c r="L1413" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1413" t="inlineStr"/>
@@ -62156,7 +62156,7 @@
       </c>
       <c r="L1414" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="M1414" t="inlineStr"/>

--- a/WD_BDRC_data.xlsx
+++ b/WD_BDRC_data.xlsx
@@ -593,7 +593,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -716,7 +716,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M164" t="inlineStr"/>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M189" t="inlineStr"/>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M218" t="inlineStr"/>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M219" t="inlineStr"/>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M221" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M222" t="inlineStr"/>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M224" t="inlineStr"/>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M226" t="inlineStr"/>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M227" t="inlineStr"/>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>{'eft:rinchen-tso', 'eft:rin-chen-tsho'}</t>
+          <t>{'eft:rin-chen-tsho', 'eft:rinchen-tso'}</t>
         </is>
       </c>
       <c r="M228" t="inlineStr"/>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M229" t="inlineStr"/>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M230" t="inlineStr"/>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M232" t="inlineStr"/>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M234" t="inlineStr"/>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M235" t="inlineStr"/>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M237" t="inlineStr"/>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M239" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M248" t="inlineStr"/>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M249" t="inlineStr"/>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M250" t="inlineStr"/>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M252" t="inlineStr"/>
@@ -11772,7 +11772,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M254" t="inlineStr"/>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M256" t="inlineStr"/>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M258" t="inlineStr"/>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M260" t="inlineStr"/>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M263" t="inlineStr"/>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M265" t="inlineStr"/>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M267" t="inlineStr"/>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M269" t="inlineStr"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M272" t="inlineStr"/>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M276" t="inlineStr"/>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M291" t="inlineStr"/>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M293" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M296" t="inlineStr"/>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M298" t="inlineStr"/>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M299" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M301" t="inlineStr"/>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M304" t="inlineStr"/>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M305" t="inlineStr"/>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M307" t="inlineStr"/>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M309" t="inlineStr"/>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M311" t="inlineStr"/>
@@ -14363,7 +14363,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M313" t="inlineStr"/>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M315" t="inlineStr"/>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M316" t="inlineStr"/>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M318" t="inlineStr"/>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M321" t="inlineStr"/>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M323" t="inlineStr"/>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M324" t="inlineStr"/>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M326" t="inlineStr"/>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M327" t="inlineStr"/>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M329" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M334" t="inlineStr"/>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M336" t="inlineStr"/>
@@ -15439,7 +15439,7 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>{'eft:rinchen-tso', 'eft:rin-chen-tsho'}</t>
+          <t>{'eft:rin-chen-tsho', 'eft:rinchen-tso'}</t>
         </is>
       </c>
       <c r="M337" t="inlineStr"/>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M338" t="inlineStr"/>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M340" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M342" t="inlineStr"/>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M343" t="inlineStr"/>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M345" t="inlineStr"/>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M346" t="inlineStr"/>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M348" t="inlineStr"/>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M352" t="inlineStr"/>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M355" t="inlineStr"/>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M358" t="inlineStr"/>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M361" t="inlineStr"/>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M363" t="inlineStr"/>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M364" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M366" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M367" t="inlineStr"/>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M369" t="inlineStr"/>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M374" t="inlineStr"/>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M375" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M377" t="inlineStr"/>
@@ -17481,7 +17481,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M383" t="inlineStr"/>
@@ -17526,7 +17526,7 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M384" t="inlineStr"/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M387" t="inlineStr"/>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M393" t="inlineStr"/>
@@ -18013,7 +18013,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M395" t="inlineStr"/>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M397" t="inlineStr"/>
@@ -18148,7 +18148,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M398" t="inlineStr"/>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M400" t="inlineStr"/>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M403" t="inlineStr"/>
@@ -18496,7 +18496,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M406" t="inlineStr"/>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M407" t="inlineStr"/>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M409" t="inlineStr"/>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M411" t="inlineStr"/>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M413" t="inlineStr"/>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M415" t="inlineStr"/>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M416" t="inlineStr"/>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M417" t="inlineStr"/>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M419" t="inlineStr"/>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M421" t="inlineStr"/>
@@ -19216,7 +19216,7 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M422" t="inlineStr"/>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M424" t="inlineStr"/>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M425" t="inlineStr"/>
@@ -19441,7 +19441,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M427" t="inlineStr"/>
@@ -19486,7 +19486,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M428" t="inlineStr"/>
@@ -19576,7 +19576,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M430" t="inlineStr"/>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M431" t="inlineStr"/>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M433" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M434" t="inlineStr"/>
@@ -19846,7 +19846,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M436" t="inlineStr"/>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M438" t="inlineStr"/>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M443" t="inlineStr"/>
@@ -20460,7 +20460,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M450" t="inlineStr"/>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M453" t="inlineStr"/>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M455" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M459" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M461" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M462" t="inlineStr"/>
@@ -21209,7 +21209,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M467" t="inlineStr"/>
@@ -21254,7 +21254,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M468" t="inlineStr"/>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M471" t="inlineStr"/>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M474" t="inlineStr"/>
@@ -21688,7 +21688,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M478" t="inlineStr"/>
@@ -21823,7 +21823,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M481" t="inlineStr"/>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M487" t="inlineStr"/>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M491" t="inlineStr"/>
@@ -22310,7 +22310,7 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M492" t="inlineStr"/>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M493" t="inlineStr"/>
@@ -22531,7 +22531,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M497" t="inlineStr"/>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M611" t="inlineStr"/>
@@ -31752,7 +31752,7 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M714" t="inlineStr"/>
@@ -31842,7 +31842,7 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M716" t="inlineStr"/>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M721" t="inlineStr"/>
@@ -32641,7 +32641,7 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M735" t="inlineStr"/>
@@ -33489,7 +33489,7 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M755" t="inlineStr"/>
@@ -33620,7 +33620,7 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M758" t="inlineStr"/>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M799" t="inlineStr"/>
@@ -35423,7 +35423,7 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M801" t="inlineStr"/>
@@ -35800,7 +35800,7 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M810" t="inlineStr"/>
@@ -36095,7 +36095,7 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M817" t="inlineStr"/>
@@ -36185,7 +36185,7 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M819" t="inlineStr"/>
@@ -36541,7 +36541,7 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M827" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M828" t="inlineStr"/>
@@ -36672,7 +36672,7 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M830" t="inlineStr"/>
@@ -36762,7 +36762,7 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M832" t="inlineStr"/>
@@ -37110,7 +37110,7 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M840" t="inlineStr"/>
@@ -37241,7 +37241,7 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M843" t="inlineStr"/>
@@ -37286,7 +37286,7 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M844" t="inlineStr"/>
@@ -37372,7 +37372,7 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M846" t="inlineStr"/>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M847" t="inlineStr"/>
@@ -37548,7 +37548,7 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M850" t="inlineStr"/>
@@ -37724,7 +37724,7 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M854" t="inlineStr"/>
@@ -37769,7 +37769,7 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M855" t="inlineStr"/>
@@ -37945,7 +37945,7 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M859" t="inlineStr"/>
@@ -38031,7 +38031,7 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M861" t="inlineStr"/>
@@ -38117,7 +38117,7 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M863" t="inlineStr"/>
@@ -38162,7 +38162,7 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M864" t="inlineStr"/>
@@ -38248,7 +38248,7 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M866" t="inlineStr"/>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M867" t="inlineStr"/>
@@ -38379,7 +38379,7 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M869" t="inlineStr"/>
@@ -38424,7 +38424,7 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M870" t="inlineStr"/>
@@ -38510,7 +38510,7 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M872" t="inlineStr"/>
@@ -38555,7 +38555,7 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M873" t="inlineStr"/>
@@ -38641,7 +38641,7 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M875" t="inlineStr"/>
@@ -38686,7 +38686,7 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M876" t="inlineStr"/>
@@ -38772,7 +38772,7 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M878" t="inlineStr"/>
@@ -38817,7 +38817,7 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M879" t="inlineStr"/>
@@ -38907,7 +38907,7 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M881" t="inlineStr"/>
@@ -38952,7 +38952,7 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M882" t="inlineStr"/>
@@ -39038,7 +39038,7 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M884" t="inlineStr"/>
@@ -39173,7 +39173,7 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M887" t="inlineStr"/>
@@ -39218,7 +39218,7 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M888" t="inlineStr"/>
@@ -39304,7 +39304,7 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M890" t="inlineStr"/>
@@ -39349,7 +39349,7 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M891" t="inlineStr"/>
@@ -39439,7 +39439,7 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M893" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M898" t="inlineStr"/>
@@ -39738,7 +39738,7 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M900" t="inlineStr"/>
@@ -39783,7 +39783,7 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M901" t="inlineStr"/>
@@ -39869,7 +39869,7 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M903" t="inlineStr"/>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M913" t="inlineStr"/>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M915" t="inlineStr"/>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M919" t="inlineStr"/>
@@ -40794,7 +40794,7 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M924" t="inlineStr"/>
@@ -40929,7 +40929,7 @@
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M927" t="inlineStr"/>
@@ -40974,7 +40974,7 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M928" t="inlineStr"/>
@@ -41060,7 +41060,7 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M930" t="inlineStr"/>
@@ -41281,7 +41281,7 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M935" t="inlineStr"/>
@@ -41502,7 +41502,7 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M940" t="inlineStr"/>
@@ -41629,7 +41629,7 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M943" t="inlineStr"/>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M945" t="inlineStr"/>
@@ -41760,7 +41760,7 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M946" t="inlineStr"/>
@@ -41846,7 +41846,7 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M948" t="inlineStr"/>
@@ -41891,7 +41891,7 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M949" t="inlineStr"/>
@@ -41977,7 +41977,7 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M951" t="inlineStr"/>
@@ -42067,7 +42067,7 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M953" t="inlineStr"/>
@@ -42157,7 +42157,7 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M955" t="inlineStr"/>
@@ -42202,7 +42202,7 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M956" t="inlineStr"/>
@@ -42411,7 +42411,7 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M961" t="inlineStr"/>
@@ -42501,7 +42501,7 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M963" t="inlineStr"/>
@@ -42628,7 +42628,7 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M966" t="inlineStr"/>
@@ -42718,7 +42718,7 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M968" t="inlineStr"/>
@@ -42939,7 +42939,7 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M973" t="inlineStr"/>
@@ -43025,7 +43025,7 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M975" t="inlineStr"/>
@@ -43070,7 +43070,7 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M976" t="inlineStr"/>
@@ -43156,7 +43156,7 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M978" t="inlineStr"/>
@@ -43246,7 +43246,7 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M980" t="inlineStr"/>
@@ -43291,7 +43291,7 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M981" t="inlineStr"/>
@@ -43377,7 +43377,7 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M983" t="inlineStr"/>
@@ -43422,7 +43422,7 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M984" t="inlineStr"/>
@@ -43508,7 +43508,7 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M986" t="inlineStr"/>
@@ -43553,7 +43553,7 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M987" t="inlineStr"/>
@@ -43639,7 +43639,7 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M989" t="inlineStr"/>
@@ -43684,7 +43684,7 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M990" t="inlineStr"/>
@@ -43770,7 +43770,7 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M992" t="inlineStr"/>
@@ -43815,7 +43815,7 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M993" t="inlineStr"/>
@@ -43901,7 +43901,7 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M995" t="inlineStr"/>
@@ -43991,7 +43991,7 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M997" t="inlineStr"/>
@@ -44036,7 +44036,7 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M998" t="inlineStr"/>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M999" t="inlineStr"/>
@@ -44167,7 +44167,7 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1001" t="inlineStr"/>
@@ -44212,7 +44212,7 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1002" t="inlineStr"/>
@@ -44343,7 +44343,7 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1005" t="inlineStr"/>
@@ -44388,7 +44388,7 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1006" t="inlineStr"/>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1008" t="inlineStr"/>
@@ -44519,7 +44519,7 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1009" t="inlineStr"/>
@@ -44605,7 +44605,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr"/>
@@ -44695,7 +44695,7 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1013" t="inlineStr"/>
@@ -44785,7 +44785,7 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1015" t="inlineStr"/>
@@ -44912,7 +44912,7 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1018" t="inlineStr"/>
@@ -44998,7 +44998,7 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1020" t="inlineStr"/>
@@ -45125,7 +45125,7 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1023" t="inlineStr"/>
@@ -45211,7 +45211,7 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1025" t="inlineStr"/>
@@ -45256,7 +45256,7 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1026" t="inlineStr"/>
@@ -45301,7 +45301,7 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1027" t="inlineStr"/>
@@ -45391,7 +45391,7 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1029" t="inlineStr"/>
@@ -45567,7 +45567,7 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1033" t="inlineStr"/>
@@ -45657,7 +45657,7 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1035" t="inlineStr"/>
@@ -45792,7 +45792,7 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1038" t="inlineStr"/>
@@ -45837,7 +45837,7 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1039" t="inlineStr"/>
@@ -45927,7 +45927,7 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1041" t="inlineStr"/>
@@ -45972,7 +45972,7 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1042" t="inlineStr"/>
@@ -46062,7 +46062,7 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1044" t="inlineStr"/>
@@ -46107,7 +46107,7 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1045" t="inlineStr"/>
@@ -46197,7 +46197,7 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1047" t="inlineStr"/>
@@ -46242,7 +46242,7 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1048" t="inlineStr"/>
@@ -46377,7 +46377,7 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1051" t="inlineStr"/>
@@ -46639,7 +46639,7 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1057" t="inlineStr"/>
@@ -46684,7 +46684,7 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1058" t="inlineStr"/>
@@ -46819,7 +46819,7 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1061" t="inlineStr"/>
@@ -46950,7 +46950,7 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1064" t="inlineStr"/>
@@ -47085,7 +47085,7 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1067" t="inlineStr"/>
@@ -47827,7 +47827,7 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1085" t="inlineStr"/>
@@ -47917,7 +47917,7 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1087" t="inlineStr"/>
@@ -48089,7 +48089,7 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1091" t="inlineStr"/>
@@ -48175,7 +48175,7 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1093" t="inlineStr"/>
@@ -48261,7 +48261,7 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1095" t="inlineStr"/>
@@ -48351,7 +48351,7 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1097" t="inlineStr"/>
@@ -48396,7 +48396,7 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1098" t="inlineStr"/>
@@ -48929,7 +48929,7 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1111" t="inlineStr"/>
@@ -49019,7 +49019,7 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1113" t="inlineStr"/>
@@ -49064,7 +49064,7 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1114" t="inlineStr"/>
@@ -49154,7 +49154,7 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1116" t="inlineStr"/>
@@ -49461,7 +49461,7 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1123" t="inlineStr"/>
@@ -49547,7 +49547,7 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1125" t="inlineStr"/>
@@ -49637,7 +49637,7 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1127" t="inlineStr"/>
@@ -49805,7 +49805,7 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1131" t="inlineStr"/>
@@ -49891,7 +49891,7 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1133" t="inlineStr"/>
@@ -50018,7 +50018,7 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1136" t="inlineStr"/>
@@ -50108,7 +50108,7 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1138" t="inlineStr"/>
@@ -50153,7 +50153,7 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1139" t="inlineStr"/>
@@ -50243,7 +50243,7 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1141" t="inlineStr"/>
@@ -50288,7 +50288,7 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1142" t="inlineStr"/>
@@ -50333,7 +50333,7 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1143" t="inlineStr"/>
@@ -50378,7 +50378,7 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1144" t="inlineStr"/>
@@ -50423,7 +50423,7 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1145" t="inlineStr"/>
@@ -50718,7 +50718,7 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M1152" t="inlineStr"/>
@@ -50976,7 +50976,7 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1158" t="inlineStr"/>
@@ -51062,7 +51062,7 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1160" t="inlineStr"/>
@@ -51107,7 +51107,7 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1161" t="inlineStr"/>
@@ -51193,7 +51193,7 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1163" t="inlineStr"/>
@@ -51328,7 +51328,7 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1166" t="inlineStr"/>
@@ -51373,7 +51373,7 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1167" t="inlineStr"/>
@@ -51459,7 +51459,7 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1169" t="inlineStr"/>
@@ -51504,7 +51504,7 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1170" t="inlineStr"/>
@@ -51590,7 +51590,7 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1172" t="inlineStr"/>
@@ -51680,7 +51680,7 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1174" t="inlineStr"/>
@@ -51725,7 +51725,7 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1175" t="inlineStr"/>
@@ -51811,7 +51811,7 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1177" t="inlineStr"/>
@@ -51901,7 +51901,7 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1179" t="inlineStr"/>
@@ -52352,7 +52352,7 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1190" t="inlineStr"/>
@@ -52442,7 +52442,7 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1192" t="inlineStr"/>
@@ -52614,7 +52614,7 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1196" t="inlineStr"/>
@@ -52704,7 +52704,7 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1198" t="inlineStr"/>
@@ -52749,7 +52749,7 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1199" t="inlineStr"/>
@@ -52839,7 +52839,7 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1201" t="inlineStr"/>
@@ -52884,7 +52884,7 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1202" t="inlineStr"/>
@@ -53015,7 +53015,7 @@
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1205" t="inlineStr"/>
@@ -53236,7 +53236,7 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M1210" t="inlineStr"/>
@@ -53367,7 +53367,7 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1213" t="inlineStr"/>
@@ -53457,7 +53457,7 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M1215" t="inlineStr"/>
@@ -53502,7 +53502,7 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M1216" t="inlineStr"/>
@@ -53629,7 +53629,7 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1219" t="inlineStr"/>
@@ -53674,7 +53674,7 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1220" t="inlineStr"/>
@@ -53719,7 +53719,7 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1221" t="inlineStr"/>
@@ -53764,7 +53764,7 @@
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1222" t="inlineStr"/>
@@ -53809,7 +53809,7 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1223" t="inlineStr"/>
@@ -53940,7 +53940,7 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1226" t="inlineStr"/>
@@ -54030,7 +54030,7 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1228" t="inlineStr"/>
@@ -54366,7 +54366,7 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1236" t="inlineStr"/>
@@ -54411,7 +54411,7 @@
       </c>
       <c r="L1237" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1237" t="inlineStr"/>
@@ -54501,7 +54501,7 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1239" t="inlineStr"/>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1242" t="inlineStr"/>
@@ -54722,7 +54722,7 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1244" t="inlineStr"/>
@@ -54767,7 +54767,7 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1245" t="inlineStr"/>
@@ -54853,7 +54853,7 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1247" t="inlineStr"/>
@@ -54898,7 +54898,7 @@
       </c>
       <c r="L1248" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1248" t="inlineStr"/>
@@ -54984,7 +54984,7 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1250" t="inlineStr"/>
@@ -55029,7 +55029,7 @@
       </c>
       <c r="L1251" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1251" t="inlineStr"/>
@@ -55115,7 +55115,7 @@
       </c>
       <c r="L1253" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1253" t="inlineStr"/>
@@ -55160,7 +55160,7 @@
       </c>
       <c r="L1254" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1254" t="inlineStr"/>
@@ -55246,7 +55246,7 @@
       </c>
       <c r="L1256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1256" t="inlineStr"/>
@@ -55291,7 +55291,7 @@
       </c>
       <c r="L1257" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1257" t="inlineStr"/>
@@ -55377,7 +55377,7 @@
       </c>
       <c r="L1259" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1259" t="inlineStr"/>
@@ -55422,7 +55422,7 @@
       </c>
       <c r="L1260" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1260" t="inlineStr"/>
@@ -55508,7 +55508,7 @@
       </c>
       <c r="L1262" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1262" t="inlineStr"/>
@@ -55553,7 +55553,7 @@
       </c>
       <c r="L1263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1263" t="inlineStr"/>
@@ -55643,7 +55643,7 @@
       </c>
       <c r="L1265" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1265" t="inlineStr"/>
@@ -55688,7 +55688,7 @@
       </c>
       <c r="L1266" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1266" t="inlineStr"/>
@@ -55774,7 +55774,7 @@
       </c>
       <c r="L1268" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1268" t="inlineStr"/>
@@ -55819,7 +55819,7 @@
       </c>
       <c r="L1269" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1269" t="inlineStr"/>
@@ -55905,7 +55905,7 @@
       </c>
       <c r="L1271" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1271" t="inlineStr"/>
@@ -55995,7 +55995,7 @@
       </c>
       <c r="L1273" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1273" t="inlineStr"/>
@@ -56040,7 +56040,7 @@
       </c>
       <c r="L1274" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1274" t="inlineStr"/>
@@ -56126,7 +56126,7 @@
       </c>
       <c r="L1276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1276" t="inlineStr"/>
@@ -56298,7 +56298,7 @@
       </c>
       <c r="L1280" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1280" t="inlineStr"/>
@@ -56384,7 +56384,7 @@
       </c>
       <c r="L1282" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1282" t="inlineStr"/>
@@ -56429,7 +56429,7 @@
       </c>
       <c r="L1283" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1283" t="inlineStr"/>
@@ -56515,7 +56515,7 @@
       </c>
       <c r="L1285" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1285" t="inlineStr"/>
@@ -56605,7 +56605,7 @@
       </c>
       <c r="L1287" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1287" t="inlineStr"/>
@@ -56990,7 +56990,7 @@
       </c>
       <c r="L1296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1296" t="inlineStr"/>
@@ -57121,7 +57121,7 @@
       </c>
       <c r="L1299" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1299" t="inlineStr"/>
@@ -57412,7 +57412,7 @@
       </c>
       <c r="L1306" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1306" t="inlineStr"/>
@@ -57502,7 +57502,7 @@
       </c>
       <c r="L1308" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1308" t="inlineStr"/>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="L1310" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1310" t="inlineStr"/>
@@ -57674,7 +57674,7 @@
       </c>
       <c r="L1312" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M1312" t="inlineStr"/>
@@ -57838,7 +57838,7 @@
       </c>
       <c r="L1316" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1316" t="inlineStr"/>
@@ -57924,7 +57924,7 @@
       </c>
       <c r="L1318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1318" t="inlineStr"/>
@@ -58014,7 +58014,7 @@
       </c>
       <c r="L1320" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1320" t="inlineStr"/>
@@ -58059,7 +58059,7 @@
       </c>
       <c r="L1321" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1321" t="inlineStr"/>
@@ -58149,7 +58149,7 @@
       </c>
       <c r="L1323" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1323" t="inlineStr"/>
@@ -58239,7 +58239,7 @@
       </c>
       <c r="L1325" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1325" t="inlineStr"/>
@@ -58325,7 +58325,7 @@
       </c>
       <c r="L1327" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1327" t="inlineStr"/>
@@ -58411,7 +58411,7 @@
       </c>
       <c r="L1329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1329" t="inlineStr"/>
@@ -58497,7 +58497,7 @@
       </c>
       <c r="L1331" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1331" t="inlineStr"/>
@@ -58583,7 +58583,7 @@
       </c>
       <c r="L1333" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1333" t="inlineStr"/>
@@ -58669,7 +58669,7 @@
       </c>
       <c r="L1335" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1335" t="inlineStr"/>
@@ -58759,7 +58759,7 @@
       </c>
       <c r="L1337" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1337" t="inlineStr"/>
@@ -58849,7 +58849,7 @@
       </c>
       <c r="L1339" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1339" t="inlineStr"/>
@@ -58894,7 +58894,7 @@
       </c>
       <c r="L1340" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1340" t="inlineStr"/>
@@ -58980,7 +58980,7 @@
       </c>
       <c r="L1342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1342" t="inlineStr"/>
@@ -59115,7 +59115,7 @@
       </c>
       <c r="L1345" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M1345" t="inlineStr"/>
@@ -59250,7 +59250,7 @@
       </c>
       <c r="L1348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1348" t="inlineStr"/>
@@ -59340,7 +59340,7 @@
       </c>
       <c r="L1350" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1350" t="inlineStr"/>
@@ -59512,7 +59512,7 @@
       </c>
       <c r="L1354" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1354" t="inlineStr"/>
@@ -59598,7 +59598,7 @@
       </c>
       <c r="L1356" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1356" t="inlineStr"/>
@@ -59643,7 +59643,7 @@
       </c>
       <c r="L1357" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1357" t="inlineStr"/>
@@ -59774,7 +59774,7 @@
       </c>
       <c r="L1360" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1360" t="inlineStr"/>
@@ -59819,7 +59819,7 @@
       </c>
       <c r="L1361" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1361" t="inlineStr"/>
@@ -59905,7 +59905,7 @@
       </c>
       <c r="L1363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1363" t="inlineStr"/>
@@ -59950,7 +59950,7 @@
       </c>
       <c r="L1364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1364" t="inlineStr"/>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="L1366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1366" t="inlineStr"/>
@@ -60126,7 +60126,7 @@
       </c>
       <c r="L1368" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1368" t="inlineStr"/>
@@ -60212,7 +60212,7 @@
       </c>
       <c r="L1370" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1370" t="inlineStr"/>
@@ -60302,7 +60302,7 @@
       </c>
       <c r="L1372" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1372" t="inlineStr"/>
@@ -60347,7 +60347,7 @@
       </c>
       <c r="L1373" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M1373" t="inlineStr"/>
@@ -60478,7 +60478,7 @@
       </c>
       <c r="L1376" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1376" t="inlineStr"/>
@@ -60568,7 +60568,7 @@
       </c>
       <c r="L1378" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1378" t="inlineStr"/>
@@ -60613,7 +60613,7 @@
       </c>
       <c r="L1379" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1379" t="inlineStr"/>
@@ -60744,7 +60744,7 @@
       </c>
       <c r="L1382" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1382" t="inlineStr"/>
@@ -60830,7 +60830,7 @@
       </c>
       <c r="L1384" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1384" t="inlineStr"/>
@@ -60965,7 +60965,7 @@
       </c>
       <c r="L1387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1387" t="inlineStr"/>
@@ -61010,7 +61010,7 @@
       </c>
       <c r="L1388" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1388" t="inlineStr"/>
@@ -61096,7 +61096,7 @@
       </c>
       <c r="L1390" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1390" t="inlineStr"/>
@@ -61186,7 +61186,7 @@
       </c>
       <c r="L1392" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1392" t="inlineStr"/>
@@ -61276,7 +61276,7 @@
       </c>
       <c r="L1394" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1394" t="inlineStr"/>
@@ -61407,7 +61407,7 @@
       </c>
       <c r="L1397" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1397" t="inlineStr"/>
@@ -61497,7 +61497,7 @@
       </c>
       <c r="L1399" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1399" t="inlineStr"/>
@@ -61542,7 +61542,7 @@
       </c>
       <c r="L1400" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1400" t="inlineStr"/>
@@ -61632,7 +61632,7 @@
       </c>
       <c r="L1402" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1402" t="inlineStr"/>
@@ -61804,7 +61804,7 @@
       </c>
       <c r="L1406" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M1406" t="inlineStr"/>
@@ -61849,7 +61849,7 @@
       </c>
       <c r="L1407" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
       <c r="M1407" t="inlineStr"/>
@@ -61894,7 +61894,7 @@
       </c>
       <c r="L1408" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1408" t="inlineStr"/>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="L1410" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1410" t="inlineStr"/>
@@ -62156,7 +62156,7 @@
       </c>
       <c r="L1414" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1414" t="inlineStr"/>

--- a/WD_BDRC_data.xlsx
+++ b/WD_BDRC_data.xlsx
@@ -716,7 +716,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -757,7 +757,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M164" t="inlineStr"/>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M173" t="inlineStr"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M221" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M222" t="inlineStr"/>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M224" t="inlineStr"/>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M226" t="inlineStr"/>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M229" t="inlineStr"/>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M230" t="inlineStr"/>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M232" t="inlineStr"/>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M234" t="inlineStr"/>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M235" t="inlineStr"/>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M237" t="inlineStr"/>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M239" t="inlineStr"/>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M247" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M248" t="inlineStr"/>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M249" t="inlineStr"/>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M250" t="inlineStr"/>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M252" t="inlineStr"/>
@@ -11772,7 +11772,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M254" t="inlineStr"/>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M256" t="inlineStr"/>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M258" t="inlineStr"/>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M260" t="inlineStr"/>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M263" t="inlineStr"/>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M265" t="inlineStr"/>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M267" t="inlineStr"/>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M269" t="inlineStr"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M272" t="inlineStr"/>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M276" t="inlineStr"/>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M291" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M296" t="inlineStr"/>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M298" t="inlineStr"/>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M299" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M301" t="inlineStr"/>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M304" t="inlineStr"/>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M305" t="inlineStr"/>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M307" t="inlineStr"/>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M311" t="inlineStr"/>
@@ -14318,7 +14318,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M312" t="inlineStr"/>
@@ -14363,7 +14363,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M313" t="inlineStr"/>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M316" t="inlineStr"/>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M318" t="inlineStr"/>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M321" t="inlineStr"/>
@@ -14768,7 +14768,7 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="M322" t="inlineStr"/>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M323" t="inlineStr"/>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M324" t="inlineStr"/>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M326" t="inlineStr"/>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M327" t="inlineStr"/>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M328" t="inlineStr"/>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M329" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M334" t="inlineStr"/>
@@ -15349,7 +15349,7 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="M335" t="inlineStr"/>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M336" t="inlineStr"/>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M340" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M342" t="inlineStr"/>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M343" t="inlineStr"/>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M345" t="inlineStr"/>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M346" t="inlineStr"/>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M347" t="inlineStr"/>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M348" t="inlineStr"/>
@@ -16065,7 +16065,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M351" t="inlineStr"/>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M352" t="inlineStr"/>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M355" t="inlineStr"/>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M357" t="inlineStr"/>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M358" t="inlineStr"/>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M361" t="inlineStr"/>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M363" t="inlineStr"/>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M364" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M366" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M367" t="inlineStr"/>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M369" t="inlineStr"/>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M374" t="inlineStr"/>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M375" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M377" t="inlineStr"/>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="M378" t="inlineStr"/>
@@ -17481,7 +17481,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M383" t="inlineStr"/>
@@ -17526,7 +17526,7 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M384" t="inlineStr"/>
@@ -17612,7 +17612,7 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M386" t="inlineStr"/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M387" t="inlineStr"/>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M393" t="inlineStr"/>
@@ -18013,7 +18013,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M395" t="inlineStr"/>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M397" t="inlineStr"/>
@@ -18148,7 +18148,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M398" t="inlineStr"/>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M400" t="inlineStr"/>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M403" t="inlineStr"/>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M404" t="inlineStr"/>
@@ -18496,7 +18496,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M406" t="inlineStr"/>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M407" t="inlineStr"/>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M409" t="inlineStr"/>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M411" t="inlineStr"/>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M413" t="inlineStr"/>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M415" t="inlineStr"/>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M416" t="inlineStr"/>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M417" t="inlineStr"/>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M419" t="inlineStr"/>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M421" t="inlineStr"/>
@@ -19216,7 +19216,7 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M422" t="inlineStr"/>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M424" t="inlineStr"/>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M425" t="inlineStr"/>
@@ -19441,7 +19441,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M427" t="inlineStr"/>
@@ -19486,7 +19486,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M428" t="inlineStr"/>
@@ -19576,7 +19576,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M430" t="inlineStr"/>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M431" t="inlineStr"/>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M433" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M434" t="inlineStr"/>
@@ -19846,7 +19846,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M436" t="inlineStr"/>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M438" t="inlineStr"/>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M443" t="inlineStr"/>
@@ -20460,7 +20460,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M450" t="inlineStr"/>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M453" t="inlineStr"/>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M455" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M459" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M461" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M462" t="inlineStr"/>
@@ -21209,7 +21209,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M467" t="inlineStr"/>
@@ -21254,7 +21254,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M468" t="inlineStr"/>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M471" t="inlineStr"/>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M474" t="inlineStr"/>
@@ -21688,7 +21688,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M478" t="inlineStr"/>
@@ -21778,7 +21778,7 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="M480" t="inlineStr"/>
@@ -21823,7 +21823,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M481" t="inlineStr"/>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M487" t="inlineStr"/>
@@ -22220,7 +22220,7 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="M490" t="inlineStr"/>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M491" t="inlineStr"/>
@@ -22310,7 +22310,7 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M492" t="inlineStr"/>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M493" t="inlineStr"/>
@@ -22531,7 +22531,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M497" t="inlineStr"/>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M611" t="inlineStr"/>
@@ -31752,7 +31752,7 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M714" t="inlineStr"/>
@@ -31842,7 +31842,7 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M716" t="inlineStr"/>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M721" t="inlineStr"/>
@@ -32641,7 +32641,7 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M735" t="inlineStr"/>
@@ -33489,7 +33489,7 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M755" t="inlineStr"/>
@@ -33575,7 +33575,7 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M757" t="inlineStr"/>
@@ -33620,7 +33620,7 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M758" t="inlineStr"/>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M799" t="inlineStr"/>
@@ -35423,7 +35423,7 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M801" t="inlineStr"/>
@@ -35755,7 +35755,7 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M809" t="inlineStr"/>
@@ -35800,7 +35800,7 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M810" t="inlineStr"/>
@@ -36050,7 +36050,7 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M816" t="inlineStr"/>
@@ -36095,7 +36095,7 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M817" t="inlineStr"/>
@@ -36140,7 +36140,7 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M818" t="inlineStr"/>
@@ -36185,7 +36185,7 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M819" t="inlineStr"/>
@@ -36451,7 +36451,7 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="M825" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M828" t="inlineStr"/>
@@ -36672,7 +36672,7 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M830" t="inlineStr"/>
@@ -36762,7 +36762,7 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M832" t="inlineStr"/>
@@ -37110,7 +37110,7 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M840" t="inlineStr"/>
@@ -37196,7 +37196,7 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M842" t="inlineStr"/>
@@ -37241,7 +37241,7 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M843" t="inlineStr"/>
@@ -37286,7 +37286,7 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M844" t="inlineStr"/>
@@ -37372,7 +37372,7 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M846" t="inlineStr"/>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M847" t="inlineStr"/>
@@ -37503,7 +37503,7 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M849" t="inlineStr"/>
@@ -37548,7 +37548,7 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M850" t="inlineStr"/>
@@ -37769,7 +37769,7 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M855" t="inlineStr"/>
@@ -38031,7 +38031,7 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M861" t="inlineStr"/>
@@ -38117,7 +38117,7 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M863" t="inlineStr"/>
@@ -38162,7 +38162,7 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M864" t="inlineStr"/>
@@ -38248,7 +38248,7 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M866" t="inlineStr"/>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M867" t="inlineStr"/>
@@ -38379,7 +38379,7 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M869" t="inlineStr"/>
@@ -38424,7 +38424,7 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M870" t="inlineStr"/>
@@ -38510,7 +38510,7 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M872" t="inlineStr"/>
@@ -38555,7 +38555,7 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M873" t="inlineStr"/>
@@ -38641,7 +38641,7 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M875" t="inlineStr"/>
@@ -38686,7 +38686,7 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M876" t="inlineStr"/>
@@ -38772,7 +38772,7 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M878" t="inlineStr"/>
@@ -38817,7 +38817,7 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M879" t="inlineStr"/>
@@ -38907,7 +38907,7 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M881" t="inlineStr"/>
@@ -38952,7 +38952,7 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M882" t="inlineStr"/>
@@ -39038,7 +39038,7 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M884" t="inlineStr"/>
@@ -39173,7 +39173,7 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M887" t="inlineStr"/>
@@ -39218,7 +39218,7 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M888" t="inlineStr"/>
@@ -39304,7 +39304,7 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M890" t="inlineStr"/>
@@ -39349,7 +39349,7 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M891" t="inlineStr"/>
@@ -39439,7 +39439,7 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M893" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M898" t="inlineStr"/>
@@ -39738,7 +39738,7 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M900" t="inlineStr"/>
@@ -39783,7 +39783,7 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M901" t="inlineStr"/>
@@ -39869,7 +39869,7 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M903" t="inlineStr"/>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M913" t="inlineStr"/>
@@ -40348,7 +40348,7 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M914" t="inlineStr"/>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M915" t="inlineStr"/>
@@ -40438,7 +40438,7 @@
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M916" t="inlineStr"/>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M919" t="inlineStr"/>
@@ -40659,7 +40659,7 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M921" t="inlineStr"/>
@@ -40794,7 +40794,7 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M924" t="inlineStr"/>
@@ -40884,7 +40884,7 @@
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M926" t="inlineStr"/>
@@ -40974,7 +40974,7 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M928" t="inlineStr"/>
@@ -41060,7 +41060,7 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M930" t="inlineStr"/>
@@ -41146,7 +41146,7 @@
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M932" t="inlineStr"/>
@@ -41281,7 +41281,7 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M935" t="inlineStr"/>
@@ -41367,7 +41367,7 @@
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M937" t="inlineStr"/>
@@ -41502,7 +41502,7 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M940" t="inlineStr"/>
@@ -41629,7 +41629,7 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M943" t="inlineStr"/>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M945" t="inlineStr"/>
@@ -41760,7 +41760,7 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M946" t="inlineStr"/>
@@ -41846,7 +41846,7 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M948" t="inlineStr"/>
@@ -41891,7 +41891,7 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M949" t="inlineStr"/>
@@ -41977,7 +41977,7 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M951" t="inlineStr"/>
@@ -42022,7 +42022,7 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M952" t="inlineStr"/>
@@ -42067,7 +42067,7 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M953" t="inlineStr"/>
@@ -42112,7 +42112,7 @@
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M954" t="inlineStr"/>
@@ -42157,7 +42157,7 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M955" t="inlineStr"/>
@@ -42202,7 +42202,7 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M956" t="inlineStr"/>
@@ -42411,7 +42411,7 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M961" t="inlineStr"/>
@@ -42501,7 +42501,7 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M963" t="inlineStr"/>
@@ -42628,7 +42628,7 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M966" t="inlineStr"/>
@@ -42673,7 +42673,7 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M967" t="inlineStr"/>
@@ -42718,7 +42718,7 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M968" t="inlineStr"/>
@@ -42894,7 +42894,7 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M972" t="inlineStr"/>
@@ -42939,7 +42939,7 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M973" t="inlineStr"/>
@@ -43025,7 +43025,7 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M975" t="inlineStr"/>
@@ -43070,7 +43070,7 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M976" t="inlineStr"/>
@@ -43156,7 +43156,7 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M978" t="inlineStr"/>
@@ -43246,7 +43246,7 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M980" t="inlineStr"/>
@@ -43291,7 +43291,7 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M981" t="inlineStr"/>
@@ -43377,7 +43377,7 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M983" t="inlineStr"/>
@@ -43422,7 +43422,7 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M984" t="inlineStr"/>
@@ -43508,7 +43508,7 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M986" t="inlineStr"/>
@@ -43553,7 +43553,7 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M987" t="inlineStr"/>
@@ -43639,7 +43639,7 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M989" t="inlineStr"/>
@@ -43684,7 +43684,7 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M990" t="inlineStr"/>
@@ -43770,7 +43770,7 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M992" t="inlineStr"/>
@@ -43815,7 +43815,7 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M993" t="inlineStr"/>
@@ -43901,7 +43901,7 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M995" t="inlineStr"/>
@@ -43991,7 +43991,7 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M997" t="inlineStr"/>
@@ -44036,7 +44036,7 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M998" t="inlineStr"/>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M999" t="inlineStr"/>
@@ -44167,7 +44167,7 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1001" t="inlineStr"/>
@@ -44212,7 +44212,7 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1002" t="inlineStr"/>
@@ -44298,7 +44298,7 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M1004" t="inlineStr"/>
@@ -44343,7 +44343,7 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1005" t="inlineStr"/>
@@ -44388,7 +44388,7 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1006" t="inlineStr"/>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1008" t="inlineStr"/>
@@ -44519,7 +44519,7 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1009" t="inlineStr"/>
@@ -44605,7 +44605,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr"/>
@@ -44695,7 +44695,7 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1013" t="inlineStr"/>
@@ -44785,7 +44785,7 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1015" t="inlineStr"/>
@@ -44912,7 +44912,7 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1018" t="inlineStr"/>
@@ -44998,7 +44998,7 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1020" t="inlineStr"/>
@@ -45125,7 +45125,7 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1023" t="inlineStr"/>
@@ -45211,7 +45211,7 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1025" t="inlineStr"/>
@@ -45256,7 +45256,7 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1026" t="inlineStr"/>
@@ -45301,7 +45301,7 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1027" t="inlineStr"/>
@@ -45391,7 +45391,7 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1029" t="inlineStr"/>
@@ -45567,7 +45567,7 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1033" t="inlineStr"/>
@@ -45657,7 +45657,7 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1035" t="inlineStr"/>
@@ -45792,7 +45792,7 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1038" t="inlineStr"/>
@@ -45837,7 +45837,7 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1039" t="inlineStr"/>
@@ -45927,7 +45927,7 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1041" t="inlineStr"/>
@@ -45972,7 +45972,7 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1042" t="inlineStr"/>
@@ -46017,7 +46017,7 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1043" t="inlineStr"/>
@@ -46062,7 +46062,7 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1044" t="inlineStr"/>
@@ -46107,7 +46107,7 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1045" t="inlineStr"/>
@@ -46197,7 +46197,7 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1047" t="inlineStr"/>
@@ -46242,7 +46242,7 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1048" t="inlineStr"/>
@@ -46377,7 +46377,7 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1051" t="inlineStr"/>
@@ -46639,7 +46639,7 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1057" t="inlineStr"/>
@@ -46684,7 +46684,7 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1058" t="inlineStr"/>
@@ -46819,7 +46819,7 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1061" t="inlineStr"/>
@@ -46950,7 +46950,7 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1064" t="inlineStr"/>
@@ -47085,7 +47085,7 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1067" t="inlineStr"/>
@@ -47827,7 +47827,7 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1085" t="inlineStr"/>
@@ -47917,7 +47917,7 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1087" t="inlineStr"/>
@@ -48044,7 +48044,7 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1090" t="inlineStr"/>
@@ -48089,7 +48089,7 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1091" t="inlineStr"/>
@@ -48175,7 +48175,7 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1093" t="inlineStr"/>
@@ -48261,7 +48261,7 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1095" t="inlineStr"/>
@@ -48351,7 +48351,7 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1097" t="inlineStr"/>
@@ -48396,7 +48396,7 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1098" t="inlineStr"/>
@@ -48929,7 +48929,7 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1111" t="inlineStr"/>
@@ -49019,7 +49019,7 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1113" t="inlineStr"/>
@@ -49064,7 +49064,7 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1114" t="inlineStr"/>
@@ -49154,7 +49154,7 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1116" t="inlineStr"/>
@@ -49461,7 +49461,7 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1123" t="inlineStr"/>
@@ -49547,7 +49547,7 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1125" t="inlineStr"/>
@@ -49637,7 +49637,7 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1127" t="inlineStr"/>
@@ -49805,7 +49805,7 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1131" t="inlineStr"/>
@@ -49891,7 +49891,7 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1133" t="inlineStr"/>
@@ -50018,7 +50018,7 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1136" t="inlineStr"/>
@@ -50108,7 +50108,7 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1138" t="inlineStr"/>
@@ -50153,7 +50153,7 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1139" t="inlineStr"/>
@@ -50243,7 +50243,7 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1141" t="inlineStr"/>
@@ -50288,7 +50288,7 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1142" t="inlineStr"/>
@@ -50333,7 +50333,7 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1143" t="inlineStr"/>
@@ -50378,7 +50378,7 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1144" t="inlineStr"/>
@@ -50423,7 +50423,7 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1145" t="inlineStr"/>
@@ -50718,7 +50718,7 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1152" t="inlineStr"/>
@@ -50976,7 +50976,7 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1158" t="inlineStr"/>
@@ -51062,7 +51062,7 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1160" t="inlineStr"/>
@@ -51107,7 +51107,7 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1161" t="inlineStr"/>
@@ -51193,7 +51193,7 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1163" t="inlineStr"/>
@@ -51238,7 +51238,7 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1164" t="inlineStr"/>
@@ -51328,7 +51328,7 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1166" t="inlineStr"/>
@@ -51373,7 +51373,7 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1167" t="inlineStr"/>
@@ -51459,7 +51459,7 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1169" t="inlineStr"/>
@@ -51504,7 +51504,7 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1170" t="inlineStr"/>
@@ -51590,7 +51590,7 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1172" t="inlineStr"/>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1173" t="inlineStr"/>
@@ -51680,7 +51680,7 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1174" t="inlineStr"/>
@@ -51725,7 +51725,7 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1175" t="inlineStr"/>
@@ -51811,7 +51811,7 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1177" t="inlineStr"/>
@@ -51901,7 +51901,7 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1179" t="inlineStr"/>
@@ -52352,7 +52352,7 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1190" t="inlineStr"/>
@@ -52442,7 +52442,7 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1192" t="inlineStr"/>
@@ -52614,7 +52614,7 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1196" t="inlineStr"/>
@@ -52704,7 +52704,7 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1198" t="inlineStr"/>
@@ -52749,7 +52749,7 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1199" t="inlineStr"/>
@@ -52839,7 +52839,7 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1201" t="inlineStr"/>
@@ -52884,7 +52884,7 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1202" t="inlineStr"/>
@@ -52970,7 +52970,7 @@
       </c>
       <c r="L1204" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M1204" t="inlineStr"/>
@@ -53015,7 +53015,7 @@
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1205" t="inlineStr"/>
@@ -53236,7 +53236,7 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1210" t="inlineStr"/>
@@ -53322,7 +53322,7 @@
       </c>
       <c r="L1212" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M1212" t="inlineStr"/>
@@ -53367,7 +53367,7 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1213" t="inlineStr"/>
@@ -53457,7 +53457,7 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M1215" t="inlineStr"/>
@@ -53502,7 +53502,7 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1216" t="inlineStr"/>
@@ -53629,7 +53629,7 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1219" t="inlineStr"/>
@@ -53674,7 +53674,7 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1220" t="inlineStr"/>
@@ -53719,7 +53719,7 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1221" t="inlineStr"/>
@@ -53764,7 +53764,7 @@
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1222" t="inlineStr"/>
@@ -53809,7 +53809,7 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1223" t="inlineStr"/>
@@ -53940,7 +53940,7 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1226" t="inlineStr"/>
@@ -54030,7 +54030,7 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1228" t="inlineStr"/>
@@ -54366,7 +54366,7 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1236" t="inlineStr"/>
@@ -54411,7 +54411,7 @@
       </c>
       <c r="L1237" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1237" t="inlineStr"/>
@@ -54501,7 +54501,7 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1239" t="inlineStr"/>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1242" t="inlineStr"/>
@@ -54722,7 +54722,7 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1244" t="inlineStr"/>
@@ -54767,7 +54767,7 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1245" t="inlineStr"/>
@@ -54853,7 +54853,7 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1247" t="inlineStr"/>
@@ -54898,7 +54898,7 @@
       </c>
       <c r="L1248" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1248" t="inlineStr"/>
@@ -54984,7 +54984,7 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1250" t="inlineStr"/>
@@ -55029,7 +55029,7 @@
       </c>
       <c r="L1251" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1251" t="inlineStr"/>
@@ -55115,7 +55115,7 @@
       </c>
       <c r="L1253" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1253" t="inlineStr"/>
@@ -55160,7 +55160,7 @@
       </c>
       <c r="L1254" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1254" t="inlineStr"/>
@@ -55246,7 +55246,7 @@
       </c>
       <c r="L1256" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1256" t="inlineStr"/>
@@ -55291,7 +55291,7 @@
       </c>
       <c r="L1257" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1257" t="inlineStr"/>
@@ -55377,7 +55377,7 @@
       </c>
       <c r="L1259" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1259" t="inlineStr"/>
@@ -55422,7 +55422,7 @@
       </c>
       <c r="L1260" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1260" t="inlineStr"/>
@@ -55508,7 +55508,7 @@
       </c>
       <c r="L1262" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1262" t="inlineStr"/>
@@ -55553,7 +55553,7 @@
       </c>
       <c r="L1263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1263" t="inlineStr"/>
@@ -55598,7 +55598,7 @@
       </c>
       <c r="L1264" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1264" t="inlineStr"/>
@@ -55643,7 +55643,7 @@
       </c>
       <c r="L1265" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1265" t="inlineStr"/>
@@ -55688,7 +55688,7 @@
       </c>
       <c r="L1266" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1266" t="inlineStr"/>
@@ -55774,7 +55774,7 @@
       </c>
       <c r="L1268" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1268" t="inlineStr"/>
@@ -55819,7 +55819,7 @@
       </c>
       <c r="L1269" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1269" t="inlineStr"/>
@@ -55905,7 +55905,7 @@
       </c>
       <c r="L1271" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1271" t="inlineStr"/>
@@ -55995,7 +55995,7 @@
       </c>
       <c r="L1273" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1273" t="inlineStr"/>
@@ -56040,7 +56040,7 @@
       </c>
       <c r="L1274" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1274" t="inlineStr"/>
@@ -56126,7 +56126,7 @@
       </c>
       <c r="L1276" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1276" t="inlineStr"/>
@@ -56384,7 +56384,7 @@
       </c>
       <c r="L1282" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1282" t="inlineStr"/>
@@ -56429,7 +56429,7 @@
       </c>
       <c r="L1283" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1283" t="inlineStr"/>
@@ -56515,7 +56515,7 @@
       </c>
       <c r="L1285" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1285" t="inlineStr"/>
@@ -56605,7 +56605,7 @@
       </c>
       <c r="L1287" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1287" t="inlineStr"/>
@@ -56945,7 +56945,7 @@
       </c>
       <c r="L1295" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1295" t="inlineStr"/>
@@ -56990,7 +56990,7 @@
       </c>
       <c r="L1296" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1296" t="inlineStr"/>
@@ -57121,7 +57121,7 @@
       </c>
       <c r="L1299" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1299" t="inlineStr"/>
@@ -57412,7 +57412,7 @@
       </c>
       <c r="L1306" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1306" t="inlineStr"/>
@@ -57502,7 +57502,7 @@
       </c>
       <c r="L1308" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1308" t="inlineStr"/>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="L1310" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1310" t="inlineStr"/>
@@ -57838,7 +57838,7 @@
       </c>
       <c r="L1316" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1316" t="inlineStr"/>
@@ -57924,7 +57924,7 @@
       </c>
       <c r="L1318" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1318" t="inlineStr"/>
@@ -58014,7 +58014,7 @@
       </c>
       <c r="L1320" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1320" t="inlineStr"/>
@@ -58059,7 +58059,7 @@
       </c>
       <c r="L1321" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1321" t="inlineStr"/>
@@ -58149,7 +58149,7 @@
       </c>
       <c r="L1323" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1323" t="inlineStr"/>
@@ -58194,7 +58194,7 @@
       </c>
       <c r="L1324" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1324" t="inlineStr"/>
@@ -58239,7 +58239,7 @@
       </c>
       <c r="L1325" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1325" t="inlineStr"/>
@@ -58325,7 +58325,7 @@
       </c>
       <c r="L1327" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1327" t="inlineStr"/>
@@ -58411,7 +58411,7 @@
       </c>
       <c r="L1329" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1329" t="inlineStr"/>
@@ -58497,7 +58497,7 @@
       </c>
       <c r="L1331" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1331" t="inlineStr"/>
@@ -58583,7 +58583,7 @@
       </c>
       <c r="L1333" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1333" t="inlineStr"/>
@@ -58669,7 +58669,7 @@
       </c>
       <c r="L1335" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1335" t="inlineStr"/>
@@ -58759,7 +58759,7 @@
       </c>
       <c r="L1337" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1337" t="inlineStr"/>
@@ -58849,7 +58849,7 @@
       </c>
       <c r="L1339" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1339" t="inlineStr"/>
@@ -58894,7 +58894,7 @@
       </c>
       <c r="L1340" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1340" t="inlineStr"/>
@@ -58980,7 +58980,7 @@
       </c>
       <c r="L1342" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1342" t="inlineStr"/>
@@ -59115,7 +59115,7 @@
       </c>
       <c r="L1345" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1345" t="inlineStr"/>
@@ -59250,7 +59250,7 @@
       </c>
       <c r="L1348" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1348" t="inlineStr"/>
@@ -59295,7 +59295,7 @@
       </c>
       <c r="L1349" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1349" t="inlineStr"/>
@@ -59340,7 +59340,7 @@
       </c>
       <c r="L1350" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1350" t="inlineStr"/>
@@ -59512,7 +59512,7 @@
       </c>
       <c r="L1354" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1354" t="inlineStr"/>
@@ -59598,7 +59598,7 @@
       </c>
       <c r="L1356" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1356" t="inlineStr"/>
@@ -59643,7 +59643,7 @@
       </c>
       <c r="L1357" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1357" t="inlineStr"/>
@@ -59729,7 +59729,7 @@
       </c>
       <c r="L1359" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M1359" t="inlineStr"/>
@@ -59774,7 +59774,7 @@
       </c>
       <c r="L1360" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1360" t="inlineStr"/>
@@ -59819,7 +59819,7 @@
       </c>
       <c r="L1361" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1361" t="inlineStr"/>
@@ -59905,7 +59905,7 @@
       </c>
       <c r="L1363" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1363" t="inlineStr"/>
@@ -59950,7 +59950,7 @@
       </c>
       <c r="L1364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1364" t="inlineStr"/>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="L1366" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1366" t="inlineStr"/>
@@ -60126,7 +60126,7 @@
       </c>
       <c r="L1368" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1368" t="inlineStr"/>
@@ -60212,7 +60212,7 @@
       </c>
       <c r="L1370" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1370" t="inlineStr"/>
@@ -60302,7 +60302,7 @@
       </c>
       <c r="L1372" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1372" t="inlineStr"/>
@@ -60478,7 +60478,7 @@
       </c>
       <c r="L1376" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1376" t="inlineStr"/>
@@ -60523,7 +60523,7 @@
       </c>
       <c r="L1377" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1377" t="inlineStr"/>
@@ -60568,7 +60568,7 @@
       </c>
       <c r="L1378" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1378" t="inlineStr"/>
@@ -60613,7 +60613,7 @@
       </c>
       <c r="L1379" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1379" t="inlineStr"/>
@@ -60744,7 +60744,7 @@
       </c>
       <c r="L1382" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1382" t="inlineStr"/>
@@ -60830,7 +60830,7 @@
       </c>
       <c r="L1384" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1384" t="inlineStr"/>
@@ -60965,7 +60965,7 @@
       </c>
       <c r="L1387" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1387" t="inlineStr"/>
@@ -61010,7 +61010,7 @@
       </c>
       <c r="L1388" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1388" t="inlineStr"/>
@@ -61096,7 +61096,7 @@
       </c>
       <c r="L1390" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1390" t="inlineStr"/>
@@ -61186,7 +61186,7 @@
       </c>
       <c r="L1392" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1392" t="inlineStr"/>
@@ -61407,7 +61407,7 @@
       </c>
       <c r="L1397" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1397" t="inlineStr"/>
@@ -61452,7 +61452,7 @@
       </c>
       <c r="L1398" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1398" t="inlineStr"/>
@@ -61497,7 +61497,7 @@
       </c>
       <c r="L1399" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1399" t="inlineStr"/>
@@ -61542,7 +61542,7 @@
       </c>
       <c r="L1400" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1400" t="inlineStr"/>
@@ -61632,7 +61632,7 @@
       </c>
       <c r="L1402" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1402" t="inlineStr"/>
@@ -61804,7 +61804,7 @@
       </c>
       <c r="L1406" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M1406" t="inlineStr"/>
@@ -61849,7 +61849,7 @@
       </c>
       <c r="L1407" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1407" t="inlineStr"/>
@@ -61894,7 +61894,7 @@
       </c>
       <c r="L1408" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1408" t="inlineStr"/>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="L1410" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1410" t="inlineStr"/>
@@ -62111,7 +62111,7 @@
       </c>
       <c r="L1413" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1413" t="inlineStr"/>
@@ -62156,7 +62156,7 @@
       </c>
       <c r="L1414" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1414" t="inlineStr"/>

--- a/WD_BDRC_data.xlsx
+++ b/WD_BDRC_data.xlsx
@@ -593,7 +593,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -716,7 +716,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -757,7 +757,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M164" t="inlineStr"/>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M221" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M222" t="inlineStr"/>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M224" t="inlineStr"/>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M226" t="inlineStr"/>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M229" t="inlineStr"/>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M230" t="inlineStr"/>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M232" t="inlineStr"/>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M234" t="inlineStr"/>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M235" t="inlineStr"/>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M237" t="inlineStr"/>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M239" t="inlineStr"/>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M247" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M248" t="inlineStr"/>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M249" t="inlineStr"/>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M250" t="inlineStr"/>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M252" t="inlineStr"/>
@@ -11772,7 +11772,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M254" t="inlineStr"/>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M256" t="inlineStr"/>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M258" t="inlineStr"/>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M260" t="inlineStr"/>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M263" t="inlineStr"/>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M265" t="inlineStr"/>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M267" t="inlineStr"/>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M269" t="inlineStr"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M272" t="inlineStr"/>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M276" t="inlineStr"/>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M291" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M296" t="inlineStr"/>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M298" t="inlineStr"/>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M299" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M301" t="inlineStr"/>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M304" t="inlineStr"/>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M305" t="inlineStr"/>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M307" t="inlineStr"/>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M309" t="inlineStr"/>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M311" t="inlineStr"/>
@@ -14318,7 +14318,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M312" t="inlineStr"/>
@@ -14363,7 +14363,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M313" t="inlineStr"/>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M315" t="inlineStr"/>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M316" t="inlineStr"/>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M318" t="inlineStr"/>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M321" t="inlineStr"/>
@@ -14768,7 +14768,7 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M322" t="inlineStr"/>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M323" t="inlineStr"/>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M324" t="inlineStr"/>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M326" t="inlineStr"/>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M327" t="inlineStr"/>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M329" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M334" t="inlineStr"/>
@@ -15349,7 +15349,7 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M335" t="inlineStr"/>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M336" t="inlineStr"/>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M340" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M342" t="inlineStr"/>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M343" t="inlineStr"/>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M345" t="inlineStr"/>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M346" t="inlineStr"/>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M347" t="inlineStr"/>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M348" t="inlineStr"/>
@@ -16065,7 +16065,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M351" t="inlineStr"/>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M352" t="inlineStr"/>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M355" t="inlineStr"/>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M358" t="inlineStr"/>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M361" t="inlineStr"/>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M363" t="inlineStr"/>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M364" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M366" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M367" t="inlineStr"/>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M369" t="inlineStr"/>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M374" t="inlineStr"/>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M375" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M377" t="inlineStr"/>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M378" t="inlineStr"/>
@@ -17481,7 +17481,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M383" t="inlineStr"/>
@@ -17526,7 +17526,7 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M384" t="inlineStr"/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M387" t="inlineStr"/>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M393" t="inlineStr"/>
@@ -18013,7 +18013,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M395" t="inlineStr"/>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M397" t="inlineStr"/>
@@ -18148,7 +18148,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M398" t="inlineStr"/>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M400" t="inlineStr"/>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M403" t="inlineStr"/>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M404" t="inlineStr"/>
@@ -18496,7 +18496,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M406" t="inlineStr"/>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M407" t="inlineStr"/>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M409" t="inlineStr"/>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M411" t="inlineStr"/>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M413" t="inlineStr"/>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M415" t="inlineStr"/>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M416" t="inlineStr"/>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M417" t="inlineStr"/>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M419" t="inlineStr"/>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M421" t="inlineStr"/>
@@ -19216,7 +19216,7 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M422" t="inlineStr"/>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M424" t="inlineStr"/>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M425" t="inlineStr"/>
@@ -19441,7 +19441,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M427" t="inlineStr"/>
@@ -19486,7 +19486,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M428" t="inlineStr"/>
@@ -19576,7 +19576,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M430" t="inlineStr"/>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M431" t="inlineStr"/>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M433" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M434" t="inlineStr"/>
@@ -19846,7 +19846,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M436" t="inlineStr"/>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M438" t="inlineStr"/>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M443" t="inlineStr"/>
@@ -20460,7 +20460,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M450" t="inlineStr"/>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M453" t="inlineStr"/>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M455" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M459" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M461" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M462" t="inlineStr"/>
@@ -21209,7 +21209,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M467" t="inlineStr"/>
@@ -21254,7 +21254,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M468" t="inlineStr"/>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M471" t="inlineStr"/>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M474" t="inlineStr"/>
@@ -21688,7 +21688,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M478" t="inlineStr"/>
@@ -21778,7 +21778,7 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M480" t="inlineStr"/>
@@ -21823,7 +21823,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M481" t="inlineStr"/>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M487" t="inlineStr"/>
@@ -22220,7 +22220,7 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M490" t="inlineStr"/>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M491" t="inlineStr"/>
@@ -22310,7 +22310,7 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M492" t="inlineStr"/>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M493" t="inlineStr"/>
@@ -22531,7 +22531,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M497" t="inlineStr"/>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M611" t="inlineStr"/>
@@ -31752,7 +31752,7 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M714" t="inlineStr"/>
@@ -31842,7 +31842,7 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M716" t="inlineStr"/>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M721" t="inlineStr"/>
@@ -32641,7 +32641,7 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M735" t="inlineStr"/>
@@ -33489,7 +33489,7 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M755" t="inlineStr"/>
@@ -33620,7 +33620,7 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M758" t="inlineStr"/>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M799" t="inlineStr"/>
@@ -35423,7 +35423,7 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M801" t="inlineStr"/>
@@ -35755,7 +35755,7 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M809" t="inlineStr"/>
@@ -35800,7 +35800,7 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M810" t="inlineStr"/>
@@ -36050,7 +36050,7 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M816" t="inlineStr"/>
@@ -36095,7 +36095,7 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M817" t="inlineStr"/>
@@ -36140,7 +36140,7 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M818" t="inlineStr"/>
@@ -36185,7 +36185,7 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M819" t="inlineStr"/>
@@ -36451,7 +36451,7 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="M825" t="inlineStr"/>
@@ -36541,7 +36541,7 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M827" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M828" t="inlineStr"/>
@@ -36672,7 +36672,7 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M830" t="inlineStr"/>
@@ -36762,7 +36762,7 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M832" t="inlineStr"/>
@@ -37110,7 +37110,7 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M840" t="inlineStr"/>
@@ -37196,7 +37196,7 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M842" t="inlineStr"/>
@@ -37241,7 +37241,7 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M843" t="inlineStr"/>
@@ -37286,7 +37286,7 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M844" t="inlineStr"/>
@@ -37372,7 +37372,7 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M846" t="inlineStr"/>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M847" t="inlineStr"/>
@@ -37503,7 +37503,7 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M849" t="inlineStr"/>
@@ -37548,7 +37548,7 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M850" t="inlineStr"/>
@@ -37724,7 +37724,7 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M854" t="inlineStr"/>
@@ -37769,7 +37769,7 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M855" t="inlineStr"/>
@@ -37945,7 +37945,7 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M859" t="inlineStr"/>
@@ -38031,7 +38031,7 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M861" t="inlineStr"/>
@@ -38117,7 +38117,7 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M863" t="inlineStr"/>
@@ -38162,7 +38162,7 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M864" t="inlineStr"/>
@@ -38248,7 +38248,7 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M866" t="inlineStr"/>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M867" t="inlineStr"/>
@@ -38379,7 +38379,7 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M869" t="inlineStr"/>
@@ -38424,7 +38424,7 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M870" t="inlineStr"/>
@@ -38510,7 +38510,7 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M872" t="inlineStr"/>
@@ -38555,7 +38555,7 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M873" t="inlineStr"/>
@@ -38641,7 +38641,7 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M875" t="inlineStr"/>
@@ -38686,7 +38686,7 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M876" t="inlineStr"/>
@@ -38772,7 +38772,7 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M878" t="inlineStr"/>
@@ -38817,7 +38817,7 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M879" t="inlineStr"/>
@@ -38907,7 +38907,7 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M881" t="inlineStr"/>
@@ -38952,7 +38952,7 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M882" t="inlineStr"/>
@@ -39038,7 +39038,7 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M884" t="inlineStr"/>
@@ -39173,7 +39173,7 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M887" t="inlineStr"/>
@@ -39218,7 +39218,7 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M888" t="inlineStr"/>
@@ -39304,7 +39304,7 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M890" t="inlineStr"/>
@@ -39349,7 +39349,7 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M891" t="inlineStr"/>
@@ -39439,7 +39439,7 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M893" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M898" t="inlineStr"/>
@@ -39738,7 +39738,7 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M900" t="inlineStr"/>
@@ -39783,7 +39783,7 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M901" t="inlineStr"/>
@@ -39869,7 +39869,7 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M903" t="inlineStr"/>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M913" t="inlineStr"/>
@@ -40348,7 +40348,7 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M914" t="inlineStr"/>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M915" t="inlineStr"/>
@@ -40438,7 +40438,7 @@
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M916" t="inlineStr"/>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M919" t="inlineStr"/>
@@ -40659,7 +40659,7 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M921" t="inlineStr"/>
@@ -40794,7 +40794,7 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M924" t="inlineStr"/>
@@ -40884,7 +40884,7 @@
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M926" t="inlineStr"/>
@@ -40974,7 +40974,7 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M928" t="inlineStr"/>
@@ -41060,7 +41060,7 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M930" t="inlineStr"/>
@@ -41146,7 +41146,7 @@
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M932" t="inlineStr"/>
@@ -41281,7 +41281,7 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M935" t="inlineStr"/>
@@ -41367,7 +41367,7 @@
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M937" t="inlineStr"/>
@@ -41502,7 +41502,7 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M940" t="inlineStr"/>
@@ -41629,7 +41629,7 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M943" t="inlineStr"/>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M945" t="inlineStr"/>
@@ -41760,7 +41760,7 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M946" t="inlineStr"/>
@@ -41846,7 +41846,7 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M948" t="inlineStr"/>
@@ -41891,7 +41891,7 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M949" t="inlineStr"/>
@@ -41977,7 +41977,7 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M951" t="inlineStr"/>
@@ -42022,7 +42022,7 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M952" t="inlineStr"/>
@@ -42067,7 +42067,7 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M953" t="inlineStr"/>
@@ -42112,7 +42112,7 @@
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M954" t="inlineStr"/>
@@ -42157,7 +42157,7 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M955" t="inlineStr"/>
@@ -42202,7 +42202,7 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M956" t="inlineStr"/>
@@ -42411,7 +42411,7 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M961" t="inlineStr"/>
@@ -42501,7 +42501,7 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M963" t="inlineStr"/>
@@ -42628,7 +42628,7 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M966" t="inlineStr"/>
@@ -42673,7 +42673,7 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M967" t="inlineStr"/>
@@ -42718,7 +42718,7 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M968" t="inlineStr"/>
@@ -42894,7 +42894,7 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M972" t="inlineStr"/>
@@ -42939,7 +42939,7 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M973" t="inlineStr"/>
@@ -43025,7 +43025,7 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M975" t="inlineStr"/>
@@ -43070,7 +43070,7 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M976" t="inlineStr"/>
@@ -43156,7 +43156,7 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M978" t="inlineStr"/>
@@ -43246,7 +43246,7 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M980" t="inlineStr"/>
@@ -43291,7 +43291,7 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M981" t="inlineStr"/>
@@ -43377,7 +43377,7 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M983" t="inlineStr"/>
@@ -43422,7 +43422,7 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M984" t="inlineStr"/>
@@ -43508,7 +43508,7 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M986" t="inlineStr"/>
@@ -43553,7 +43553,7 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M987" t="inlineStr"/>
@@ -43639,7 +43639,7 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M989" t="inlineStr"/>
@@ -43684,7 +43684,7 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M990" t="inlineStr"/>
@@ -43770,7 +43770,7 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M992" t="inlineStr"/>
@@ -43815,7 +43815,7 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M993" t="inlineStr"/>
@@ -43901,7 +43901,7 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M995" t="inlineStr"/>
@@ -43991,7 +43991,7 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M997" t="inlineStr"/>
@@ -44036,7 +44036,7 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M998" t="inlineStr"/>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M999" t="inlineStr"/>
@@ -44167,7 +44167,7 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1001" t="inlineStr"/>
@@ -44212,7 +44212,7 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1002" t="inlineStr"/>
@@ -44343,7 +44343,7 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1005" t="inlineStr"/>
@@ -44388,7 +44388,7 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1006" t="inlineStr"/>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1008" t="inlineStr"/>
@@ -44519,7 +44519,7 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1009" t="inlineStr"/>
@@ -44605,7 +44605,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr"/>
@@ -44695,7 +44695,7 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1013" t="inlineStr"/>
@@ -44785,7 +44785,7 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1015" t="inlineStr"/>
@@ -44912,7 +44912,7 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1018" t="inlineStr"/>
@@ -44998,7 +44998,7 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1020" t="inlineStr"/>
@@ -45125,7 +45125,7 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1023" t="inlineStr"/>
@@ -45211,7 +45211,7 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1025" t="inlineStr"/>
@@ -45256,7 +45256,7 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1026" t="inlineStr"/>
@@ -45301,7 +45301,7 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1027" t="inlineStr"/>
@@ -45391,7 +45391,7 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1029" t="inlineStr"/>
@@ -45567,7 +45567,7 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1033" t="inlineStr"/>
@@ -45657,7 +45657,7 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1035" t="inlineStr"/>
@@ -45792,7 +45792,7 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1038" t="inlineStr"/>
@@ -45837,7 +45837,7 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1039" t="inlineStr"/>
@@ -45927,7 +45927,7 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1041" t="inlineStr"/>
@@ -45972,7 +45972,7 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1042" t="inlineStr"/>
@@ -46017,7 +46017,7 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1043" t="inlineStr"/>
@@ -46062,7 +46062,7 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1044" t="inlineStr"/>
@@ -46107,7 +46107,7 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1045" t="inlineStr"/>
@@ -46197,7 +46197,7 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1047" t="inlineStr"/>
@@ -46242,7 +46242,7 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1048" t="inlineStr"/>
@@ -46377,7 +46377,7 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1051" t="inlineStr"/>
@@ -46639,7 +46639,7 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1057" t="inlineStr"/>
@@ -46684,7 +46684,7 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1058" t="inlineStr"/>
@@ -46819,7 +46819,7 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1061" t="inlineStr"/>
@@ -46950,7 +46950,7 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1064" t="inlineStr"/>
@@ -47085,7 +47085,7 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1067" t="inlineStr"/>
@@ -47827,7 +47827,7 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1085" t="inlineStr"/>
@@ -47917,7 +47917,7 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1087" t="inlineStr"/>
@@ -48044,7 +48044,7 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1090" t="inlineStr"/>
@@ -48089,7 +48089,7 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1091" t="inlineStr"/>
@@ -48175,7 +48175,7 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1093" t="inlineStr"/>
@@ -48261,7 +48261,7 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1095" t="inlineStr"/>
@@ -48351,7 +48351,7 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1097" t="inlineStr"/>
@@ -48396,7 +48396,7 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1098" t="inlineStr"/>
@@ -48929,7 +48929,7 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1111" t="inlineStr"/>
@@ -49019,7 +49019,7 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1113" t="inlineStr"/>
@@ -49064,7 +49064,7 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1114" t="inlineStr"/>
@@ -49154,7 +49154,7 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1116" t="inlineStr"/>
@@ -49461,7 +49461,7 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1123" t="inlineStr"/>
@@ -49547,7 +49547,7 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1125" t="inlineStr"/>
@@ -49637,7 +49637,7 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1127" t="inlineStr"/>
@@ -49805,7 +49805,7 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1131" t="inlineStr"/>
@@ -49891,7 +49891,7 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1133" t="inlineStr"/>
@@ -50018,7 +50018,7 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1136" t="inlineStr"/>
@@ -50108,7 +50108,7 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1138" t="inlineStr"/>
@@ -50153,7 +50153,7 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1139" t="inlineStr"/>
@@ -50243,7 +50243,7 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1141" t="inlineStr"/>
@@ -50288,7 +50288,7 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1142" t="inlineStr"/>
@@ -50333,7 +50333,7 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1143" t="inlineStr"/>
@@ -50378,7 +50378,7 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1144" t="inlineStr"/>
@@ -50423,7 +50423,7 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1145" t="inlineStr"/>
@@ -50718,7 +50718,7 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M1152" t="inlineStr"/>
@@ -50976,7 +50976,7 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1158" t="inlineStr"/>
@@ -51062,7 +51062,7 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1160" t="inlineStr"/>
@@ -51107,7 +51107,7 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1161" t="inlineStr"/>
@@ -51193,7 +51193,7 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1163" t="inlineStr"/>
@@ -51238,7 +51238,7 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1164" t="inlineStr"/>
@@ -51328,7 +51328,7 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1166" t="inlineStr"/>
@@ -51373,7 +51373,7 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1167" t="inlineStr"/>
@@ -51459,7 +51459,7 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1169" t="inlineStr"/>
@@ -51504,7 +51504,7 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1170" t="inlineStr"/>
@@ -51590,7 +51590,7 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1172" t="inlineStr"/>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1173" t="inlineStr"/>
@@ -51680,7 +51680,7 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1174" t="inlineStr"/>
@@ -51725,7 +51725,7 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1175" t="inlineStr"/>
@@ -51811,7 +51811,7 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1177" t="inlineStr"/>
@@ -51901,7 +51901,7 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1179" t="inlineStr"/>
@@ -52352,7 +52352,7 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1190" t="inlineStr"/>
@@ -52442,7 +52442,7 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1192" t="inlineStr"/>
@@ -52614,7 +52614,7 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1196" t="inlineStr"/>
@@ -52704,7 +52704,7 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1198" t="inlineStr"/>
@@ -52749,7 +52749,7 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1199" t="inlineStr"/>
@@ -52839,7 +52839,7 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1201" t="inlineStr"/>
@@ -52884,7 +52884,7 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1202" t="inlineStr"/>
@@ -53015,7 +53015,7 @@
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1205" t="inlineStr"/>
@@ -53236,7 +53236,7 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M1210" t="inlineStr"/>
@@ -53367,7 +53367,7 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1213" t="inlineStr"/>
@@ -53457,7 +53457,7 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M1215" t="inlineStr"/>
@@ -53502,7 +53502,7 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M1216" t="inlineStr"/>
@@ -53629,7 +53629,7 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1219" t="inlineStr"/>
@@ -53674,7 +53674,7 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1220" t="inlineStr"/>
@@ -53719,7 +53719,7 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1221" t="inlineStr"/>
@@ -53764,7 +53764,7 @@
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1222" t="inlineStr"/>
@@ -53809,7 +53809,7 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1223" t="inlineStr"/>
@@ -53940,7 +53940,7 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1226" t="inlineStr"/>
@@ -54030,7 +54030,7 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1228" t="inlineStr"/>
@@ -54366,7 +54366,7 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1236" t="inlineStr"/>
@@ -54411,7 +54411,7 @@
       </c>
       <c r="L1237" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1237" t="inlineStr"/>
@@ -54501,7 +54501,7 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1239" t="inlineStr"/>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1242" t="inlineStr"/>
@@ -54722,7 +54722,7 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1244" t="inlineStr"/>
@@ -54767,7 +54767,7 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1245" t="inlineStr"/>
@@ -54853,7 +54853,7 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1247" t="inlineStr"/>
@@ -54898,7 +54898,7 @@
       </c>
       <c r="L1248" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1248" t="inlineStr"/>
@@ -54984,7 +54984,7 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1250" t="inlineStr"/>
@@ -55029,7 +55029,7 @@
       </c>
       <c r="L1251" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1251" t="inlineStr"/>
@@ -55115,7 +55115,7 @@
       </c>
       <c r="L1253" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1253" t="inlineStr"/>
@@ -55160,7 +55160,7 @@
       </c>
       <c r="L1254" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1254" t="inlineStr"/>
@@ -55246,7 +55246,7 @@
       </c>
       <c r="L1256" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1256" t="inlineStr"/>
@@ -55291,7 +55291,7 @@
       </c>
       <c r="L1257" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1257" t="inlineStr"/>
@@ -55377,7 +55377,7 @@
       </c>
       <c r="L1259" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1259" t="inlineStr"/>
@@ -55422,7 +55422,7 @@
       </c>
       <c r="L1260" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1260" t="inlineStr"/>
@@ -55508,7 +55508,7 @@
       </c>
       <c r="L1262" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1262" t="inlineStr"/>
@@ -55553,7 +55553,7 @@
       </c>
       <c r="L1263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1263" t="inlineStr"/>
@@ -55598,7 +55598,7 @@
       </c>
       <c r="L1264" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1264" t="inlineStr"/>
@@ -55643,7 +55643,7 @@
       </c>
       <c r="L1265" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1265" t="inlineStr"/>
@@ -55688,7 +55688,7 @@
       </c>
       <c r="L1266" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1266" t="inlineStr"/>
@@ -55774,7 +55774,7 @@
       </c>
       <c r="L1268" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1268" t="inlineStr"/>
@@ -55819,7 +55819,7 @@
       </c>
       <c r="L1269" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1269" t="inlineStr"/>
@@ -55905,7 +55905,7 @@
       </c>
       <c r="L1271" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1271" t="inlineStr"/>
@@ -55995,7 +55995,7 @@
       </c>
       <c r="L1273" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1273" t="inlineStr"/>
@@ -56040,7 +56040,7 @@
       </c>
       <c r="L1274" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1274" t="inlineStr"/>
@@ -56126,7 +56126,7 @@
       </c>
       <c r="L1276" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1276" t="inlineStr"/>
@@ -56298,7 +56298,7 @@
       </c>
       <c r="L1280" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1280" t="inlineStr"/>
@@ -56384,7 +56384,7 @@
       </c>
       <c r="L1282" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1282" t="inlineStr"/>
@@ -56429,7 +56429,7 @@
       </c>
       <c r="L1283" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1283" t="inlineStr"/>
@@ -56515,7 +56515,7 @@
       </c>
       <c r="L1285" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1285" t="inlineStr"/>
@@ -56605,7 +56605,7 @@
       </c>
       <c r="L1287" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1287" t="inlineStr"/>
@@ -56945,7 +56945,7 @@
       </c>
       <c r="L1295" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1295" t="inlineStr"/>
@@ -56990,7 +56990,7 @@
       </c>
       <c r="L1296" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1296" t="inlineStr"/>
@@ -57121,7 +57121,7 @@
       </c>
       <c r="L1299" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1299" t="inlineStr"/>
@@ -57412,7 +57412,7 @@
       </c>
       <c r="L1306" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1306" t="inlineStr"/>
@@ -57502,7 +57502,7 @@
       </c>
       <c r="L1308" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1308" t="inlineStr"/>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="L1310" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1310" t="inlineStr"/>
@@ -57838,7 +57838,7 @@
       </c>
       <c r="L1316" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1316" t="inlineStr"/>
@@ -57924,7 +57924,7 @@
       </c>
       <c r="L1318" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1318" t="inlineStr"/>
@@ -58014,7 +58014,7 @@
       </c>
       <c r="L1320" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1320" t="inlineStr"/>
@@ -58059,7 +58059,7 @@
       </c>
       <c r="L1321" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1321" t="inlineStr"/>
@@ -58149,7 +58149,7 @@
       </c>
       <c r="L1323" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1323" t="inlineStr"/>
@@ -58194,7 +58194,7 @@
       </c>
       <c r="L1324" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1324" t="inlineStr"/>
@@ -58239,7 +58239,7 @@
       </c>
       <c r="L1325" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1325" t="inlineStr"/>
@@ -58325,7 +58325,7 @@
       </c>
       <c r="L1327" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1327" t="inlineStr"/>
@@ -58411,7 +58411,7 @@
       </c>
       <c r="L1329" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1329" t="inlineStr"/>
@@ -58497,7 +58497,7 @@
       </c>
       <c r="L1331" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1331" t="inlineStr"/>
@@ -58583,7 +58583,7 @@
       </c>
       <c r="L1333" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1333" t="inlineStr"/>
@@ -58669,7 +58669,7 @@
       </c>
       <c r="L1335" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1335" t="inlineStr"/>
@@ -58759,7 +58759,7 @@
       </c>
       <c r="L1337" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1337" t="inlineStr"/>
@@ -58849,7 +58849,7 @@
       </c>
       <c r="L1339" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1339" t="inlineStr"/>
@@ -58894,7 +58894,7 @@
       </c>
       <c r="L1340" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1340" t="inlineStr"/>
@@ -58980,7 +58980,7 @@
       </c>
       <c r="L1342" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1342" t="inlineStr"/>
@@ -59115,7 +59115,7 @@
       </c>
       <c r="L1345" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M1345" t="inlineStr"/>
@@ -59250,7 +59250,7 @@
       </c>
       <c r="L1348" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1348" t="inlineStr"/>
@@ -59295,7 +59295,7 @@
       </c>
       <c r="L1349" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1349" t="inlineStr"/>
@@ -59340,7 +59340,7 @@
       </c>
       <c r="L1350" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1350" t="inlineStr"/>
@@ -59512,7 +59512,7 @@
       </c>
       <c r="L1354" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1354" t="inlineStr"/>
@@ -59598,7 +59598,7 @@
       </c>
       <c r="L1356" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1356" t="inlineStr"/>
@@ -59643,7 +59643,7 @@
       </c>
       <c r="L1357" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1357" t="inlineStr"/>
@@ -59774,7 +59774,7 @@
       </c>
       <c r="L1360" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1360" t="inlineStr"/>
@@ -59819,7 +59819,7 @@
       </c>
       <c r="L1361" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1361" t="inlineStr"/>
@@ -59905,7 +59905,7 @@
       </c>
       <c r="L1363" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1363" t="inlineStr"/>
@@ -59950,7 +59950,7 @@
       </c>
       <c r="L1364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1364" t="inlineStr"/>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="L1366" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1366" t="inlineStr"/>
@@ -60126,7 +60126,7 @@
       </c>
       <c r="L1368" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1368" t="inlineStr"/>
@@ -60212,7 +60212,7 @@
       </c>
       <c r="L1370" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1370" t="inlineStr"/>
@@ -60302,7 +60302,7 @@
       </c>
       <c r="L1372" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1372" t="inlineStr"/>
@@ -60478,7 +60478,7 @@
       </c>
       <c r="L1376" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1376" t="inlineStr"/>
@@ -60523,7 +60523,7 @@
       </c>
       <c r="L1377" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1377" t="inlineStr"/>
@@ -60568,7 +60568,7 @@
       </c>
       <c r="L1378" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1378" t="inlineStr"/>
@@ -60613,7 +60613,7 @@
       </c>
       <c r="L1379" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1379" t="inlineStr"/>
@@ -60744,7 +60744,7 @@
       </c>
       <c r="L1382" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1382" t="inlineStr"/>
@@ -60830,7 +60830,7 @@
       </c>
       <c r="L1384" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1384" t="inlineStr"/>
@@ -60965,7 +60965,7 @@
       </c>
       <c r="L1387" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1387" t="inlineStr"/>
@@ -61010,7 +61010,7 @@
       </c>
       <c r="L1388" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1388" t="inlineStr"/>
@@ -61096,7 +61096,7 @@
       </c>
       <c r="L1390" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1390" t="inlineStr"/>
@@ -61186,7 +61186,7 @@
       </c>
       <c r="L1392" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1392" t="inlineStr"/>
@@ -61276,7 +61276,7 @@
       </c>
       <c r="L1394" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1394" t="inlineStr"/>
@@ -61407,7 +61407,7 @@
       </c>
       <c r="L1397" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1397" t="inlineStr"/>
@@ -61452,7 +61452,7 @@
       </c>
       <c r="L1398" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1398" t="inlineStr"/>
@@ -61497,7 +61497,7 @@
       </c>
       <c r="L1399" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1399" t="inlineStr"/>
@@ -61542,7 +61542,7 @@
       </c>
       <c r="L1400" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1400" t="inlineStr"/>
@@ -61632,7 +61632,7 @@
       </c>
       <c r="L1402" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1402" t="inlineStr"/>
@@ -61804,7 +61804,7 @@
       </c>
       <c r="L1406" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="M1406" t="inlineStr"/>
@@ -61849,7 +61849,7 @@
       </c>
       <c r="L1407" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="M1407" t="inlineStr"/>
@@ -61894,7 +61894,7 @@
       </c>
       <c r="L1408" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1408" t="inlineStr"/>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="L1410" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1410" t="inlineStr"/>
@@ -62111,7 +62111,7 @@
       </c>
       <c r="L1413" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="M1413" t="inlineStr"/>
@@ -62156,7 +62156,7 @@
       </c>
       <c r="L1414" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1414" t="inlineStr"/>

--- a/WD_BDRC_data.xlsx
+++ b/WD_BDRC_data.xlsx
@@ -593,7 +593,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -716,7 +716,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M31" t="inlineStr"/>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M109" t="inlineStr"/>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M160" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M164" t="inlineStr"/>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M189" t="inlineStr"/>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M195" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M218" t="inlineStr"/>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M219" t="inlineStr"/>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M221" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M222" t="inlineStr"/>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M224" t="inlineStr"/>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M226" t="inlineStr"/>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M227" t="inlineStr"/>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M229" t="inlineStr"/>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M230" t="inlineStr"/>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M232" t="inlineStr"/>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M234" t="inlineStr"/>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M235" t="inlineStr"/>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M237" t="inlineStr"/>
@@ -11060,7 +11060,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M238" t="inlineStr"/>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M239" t="inlineStr"/>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M242" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M248" t="inlineStr"/>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M249" t="inlineStr"/>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M250" t="inlineStr"/>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M252" t="inlineStr"/>
@@ -11772,7 +11772,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M254" t="inlineStr"/>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M256" t="inlineStr"/>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M258" t="inlineStr"/>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M260" t="inlineStr"/>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M263" t="inlineStr"/>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M264" t="inlineStr"/>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M265" t="inlineStr"/>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M267" t="inlineStr"/>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M269" t="inlineStr"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M272" t="inlineStr"/>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M276" t="inlineStr"/>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M277" t="inlineStr"/>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M291" t="inlineStr"/>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M293" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M296" t="inlineStr"/>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M298" t="inlineStr"/>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M299" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M301" t="inlineStr"/>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M304" t="inlineStr"/>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M305" t="inlineStr"/>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M307" t="inlineStr"/>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M309" t="inlineStr"/>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M311" t="inlineStr"/>
@@ -14363,7 +14363,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M313" t="inlineStr"/>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M315" t="inlineStr"/>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M316" t="inlineStr"/>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M318" t="inlineStr"/>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M321" t="inlineStr"/>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M323" t="inlineStr"/>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M324" t="inlineStr"/>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M326" t="inlineStr"/>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M327" t="inlineStr"/>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M329" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M332" t="inlineStr"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M334" t="inlineStr"/>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M336" t="inlineStr"/>
@@ -15484,7 +15484,7 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M338" t="inlineStr"/>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M340" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M342" t="inlineStr"/>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M343" t="inlineStr"/>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M345" t="inlineStr"/>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M346" t="inlineStr"/>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M348" t="inlineStr"/>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M352" t="inlineStr"/>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M355" t="inlineStr"/>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M358" t="inlineStr"/>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M361" t="inlineStr"/>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M363" t="inlineStr"/>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M364" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M366" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M367" t="inlineStr"/>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M369" t="inlineStr"/>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M370" t="inlineStr"/>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M374" t="inlineStr"/>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M375" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M377" t="inlineStr"/>
@@ -17481,7 +17481,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M383" t="inlineStr"/>
@@ -17526,7 +17526,7 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M384" t="inlineStr"/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M387" t="inlineStr"/>
@@ -17878,7 +17878,7 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M392" t="inlineStr"/>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M393" t="inlineStr"/>
@@ -18013,7 +18013,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M395" t="inlineStr"/>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M397" t="inlineStr"/>
@@ -18148,7 +18148,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M398" t="inlineStr"/>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M400" t="inlineStr"/>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M403" t="inlineStr"/>
@@ -18496,7 +18496,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M406" t="inlineStr"/>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M407" t="inlineStr"/>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M409" t="inlineStr"/>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M411" t="inlineStr"/>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M413" t="inlineStr"/>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M415" t="inlineStr"/>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M416" t="inlineStr"/>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M417" t="inlineStr"/>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M419" t="inlineStr"/>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M421" t="inlineStr"/>
@@ -19216,7 +19216,7 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M422" t="inlineStr"/>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M424" t="inlineStr"/>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M425" t="inlineStr"/>
@@ -19441,7 +19441,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M427" t="inlineStr"/>
@@ -19486,7 +19486,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M428" t="inlineStr"/>
@@ -19576,7 +19576,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M430" t="inlineStr"/>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M431" t="inlineStr"/>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M433" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M434" t="inlineStr"/>
@@ -19846,7 +19846,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M436" t="inlineStr"/>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M438" t="inlineStr"/>
@@ -20067,7 +20067,7 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M441" t="inlineStr"/>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M443" t="inlineStr"/>
@@ -20198,7 +20198,7 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M444" t="inlineStr"/>
@@ -20460,7 +20460,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M450" t="inlineStr"/>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M453" t="inlineStr"/>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M455" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M459" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M461" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M462" t="inlineStr"/>
@@ -21209,7 +21209,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M467" t="inlineStr"/>
@@ -21254,7 +21254,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M468" t="inlineStr"/>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M471" t="inlineStr"/>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M474" t="inlineStr"/>
@@ -21688,7 +21688,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M478" t="inlineStr"/>
@@ -21823,7 +21823,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M481" t="inlineStr"/>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M487" t="inlineStr"/>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M491" t="inlineStr"/>
@@ -22310,7 +22310,7 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M492" t="inlineStr"/>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M493" t="inlineStr"/>
@@ -22531,7 +22531,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M497" t="inlineStr"/>
@@ -23108,7 +23108,7 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M510" t="inlineStr"/>
@@ -24153,7 +24153,7 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M535" t="inlineStr"/>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M611" t="inlineStr"/>
@@ -27434,7 +27434,7 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M612" t="inlineStr"/>
@@ -31752,7 +31752,7 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M714" t="inlineStr"/>
@@ -31842,7 +31842,7 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M716" t="inlineStr"/>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M721" t="inlineStr"/>
@@ -32641,7 +32641,7 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M735" t="inlineStr"/>
@@ -33190,7 +33190,7 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M748" t="inlineStr"/>
@@ -33489,7 +33489,7 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M755" t="inlineStr"/>
@@ -33620,7 +33620,7 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M758" t="inlineStr"/>
@@ -33796,7 +33796,7 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M762" t="inlineStr"/>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M799" t="inlineStr"/>
@@ -35423,7 +35423,7 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M801" t="inlineStr"/>
@@ -35800,7 +35800,7 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M810" t="inlineStr"/>
@@ -36095,7 +36095,7 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M817" t="inlineStr"/>
@@ -36185,7 +36185,7 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M819" t="inlineStr"/>
@@ -36316,7 +36316,7 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M822" t="inlineStr"/>
@@ -36541,7 +36541,7 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M827" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M828" t="inlineStr"/>
@@ -36672,7 +36672,7 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M830" t="inlineStr"/>
@@ -36762,7 +36762,7 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M832" t="inlineStr"/>
@@ -36930,7 +36930,7 @@
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M836" t="inlineStr"/>
@@ -37110,7 +37110,7 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M840" t="inlineStr"/>
@@ -37241,7 +37241,7 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M843" t="inlineStr"/>
@@ -37286,7 +37286,7 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M844" t="inlineStr"/>
@@ -37372,7 +37372,7 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M846" t="inlineStr"/>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M847" t="inlineStr"/>
@@ -37548,7 +37548,7 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M850" t="inlineStr"/>
@@ -37724,7 +37724,7 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M854" t="inlineStr"/>
@@ -37769,7 +37769,7 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M855" t="inlineStr"/>
@@ -37945,7 +37945,7 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M859" t="inlineStr"/>
@@ -38031,7 +38031,7 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M861" t="inlineStr"/>
@@ -38117,7 +38117,7 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M863" t="inlineStr"/>
@@ -38162,7 +38162,7 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M864" t="inlineStr"/>
@@ -38248,7 +38248,7 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M866" t="inlineStr"/>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M867" t="inlineStr"/>
@@ -38379,7 +38379,7 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M869" t="inlineStr"/>
@@ -38424,7 +38424,7 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M870" t="inlineStr"/>
@@ -38510,7 +38510,7 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M872" t="inlineStr"/>
@@ -38555,7 +38555,7 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M873" t="inlineStr"/>
@@ -38641,7 +38641,7 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M875" t="inlineStr"/>
@@ -38686,7 +38686,7 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M876" t="inlineStr"/>
@@ -38772,7 +38772,7 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M878" t="inlineStr"/>
@@ -38817,7 +38817,7 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M879" t="inlineStr"/>
@@ -38907,7 +38907,7 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M881" t="inlineStr"/>
@@ -38952,7 +38952,7 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M882" t="inlineStr"/>
@@ -39038,7 +39038,7 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M884" t="inlineStr"/>
@@ -39173,7 +39173,7 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M887" t="inlineStr"/>
@@ -39218,7 +39218,7 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M888" t="inlineStr"/>
@@ -39304,7 +39304,7 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M890" t="inlineStr"/>
@@ -39349,7 +39349,7 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M891" t="inlineStr"/>
@@ -39439,7 +39439,7 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M893" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M898" t="inlineStr"/>
@@ -39738,7 +39738,7 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M900" t="inlineStr"/>
@@ -39783,7 +39783,7 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M901" t="inlineStr"/>
@@ -39869,7 +39869,7 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M903" t="inlineStr"/>
@@ -40000,7 +40000,7 @@
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M906" t="inlineStr"/>
@@ -40131,7 +40131,7 @@
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M909" t="inlineStr"/>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M913" t="inlineStr"/>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M915" t="inlineStr"/>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M919" t="inlineStr"/>
@@ -40794,7 +40794,7 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M924" t="inlineStr"/>
@@ -40929,7 +40929,7 @@
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M927" t="inlineStr"/>
@@ -40974,7 +40974,7 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M928" t="inlineStr"/>
@@ -41060,7 +41060,7 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M930" t="inlineStr"/>
@@ -41281,7 +41281,7 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M935" t="inlineStr"/>
@@ -41502,7 +41502,7 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M940" t="inlineStr"/>
@@ -41629,7 +41629,7 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M943" t="inlineStr"/>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M945" t="inlineStr"/>
@@ -41760,7 +41760,7 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M946" t="inlineStr"/>
@@ -41846,7 +41846,7 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M948" t="inlineStr"/>
@@ -41891,7 +41891,7 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M949" t="inlineStr"/>
@@ -41977,7 +41977,7 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M951" t="inlineStr"/>
@@ -42067,7 +42067,7 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M953" t="inlineStr"/>
@@ -42157,7 +42157,7 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M955" t="inlineStr"/>
@@ -42202,7 +42202,7 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M956" t="inlineStr"/>
@@ -42411,7 +42411,7 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M961" t="inlineStr"/>
@@ -42501,7 +42501,7 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M963" t="inlineStr"/>
@@ -42628,7 +42628,7 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M966" t="inlineStr"/>
@@ -42718,7 +42718,7 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M968" t="inlineStr"/>
@@ -42939,7 +42939,7 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M973" t="inlineStr"/>
@@ -43025,7 +43025,7 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M975" t="inlineStr"/>
@@ -43070,7 +43070,7 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M976" t="inlineStr"/>
@@ -43156,7 +43156,7 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M978" t="inlineStr"/>
@@ -43246,7 +43246,7 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M980" t="inlineStr"/>
@@ -43291,7 +43291,7 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M981" t="inlineStr"/>
@@ -43377,7 +43377,7 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M983" t="inlineStr"/>
@@ -43422,7 +43422,7 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M984" t="inlineStr"/>
@@ -43508,7 +43508,7 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M986" t="inlineStr"/>
@@ -43553,7 +43553,7 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M987" t="inlineStr"/>
@@ -43639,7 +43639,7 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M989" t="inlineStr"/>
@@ -43684,7 +43684,7 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M990" t="inlineStr"/>
@@ -43770,7 +43770,7 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M992" t="inlineStr"/>
@@ -43815,7 +43815,7 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M993" t="inlineStr"/>
@@ -43901,7 +43901,7 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M995" t="inlineStr"/>
@@ -43991,7 +43991,7 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M997" t="inlineStr"/>
@@ -44036,7 +44036,7 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M998" t="inlineStr"/>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M999" t="inlineStr"/>
@@ -44167,7 +44167,7 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1001" t="inlineStr"/>
@@ -44212,7 +44212,7 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1002" t="inlineStr"/>
@@ -44343,7 +44343,7 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1005" t="inlineStr"/>
@@ -44388,7 +44388,7 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1006" t="inlineStr"/>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1008" t="inlineStr"/>
@@ -44519,7 +44519,7 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1009" t="inlineStr"/>
@@ -44605,7 +44605,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr"/>
@@ -44695,7 +44695,7 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1013" t="inlineStr"/>
@@ -44785,7 +44785,7 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1015" t="inlineStr"/>
@@ -44912,7 +44912,7 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1018" t="inlineStr"/>
@@ -44998,7 +44998,7 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1020" t="inlineStr"/>
@@ -45125,7 +45125,7 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1023" t="inlineStr"/>
@@ -45211,7 +45211,7 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1025" t="inlineStr"/>
@@ -45256,7 +45256,7 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1026" t="inlineStr"/>
@@ -45301,7 +45301,7 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1027" t="inlineStr"/>
@@ -45391,7 +45391,7 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1029" t="inlineStr"/>
@@ -45436,7 +45436,7 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1030" t="inlineStr"/>
@@ -45567,7 +45567,7 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1033" t="inlineStr"/>
@@ -45657,7 +45657,7 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1035" t="inlineStr"/>
@@ -45792,7 +45792,7 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1038" t="inlineStr"/>
@@ -45837,7 +45837,7 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1039" t="inlineStr"/>
@@ -45927,7 +45927,7 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1041" t="inlineStr"/>
@@ -45972,7 +45972,7 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1042" t="inlineStr"/>
@@ -46062,7 +46062,7 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1044" t="inlineStr"/>
@@ -46107,7 +46107,7 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1045" t="inlineStr"/>
@@ -46197,7 +46197,7 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1047" t="inlineStr"/>
@@ -46242,7 +46242,7 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1048" t="inlineStr"/>
@@ -46377,7 +46377,7 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1051" t="inlineStr"/>
@@ -46467,7 +46467,7 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M1053" t="inlineStr"/>
@@ -46639,7 +46639,7 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1057" t="inlineStr"/>
@@ -46684,7 +46684,7 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1058" t="inlineStr"/>
@@ -46819,7 +46819,7 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1061" t="inlineStr"/>
@@ -46950,7 +46950,7 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1064" t="inlineStr"/>
@@ -47085,7 +47085,7 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1067" t="inlineStr"/>
@@ -47827,7 +47827,7 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1085" t="inlineStr"/>
@@ -47917,7 +47917,7 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1087" t="inlineStr"/>
@@ -48089,7 +48089,7 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1091" t="inlineStr"/>
@@ -48175,7 +48175,7 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1093" t="inlineStr"/>
@@ -48261,7 +48261,7 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1095" t="inlineStr"/>
@@ -48351,7 +48351,7 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1097" t="inlineStr"/>
@@ -48396,7 +48396,7 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1098" t="inlineStr"/>
@@ -48929,7 +48929,7 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1111" t="inlineStr"/>
@@ -49019,7 +49019,7 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1113" t="inlineStr"/>
@@ -49064,7 +49064,7 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1114" t="inlineStr"/>
@@ -49154,7 +49154,7 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1116" t="inlineStr"/>
@@ -49199,7 +49199,7 @@
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1117" t="inlineStr"/>
@@ -49330,7 +49330,7 @@
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1120" t="inlineStr"/>
@@ -49461,7 +49461,7 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1123" t="inlineStr"/>
@@ -49547,7 +49547,7 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1125" t="inlineStr"/>
@@ -49592,7 +49592,7 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1126" t="inlineStr"/>
@@ -49637,7 +49637,7 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1127" t="inlineStr"/>
@@ -49805,7 +49805,7 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1131" t="inlineStr"/>
@@ -49891,7 +49891,7 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1133" t="inlineStr"/>
@@ -50018,7 +50018,7 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1136" t="inlineStr"/>
@@ -50108,7 +50108,7 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1138" t="inlineStr"/>
@@ -50153,7 +50153,7 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1139" t="inlineStr"/>
@@ -50243,7 +50243,7 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1141" t="inlineStr"/>
@@ -50288,7 +50288,7 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1142" t="inlineStr"/>
@@ -50333,7 +50333,7 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1143" t="inlineStr"/>
@@ -50378,7 +50378,7 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1144" t="inlineStr"/>
@@ -50423,7 +50423,7 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1145" t="inlineStr"/>
@@ -50718,7 +50718,7 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1152" t="inlineStr"/>
@@ -50849,7 +50849,7 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M1155" t="inlineStr"/>
@@ -50976,7 +50976,7 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1158" t="inlineStr"/>
@@ -51062,7 +51062,7 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1160" t="inlineStr"/>
@@ -51107,7 +51107,7 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1161" t="inlineStr"/>
@@ -51193,7 +51193,7 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1163" t="inlineStr"/>
@@ -51328,7 +51328,7 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1166" t="inlineStr"/>
@@ -51373,7 +51373,7 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1167" t="inlineStr"/>
@@ -51459,7 +51459,7 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1169" t="inlineStr"/>
@@ -51504,7 +51504,7 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1170" t="inlineStr"/>
@@ -51590,7 +51590,7 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1172" t="inlineStr"/>
@@ -51680,7 +51680,7 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1174" t="inlineStr"/>
@@ -51725,7 +51725,7 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1175" t="inlineStr"/>
@@ -51811,7 +51811,7 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1177" t="inlineStr"/>
@@ -51901,7 +51901,7 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1179" t="inlineStr"/>
@@ -52352,7 +52352,7 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1190" t="inlineStr"/>
@@ -52442,7 +52442,7 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1192" t="inlineStr"/>
@@ -52614,7 +52614,7 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1196" t="inlineStr"/>
@@ -52704,7 +52704,7 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1198" t="inlineStr"/>
@@ -52749,7 +52749,7 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1199" t="inlineStr"/>
@@ -52839,7 +52839,7 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1201" t="inlineStr"/>
@@ -52884,7 +52884,7 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1202" t="inlineStr"/>
@@ -53015,7 +53015,7 @@
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1205" t="inlineStr"/>
@@ -53060,7 +53060,7 @@
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1206" t="inlineStr"/>
@@ -53236,7 +53236,7 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1210" t="inlineStr"/>
@@ -53367,7 +53367,7 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1213" t="inlineStr"/>
@@ -53457,7 +53457,7 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M1215" t="inlineStr"/>
@@ -53502,7 +53502,7 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1216" t="inlineStr"/>
@@ -53629,7 +53629,7 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1219" t="inlineStr"/>
@@ -53674,7 +53674,7 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1220" t="inlineStr"/>
@@ -53719,7 +53719,7 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1221" t="inlineStr"/>
@@ -53764,7 +53764,7 @@
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1222" t="inlineStr"/>
@@ -53809,7 +53809,7 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1223" t="inlineStr"/>
@@ -53940,7 +53940,7 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1226" t="inlineStr"/>
@@ -54030,7 +54030,7 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1228" t="inlineStr"/>
@@ -54366,7 +54366,7 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1236" t="inlineStr"/>
@@ -54411,7 +54411,7 @@
       </c>
       <c r="L1237" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1237" t="inlineStr"/>
@@ -54501,7 +54501,7 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1239" t="inlineStr"/>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1242" t="inlineStr"/>
@@ -54722,7 +54722,7 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1244" t="inlineStr"/>
@@ -54767,7 +54767,7 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1245" t="inlineStr"/>
@@ -54853,7 +54853,7 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1247" t="inlineStr"/>
@@ -54898,7 +54898,7 @@
       </c>
       <c r="L1248" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1248" t="inlineStr"/>
@@ -54984,7 +54984,7 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1250" t="inlineStr"/>
@@ -55029,7 +55029,7 @@
       </c>
       <c r="L1251" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1251" t="inlineStr"/>
@@ -55115,7 +55115,7 @@
       </c>
       <c r="L1253" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1253" t="inlineStr"/>
@@ -55160,7 +55160,7 @@
       </c>
       <c r="L1254" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1254" t="inlineStr"/>
@@ -55246,7 +55246,7 @@
       </c>
       <c r="L1256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1256" t="inlineStr"/>
@@ -55291,7 +55291,7 @@
       </c>
       <c r="L1257" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1257" t="inlineStr"/>
@@ -55377,7 +55377,7 @@
       </c>
       <c r="L1259" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1259" t="inlineStr"/>
@@ -55422,7 +55422,7 @@
       </c>
       <c r="L1260" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1260" t="inlineStr"/>
@@ -55508,7 +55508,7 @@
       </c>
       <c r="L1262" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1262" t="inlineStr"/>
@@ -55553,7 +55553,7 @@
       </c>
       <c r="L1263" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1263" t="inlineStr"/>
@@ -55643,7 +55643,7 @@
       </c>
       <c r="L1265" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1265" t="inlineStr"/>
@@ -55688,7 +55688,7 @@
       </c>
       <c r="L1266" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1266" t="inlineStr"/>
@@ -55774,7 +55774,7 @@
       </c>
       <c r="L1268" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1268" t="inlineStr"/>
@@ -55819,7 +55819,7 @@
       </c>
       <c r="L1269" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1269" t="inlineStr"/>
@@ -55905,7 +55905,7 @@
       </c>
       <c r="L1271" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1271" t="inlineStr"/>
@@ -55995,7 +55995,7 @@
       </c>
       <c r="L1273" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1273" t="inlineStr"/>
@@ -56040,7 +56040,7 @@
       </c>
       <c r="L1274" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1274" t="inlineStr"/>
@@ -56126,7 +56126,7 @@
       </c>
       <c r="L1276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1276" t="inlineStr"/>
@@ -56298,7 +56298,7 @@
       </c>
       <c r="L1280" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1280" t="inlineStr"/>
@@ -56384,7 +56384,7 @@
       </c>
       <c r="L1282" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1282" t="inlineStr"/>
@@ -56429,7 +56429,7 @@
       </c>
       <c r="L1283" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1283" t="inlineStr"/>
@@ -56515,7 +56515,7 @@
       </c>
       <c r="L1285" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1285" t="inlineStr"/>
@@ -56605,7 +56605,7 @@
       </c>
       <c r="L1287" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1287" t="inlineStr"/>
@@ -56732,7 +56732,7 @@
       </c>
       <c r="L1290" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1290" t="inlineStr"/>
@@ -56990,7 +56990,7 @@
       </c>
       <c r="L1296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1296" t="inlineStr"/>
@@ -57121,7 +57121,7 @@
       </c>
       <c r="L1299" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1299" t="inlineStr"/>
@@ -57412,7 +57412,7 @@
       </c>
       <c r="L1306" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1306" t="inlineStr"/>
@@ -57502,7 +57502,7 @@
       </c>
       <c r="L1308" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1308" t="inlineStr"/>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="L1310" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1310" t="inlineStr"/>
@@ -57674,7 +57674,7 @@
       </c>
       <c r="L1312" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M1312" t="inlineStr"/>
@@ -57838,7 +57838,7 @@
       </c>
       <c r="L1316" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1316" t="inlineStr"/>
@@ -57924,7 +57924,7 @@
       </c>
       <c r="L1318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1318" t="inlineStr"/>
@@ -58014,7 +58014,7 @@
       </c>
       <c r="L1320" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1320" t="inlineStr"/>
@@ -58059,7 +58059,7 @@
       </c>
       <c r="L1321" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1321" t="inlineStr"/>
@@ -58149,7 +58149,7 @@
       </c>
       <c r="L1323" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1323" t="inlineStr"/>
@@ -58239,7 +58239,7 @@
       </c>
       <c r="L1325" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1325" t="inlineStr"/>
@@ -58325,7 +58325,7 @@
       </c>
       <c r="L1327" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1327" t="inlineStr"/>
@@ -58411,7 +58411,7 @@
       </c>
       <c r="L1329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1329" t="inlineStr"/>
@@ -58497,7 +58497,7 @@
       </c>
       <c r="L1331" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1331" t="inlineStr"/>
@@ -58583,7 +58583,7 @@
       </c>
       <c r="L1333" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1333" t="inlineStr"/>
@@ -58669,7 +58669,7 @@
       </c>
       <c r="L1335" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1335" t="inlineStr"/>
@@ -58759,7 +58759,7 @@
       </c>
       <c r="L1337" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1337" t="inlineStr"/>
@@ -58849,7 +58849,7 @@
       </c>
       <c r="L1339" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1339" t="inlineStr"/>
@@ -58894,7 +58894,7 @@
       </c>
       <c r="L1340" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1340" t="inlineStr"/>
@@ -58980,7 +58980,7 @@
       </c>
       <c r="L1342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1342" t="inlineStr"/>
@@ -59115,7 +59115,7 @@
       </c>
       <c r="L1345" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1345" t="inlineStr"/>
@@ -59250,7 +59250,7 @@
       </c>
       <c r="L1348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1348" t="inlineStr"/>
@@ -59340,7 +59340,7 @@
       </c>
       <c r="L1350" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1350" t="inlineStr"/>
@@ -59385,7 +59385,7 @@
       </c>
       <c r="L1351" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M1351" t="inlineStr"/>
@@ -59512,7 +59512,7 @@
       </c>
       <c r="L1354" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1354" t="inlineStr"/>
@@ -59598,7 +59598,7 @@
       </c>
       <c r="L1356" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1356" t="inlineStr"/>
@@ -59643,7 +59643,7 @@
       </c>
       <c r="L1357" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1357" t="inlineStr"/>
@@ -59774,7 +59774,7 @@
       </c>
       <c r="L1360" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1360" t="inlineStr"/>
@@ -59819,7 +59819,7 @@
       </c>
       <c r="L1361" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1361" t="inlineStr"/>
@@ -59905,7 +59905,7 @@
       </c>
       <c r="L1363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1363" t="inlineStr"/>
@@ -59950,7 +59950,7 @@
       </c>
       <c r="L1364" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1364" t="inlineStr"/>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="L1366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1366" t="inlineStr"/>
@@ -60126,7 +60126,7 @@
       </c>
       <c r="L1368" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1368" t="inlineStr"/>
@@ -60212,7 +60212,7 @@
       </c>
       <c r="L1370" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1370" t="inlineStr"/>
@@ -60302,7 +60302,7 @@
       </c>
       <c r="L1372" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1372" t="inlineStr"/>
@@ -60347,7 +60347,7 @@
       </c>
       <c r="L1373" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M1373" t="inlineStr"/>
@@ -60478,7 +60478,7 @@
       </c>
       <c r="L1376" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1376" t="inlineStr"/>
@@ -60568,7 +60568,7 @@
       </c>
       <c r="L1378" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1378" t="inlineStr"/>
@@ -60613,7 +60613,7 @@
       </c>
       <c r="L1379" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1379" t="inlineStr"/>
@@ -60744,7 +60744,7 @@
       </c>
       <c r="L1382" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1382" t="inlineStr"/>
@@ -60830,7 +60830,7 @@
       </c>
       <c r="L1384" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1384" t="inlineStr"/>
@@ -60965,7 +60965,7 @@
       </c>
       <c r="L1387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1387" t="inlineStr"/>
@@ -61010,7 +61010,7 @@
       </c>
       <c r="L1388" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1388" t="inlineStr"/>
@@ -61096,7 +61096,7 @@
       </c>
       <c r="L1390" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1390" t="inlineStr"/>
@@ -61141,7 +61141,7 @@
       </c>
       <c r="L1391" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1391" t="inlineStr"/>
@@ -61186,7 +61186,7 @@
       </c>
       <c r="L1392" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1392" t="inlineStr"/>
@@ -61276,7 +61276,7 @@
       </c>
       <c r="L1394" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1394" t="inlineStr"/>
@@ -61321,7 +61321,7 @@
       </c>
       <c r="L1395" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M1395" t="inlineStr"/>
@@ -61407,7 +61407,7 @@
       </c>
       <c r="L1397" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1397" t="inlineStr"/>
@@ -61497,7 +61497,7 @@
       </c>
       <c r="L1399" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1399" t="inlineStr"/>
@@ -61542,7 +61542,7 @@
       </c>
       <c r="L1400" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1400" t="inlineStr"/>
@@ -61632,7 +61632,7 @@
       </c>
       <c r="L1402" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1402" t="inlineStr"/>
@@ -61804,7 +61804,7 @@
       </c>
       <c r="L1406" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M1406" t="inlineStr"/>
@@ -61849,7 +61849,7 @@
       </c>
       <c r="L1407" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1407" t="inlineStr"/>
@@ -61894,7 +61894,7 @@
       </c>
       <c r="L1408" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1408" t="inlineStr"/>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="L1410" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1410" t="inlineStr"/>
@@ -62156,7 +62156,7 @@
       </c>
       <c r="L1414" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="M1414" t="inlineStr"/>

--- a/WD_BDRC_data.xlsx
+++ b/WD_BDRC_data.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>indicated value</t>
+          <t>indicated_value</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -593,7 +593,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -716,7 +716,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M115" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M121" t="inlineStr"/>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
@@ -6674,7 +6674,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M153" t="inlineStr"/>
@@ -7300,7 +7300,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M162" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M164" t="inlineStr"/>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M168" t="inlineStr"/>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M169" t="inlineStr"/>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M171" t="inlineStr"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M181" t="inlineStr"/>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M188" t="inlineStr"/>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M190" t="inlineStr"/>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M203" t="inlineStr"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M205" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M207" t="inlineStr"/>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M211" t="inlineStr"/>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M213" t="inlineStr"/>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M221" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M222" t="inlineStr"/>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M224" t="inlineStr"/>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M226" t="inlineStr"/>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>{'eft:rin-chen-tsho', 'eft:rinchen-tso'}</t>
+          <t>{'eft:rinchen-tso', 'eft:rin-chen-tsho'}</t>
         </is>
       </c>
       <c r="M228" t="inlineStr"/>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M229" t="inlineStr"/>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M230" t="inlineStr"/>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M231" t="inlineStr"/>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M232" t="inlineStr"/>
@@ -10880,7 +10880,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M234" t="inlineStr"/>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M235" t="inlineStr"/>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M236" t="inlineStr"/>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M237" t="inlineStr"/>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M239" t="inlineStr"/>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M246" t="inlineStr"/>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M247" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M248" t="inlineStr"/>
@@ -11551,7 +11551,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M249" t="inlineStr"/>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M250" t="inlineStr"/>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M252" t="inlineStr"/>
@@ -11772,7 +11772,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M254" t="inlineStr"/>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M255" t="inlineStr"/>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M256" t="inlineStr"/>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M257" t="inlineStr"/>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M258" t="inlineStr"/>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M260" t="inlineStr"/>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M263" t="inlineStr"/>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M265" t="inlineStr"/>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M267" t="inlineStr"/>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M269" t="inlineStr"/>
@@ -12480,7 +12480,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M270" t="inlineStr"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M272" t="inlineStr"/>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M275" t="inlineStr"/>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M276" t="inlineStr"/>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M291" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M296" t="inlineStr"/>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M298" t="inlineStr"/>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M299" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M301" t="inlineStr"/>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M302" t="inlineStr"/>
@@ -13925,7 +13925,7 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M303" t="inlineStr"/>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M304" t="inlineStr"/>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M305" t="inlineStr"/>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M307" t="inlineStr"/>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="M309" t="inlineStr"/>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M311" t="inlineStr"/>
@@ -14318,7 +14318,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M312" t="inlineStr"/>
@@ -14363,7 +14363,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M313" t="inlineStr"/>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="M315" t="inlineStr"/>
@@ -14498,7 +14498,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M316" t="inlineStr"/>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M317" t="inlineStr"/>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M318" t="inlineStr"/>
@@ -14678,7 +14678,7 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M320" t="inlineStr"/>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M321" t="inlineStr"/>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M323" t="inlineStr"/>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M324" t="inlineStr"/>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M326" t="inlineStr"/>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M327" t="inlineStr"/>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M329" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M334" t="inlineStr"/>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M336" t="inlineStr"/>
@@ -15439,7 +15439,7 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>{'eft:rin-chen-tsho', 'eft:rinchen-tso'}</t>
+          <t>{'eft:rinchen-tso', 'eft:rin-chen-tsho'}</t>
         </is>
       </c>
       <c r="M337" t="inlineStr"/>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M340" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M342" t="inlineStr"/>
@@ -15709,7 +15709,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M343" t="inlineStr"/>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M345" t="inlineStr"/>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M346" t="inlineStr"/>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M347" t="inlineStr"/>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M348" t="inlineStr"/>
@@ -16065,7 +16065,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M351" t="inlineStr"/>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M352" t="inlineStr"/>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M355" t="inlineStr"/>
@@ -16376,7 +16376,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M358" t="inlineStr"/>
@@ -16466,7 +16466,7 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M360" t="inlineStr"/>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M361" t="inlineStr"/>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M362" t="inlineStr"/>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M363" t="inlineStr"/>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M364" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M366" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M367" t="inlineStr"/>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M369" t="inlineStr"/>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M374" t="inlineStr"/>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M375" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M377" t="inlineStr"/>
@@ -17481,7 +17481,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M383" t="inlineStr"/>
@@ -17526,7 +17526,7 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M384" t="inlineStr"/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M387" t="inlineStr"/>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M393" t="inlineStr"/>
@@ -18013,7 +18013,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M395" t="inlineStr"/>
@@ -18058,7 +18058,7 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M396" t="inlineStr"/>
@@ -18103,7 +18103,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M397" t="inlineStr"/>
@@ -18148,7 +18148,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M398" t="inlineStr"/>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M400" t="inlineStr"/>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M403" t="inlineStr"/>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M404" t="inlineStr"/>
@@ -18451,7 +18451,7 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M405" t="inlineStr"/>
@@ -18496,7 +18496,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M406" t="inlineStr"/>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M407" t="inlineStr"/>
@@ -18586,7 +18586,7 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M408" t="inlineStr"/>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M409" t="inlineStr"/>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M411" t="inlineStr"/>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M413" t="inlineStr"/>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M415" t="inlineStr"/>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M416" t="inlineStr"/>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M417" t="inlineStr"/>
@@ -19036,7 +19036,7 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M418" t="inlineStr"/>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M419" t="inlineStr"/>
@@ -19126,7 +19126,7 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M420" t="inlineStr"/>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M421" t="inlineStr"/>
@@ -19216,7 +19216,7 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M422" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M423" t="inlineStr"/>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M424" t="inlineStr"/>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M425" t="inlineStr"/>
@@ -19396,7 +19396,7 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M426" t="inlineStr"/>
@@ -19441,7 +19441,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M427" t="inlineStr"/>
@@ -19486,7 +19486,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M428" t="inlineStr"/>
@@ -19531,7 +19531,7 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M429" t="inlineStr"/>
@@ -19576,7 +19576,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M430" t="inlineStr"/>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M431" t="inlineStr"/>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M432" t="inlineStr"/>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M433" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M434" t="inlineStr"/>
@@ -19801,7 +19801,7 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M435" t="inlineStr"/>
@@ -19846,7 +19846,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M436" t="inlineStr"/>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M438" t="inlineStr"/>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M443" t="inlineStr"/>
@@ -20460,7 +20460,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M450" t="inlineStr"/>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M453" t="inlineStr"/>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M455" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M459" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M460" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M461" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M462" t="inlineStr"/>
@@ -21209,7 +21209,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M467" t="inlineStr"/>
@@ -21254,7 +21254,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M468" t="inlineStr"/>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M471" t="inlineStr"/>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M474" t="inlineStr"/>
@@ -21688,7 +21688,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M478" t="inlineStr"/>
@@ -21823,7 +21823,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M481" t="inlineStr"/>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M487" t="inlineStr"/>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M491" t="inlineStr"/>
@@ -22310,7 +22310,7 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M492" t="inlineStr"/>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M493" t="inlineStr"/>
@@ -22531,7 +22531,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M497" t="inlineStr"/>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M611" t="inlineStr"/>
@@ -31752,7 +31752,7 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M714" t="inlineStr"/>
@@ -31842,7 +31842,7 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M716" t="inlineStr"/>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M721" t="inlineStr"/>
@@ -32641,7 +32641,7 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M735" t="inlineStr"/>
@@ -33489,7 +33489,7 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M755" t="inlineStr"/>
@@ -33620,7 +33620,7 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M758" t="inlineStr"/>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M799" t="inlineStr"/>
@@ -35423,7 +35423,7 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M801" t="inlineStr"/>
@@ -35755,7 +35755,7 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M809" t="inlineStr"/>
@@ -35800,7 +35800,7 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M810" t="inlineStr"/>
@@ -36050,7 +36050,7 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M816" t="inlineStr"/>
@@ -36095,7 +36095,7 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M817" t="inlineStr"/>
@@ -36140,7 +36140,7 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M818" t="inlineStr"/>
@@ -36185,7 +36185,7 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M819" t="inlineStr"/>
@@ -36541,7 +36541,7 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="M827" t="inlineStr"/>
@@ -36586,7 +36586,7 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M828" t="inlineStr"/>
@@ -36672,7 +36672,7 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M830" t="inlineStr"/>
@@ -36762,7 +36762,7 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M832" t="inlineStr"/>
@@ -37110,7 +37110,7 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M840" t="inlineStr"/>
@@ -37196,7 +37196,7 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M842" t="inlineStr"/>
@@ -37241,7 +37241,7 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M843" t="inlineStr"/>
@@ -37286,7 +37286,7 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M844" t="inlineStr"/>
@@ -37372,7 +37372,7 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M846" t="inlineStr"/>
@@ -37417,7 +37417,7 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M847" t="inlineStr"/>
@@ -37503,7 +37503,7 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M849" t="inlineStr"/>
@@ -37548,7 +37548,7 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M850" t="inlineStr"/>
@@ -37724,7 +37724,7 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="M854" t="inlineStr"/>
@@ -37769,7 +37769,7 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M855" t="inlineStr"/>
@@ -37945,7 +37945,7 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="M859" t="inlineStr"/>
@@ -38031,7 +38031,7 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M861" t="inlineStr"/>
@@ -38117,7 +38117,7 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M863" t="inlineStr"/>
@@ -38162,7 +38162,7 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M864" t="inlineStr"/>
@@ -38248,7 +38248,7 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M866" t="inlineStr"/>
@@ -38293,7 +38293,7 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M867" t="inlineStr"/>
@@ -38379,7 +38379,7 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M869" t="inlineStr"/>
@@ -38424,7 +38424,7 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M870" t="inlineStr"/>
@@ -38510,7 +38510,7 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M872" t="inlineStr"/>
@@ -38555,7 +38555,7 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M873" t="inlineStr"/>
@@ -38641,7 +38641,7 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M875" t="inlineStr"/>
@@ -38686,7 +38686,7 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M876" t="inlineStr"/>
@@ -38772,7 +38772,7 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M878" t="inlineStr"/>
@@ -38817,7 +38817,7 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M879" t="inlineStr"/>
@@ -38907,7 +38907,7 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M881" t="inlineStr"/>
@@ -38952,7 +38952,7 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M882" t="inlineStr"/>
@@ -39038,7 +39038,7 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M884" t="inlineStr"/>
@@ -39083,7 +39083,7 @@
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M885" t="inlineStr"/>
@@ -39173,7 +39173,7 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M887" t="inlineStr"/>
@@ -39218,7 +39218,7 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M888" t="inlineStr"/>
@@ -39304,7 +39304,7 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M890" t="inlineStr"/>
@@ -39349,7 +39349,7 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M891" t="inlineStr"/>
@@ -39439,7 +39439,7 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M893" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M898" t="inlineStr"/>
@@ -39738,7 +39738,7 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M900" t="inlineStr"/>
@@ -39783,7 +39783,7 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M901" t="inlineStr"/>
@@ -39869,7 +39869,7 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M903" t="inlineStr"/>
@@ -40303,7 +40303,7 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M913" t="inlineStr"/>
@@ -40348,7 +40348,7 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M914" t="inlineStr"/>
@@ -40393,7 +40393,7 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M915" t="inlineStr"/>
@@ -40438,7 +40438,7 @@
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M916" t="inlineStr"/>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M919" t="inlineStr"/>
@@ -40659,7 +40659,7 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M921" t="inlineStr"/>
@@ -40794,7 +40794,7 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M924" t="inlineStr"/>
@@ -40884,7 +40884,7 @@
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M926" t="inlineStr"/>
@@ -40974,7 +40974,7 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M928" t="inlineStr"/>
@@ -41060,7 +41060,7 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M930" t="inlineStr"/>
@@ -41146,7 +41146,7 @@
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M932" t="inlineStr"/>
@@ -41281,7 +41281,7 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M935" t="inlineStr"/>
@@ -41367,7 +41367,7 @@
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M937" t="inlineStr"/>
@@ -41502,7 +41502,7 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M940" t="inlineStr"/>
@@ -41629,7 +41629,7 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M943" t="inlineStr"/>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M945" t="inlineStr"/>
@@ -41760,7 +41760,7 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M946" t="inlineStr"/>
@@ -41846,7 +41846,7 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M948" t="inlineStr"/>
@@ -41891,7 +41891,7 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M949" t="inlineStr"/>
@@ -41977,7 +41977,7 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M951" t="inlineStr"/>
@@ -42022,7 +42022,7 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M952" t="inlineStr"/>
@@ -42067,7 +42067,7 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M953" t="inlineStr"/>
@@ -42112,7 +42112,7 @@
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M954" t="inlineStr"/>
@@ -42157,7 +42157,7 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M955" t="inlineStr"/>
@@ -42202,7 +42202,7 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M956" t="inlineStr"/>
@@ -42411,7 +42411,7 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M961" t="inlineStr"/>
@@ -42501,7 +42501,7 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M963" t="inlineStr"/>
@@ -42628,7 +42628,7 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M966" t="inlineStr"/>
@@ -42673,7 +42673,7 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M967" t="inlineStr"/>
@@ -42718,7 +42718,7 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M968" t="inlineStr"/>
@@ -42894,7 +42894,7 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M972" t="inlineStr"/>
@@ -42939,7 +42939,7 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M973" t="inlineStr"/>
@@ -43025,7 +43025,7 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M975" t="inlineStr"/>
@@ -43070,7 +43070,7 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M976" t="inlineStr"/>
@@ -43156,7 +43156,7 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M978" t="inlineStr"/>
@@ -43246,7 +43246,7 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M980" t="inlineStr"/>
@@ -43291,7 +43291,7 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M981" t="inlineStr"/>
@@ -43377,7 +43377,7 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M983" t="inlineStr"/>
@@ -43422,7 +43422,7 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M984" t="inlineStr"/>
@@ -43508,7 +43508,7 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M986" t="inlineStr"/>
@@ -43553,7 +43553,7 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M987" t="inlineStr"/>
@@ -43639,7 +43639,7 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M989" t="inlineStr"/>
@@ -43684,7 +43684,7 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M990" t="inlineStr"/>
@@ -43770,7 +43770,7 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M992" t="inlineStr"/>
@@ -43815,7 +43815,7 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M993" t="inlineStr"/>
@@ -43901,7 +43901,7 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M995" t="inlineStr"/>
@@ -43991,7 +43991,7 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M997" t="inlineStr"/>
@@ -44036,7 +44036,7 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M998" t="inlineStr"/>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M999" t="inlineStr"/>
@@ -44167,7 +44167,7 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1001" t="inlineStr"/>
@@ -44212,7 +44212,7 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1002" t="inlineStr"/>
@@ -44343,7 +44343,7 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1005" t="inlineStr"/>
@@ -44388,7 +44388,7 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1006" t="inlineStr"/>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1008" t="inlineStr"/>
@@ -44519,7 +44519,7 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1009" t="inlineStr"/>
@@ -44605,7 +44605,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr"/>
@@ -44695,7 +44695,7 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1013" t="inlineStr"/>
@@ -44785,7 +44785,7 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1015" t="inlineStr"/>
@@ -44912,7 +44912,7 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1018" t="inlineStr"/>
@@ -44998,7 +44998,7 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1020" t="inlineStr"/>
@@ -45125,7 +45125,7 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1023" t="inlineStr"/>
@@ -45211,7 +45211,7 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1025" t="inlineStr"/>
@@ -45256,7 +45256,7 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1026" t="inlineStr"/>
@@ -45301,7 +45301,7 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1027" t="inlineStr"/>
@@ -45346,7 +45346,7 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1028" t="inlineStr"/>
@@ -45391,7 +45391,7 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1029" t="inlineStr"/>
@@ -45567,7 +45567,7 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1033" t="inlineStr"/>
@@ -45612,7 +45612,7 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1034" t="inlineStr"/>
@@ -45657,7 +45657,7 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1035" t="inlineStr"/>
@@ -45747,7 +45747,7 @@
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1037" t="inlineStr"/>
@@ -45792,7 +45792,7 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1038" t="inlineStr"/>
@@ -45837,7 +45837,7 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1039" t="inlineStr"/>
@@ -45882,7 +45882,7 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1040" t="inlineStr"/>
@@ -45927,7 +45927,7 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1041" t="inlineStr"/>
@@ -45972,7 +45972,7 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1042" t="inlineStr"/>
@@ -46017,7 +46017,7 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1043" t="inlineStr"/>
@@ -46062,7 +46062,7 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1044" t="inlineStr"/>
@@ -46107,7 +46107,7 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1045" t="inlineStr"/>
@@ -46197,7 +46197,7 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1047" t="inlineStr"/>
@@ -46242,7 +46242,7 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1048" t="inlineStr"/>
@@ -46332,7 +46332,7 @@
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1050" t="inlineStr"/>
@@ -46377,7 +46377,7 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1051" t="inlineStr"/>
@@ -46594,7 +46594,7 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1056" t="inlineStr"/>
@@ -46639,7 +46639,7 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1057" t="inlineStr"/>
@@ -46684,7 +46684,7 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1058" t="inlineStr"/>
@@ -46774,7 +46774,7 @@
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1060" t="inlineStr"/>
@@ -46819,7 +46819,7 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1061" t="inlineStr"/>
@@ -46950,7 +46950,7 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1064" t="inlineStr"/>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1065" t="inlineStr"/>
@@ -47085,7 +47085,7 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1067" t="inlineStr"/>
@@ -47827,7 +47827,7 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1085" t="inlineStr"/>
@@ -47917,7 +47917,7 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1087" t="inlineStr"/>
@@ -48044,7 +48044,7 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1090" t="inlineStr"/>
@@ -48089,7 +48089,7 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1091" t="inlineStr"/>
@@ -48175,7 +48175,7 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1093" t="inlineStr"/>
@@ -48261,7 +48261,7 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1095" t="inlineStr"/>
@@ -48351,7 +48351,7 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1097" t="inlineStr"/>
@@ -48396,7 +48396,7 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1098" t="inlineStr"/>
@@ -48884,7 +48884,7 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1110" t="inlineStr"/>
@@ -48929,7 +48929,7 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1111" t="inlineStr"/>
@@ -48974,7 +48974,7 @@
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1112" t="inlineStr"/>
@@ -49019,7 +49019,7 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1113" t="inlineStr"/>
@@ -49064,7 +49064,7 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1114" t="inlineStr"/>
@@ -49154,7 +49154,7 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1116" t="inlineStr"/>
@@ -49461,7 +49461,7 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1123" t="inlineStr"/>
@@ -49547,7 +49547,7 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1125" t="inlineStr"/>
@@ -49637,7 +49637,7 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1127" t="inlineStr"/>
@@ -49805,7 +49805,7 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1131" t="inlineStr"/>
@@ -49891,7 +49891,7 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1133" t="inlineStr"/>
@@ -50018,7 +50018,7 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1136" t="inlineStr"/>
@@ -50108,7 +50108,7 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1138" t="inlineStr"/>
@@ -50153,7 +50153,7 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1139" t="inlineStr"/>
@@ -50243,7 +50243,7 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1141" t="inlineStr"/>
@@ -50288,7 +50288,7 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1142" t="inlineStr"/>
@@ -50333,7 +50333,7 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1143" t="inlineStr"/>
@@ -50378,7 +50378,7 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1144" t="inlineStr"/>
@@ -50423,7 +50423,7 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1145" t="inlineStr"/>
@@ -50718,7 +50718,7 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1152" t="inlineStr"/>
@@ -50976,7 +50976,7 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1158" t="inlineStr"/>
@@ -51062,7 +51062,7 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1160" t="inlineStr"/>
@@ -51107,7 +51107,7 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1161" t="inlineStr"/>
@@ -51193,7 +51193,7 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1163" t="inlineStr"/>
@@ -51238,7 +51238,7 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1164" t="inlineStr"/>
@@ -51328,7 +51328,7 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1166" t="inlineStr"/>
@@ -51373,7 +51373,7 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1167" t="inlineStr"/>
@@ -51459,7 +51459,7 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1169" t="inlineStr"/>
@@ -51504,7 +51504,7 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1170" t="inlineStr"/>
@@ -51590,7 +51590,7 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1172" t="inlineStr"/>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1173" t="inlineStr"/>
@@ -51680,7 +51680,7 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1174" t="inlineStr"/>
@@ -51725,7 +51725,7 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1175" t="inlineStr"/>
@@ -51811,7 +51811,7 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1177" t="inlineStr"/>
@@ -51901,7 +51901,7 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1179" t="inlineStr"/>
@@ -52352,7 +52352,7 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1190" t="inlineStr"/>
@@ -52442,7 +52442,7 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1192" t="inlineStr"/>
@@ -52569,7 +52569,7 @@
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1195" t="inlineStr"/>
@@ -52614,7 +52614,7 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1196" t="inlineStr"/>
@@ -52659,7 +52659,7 @@
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1197" t="inlineStr"/>
@@ -52704,7 +52704,7 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1198" t="inlineStr"/>
@@ -52749,7 +52749,7 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1199" t="inlineStr"/>
@@ -52794,7 +52794,7 @@
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1200" t="inlineStr"/>
@@ -52839,7 +52839,7 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1201" t="inlineStr"/>
@@ -52884,7 +52884,7 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1202" t="inlineStr"/>
@@ -53015,7 +53015,7 @@
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1205" t="inlineStr"/>
@@ -53236,7 +53236,7 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1210" t="inlineStr"/>
@@ -53367,7 +53367,7 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1213" t="inlineStr"/>
@@ -53457,7 +53457,7 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1215" t="inlineStr"/>
@@ -53502,7 +53502,7 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1216" t="inlineStr"/>
@@ -53629,7 +53629,7 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1219" t="inlineStr"/>
@@ -53674,7 +53674,7 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1220" t="inlineStr"/>
@@ -53719,7 +53719,7 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1221" t="inlineStr"/>
@@ -53764,7 +53764,7 @@
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1222" t="inlineStr"/>
@@ -53809,7 +53809,7 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1223" t="inlineStr"/>
@@ -53940,7 +53940,7 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1226" t="inlineStr"/>
@@ -54030,7 +54030,7 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1228" t="inlineStr"/>
@@ -54366,7 +54366,7 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1236" t="inlineStr"/>
@@ -54411,7 +54411,7 @@
       </c>
       <c r="L1237" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1237" t="inlineStr"/>
@@ -54501,7 +54501,7 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1239" t="inlineStr"/>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1242" t="inlineStr"/>
@@ -54722,7 +54722,7 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1244" t="inlineStr"/>
@@ -54767,7 +54767,7 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1245" t="inlineStr"/>
@@ -54853,7 +54853,7 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1247" t="inlineStr"/>
@@ -54898,7 +54898,7 @@
       </c>
       <c r="L1248" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1248" t="inlineStr"/>
@@ -54984,7 +54984,7 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1250" t="inlineStr"/>
@@ -55029,7 +55029,7 @@
       </c>
       <c r="L1251" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1251" t="inlineStr"/>
@@ -55115,7 +55115,7 @@
       </c>
       <c r="L1253" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1253" t="inlineStr"/>
@@ -55160,7 +55160,7 @@
       </c>
       <c r="L1254" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1254" t="inlineStr"/>
@@ -55246,7 +55246,7 @@
       </c>
       <c r="L1256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1256" t="inlineStr"/>
@@ -55291,7 +55291,7 @@
       </c>
       <c r="L1257" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1257" t="inlineStr"/>
@@ -55377,7 +55377,7 @@
       </c>
       <c r="L1259" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1259" t="inlineStr"/>
@@ -55422,7 +55422,7 @@
       </c>
       <c r="L1260" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1260" t="inlineStr"/>
@@ -55508,7 +55508,7 @@
       </c>
       <c r="L1262" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1262" t="inlineStr"/>
@@ -55553,7 +55553,7 @@
       </c>
       <c r="L1263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1263" t="inlineStr"/>
@@ -55598,7 +55598,7 @@
       </c>
       <c r="L1264" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1264" t="inlineStr"/>
@@ -55643,7 +55643,7 @@
       </c>
       <c r="L1265" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1265" t="inlineStr"/>
@@ -55688,7 +55688,7 @@
       </c>
       <c r="L1266" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1266" t="inlineStr"/>
@@ -55774,7 +55774,7 @@
       </c>
       <c r="L1268" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1268" t="inlineStr"/>
@@ -55819,7 +55819,7 @@
       </c>
       <c r="L1269" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1269" t="inlineStr"/>
@@ -55905,7 +55905,7 @@
       </c>
       <c r="L1271" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1271" t="inlineStr"/>
@@ -55995,7 +55995,7 @@
       </c>
       <c r="L1273" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1273" t="inlineStr"/>
@@ -56040,7 +56040,7 @@
       </c>
       <c r="L1274" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1274" t="inlineStr"/>
@@ -56126,7 +56126,7 @@
       </c>
       <c r="L1276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1276" t="inlineStr"/>
@@ -56298,7 +56298,7 @@
       </c>
       <c r="L1280" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="M1280" t="inlineStr"/>
@@ -56384,7 +56384,7 @@
       </c>
       <c r="L1282" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1282" t="inlineStr"/>
@@ -56429,7 +56429,7 @@
       </c>
       <c r="L1283" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1283" t="inlineStr"/>
@@ -56515,7 +56515,7 @@
       </c>
       <c r="L1285" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1285" t="inlineStr"/>
@@ -56605,7 +56605,7 @@
       </c>
       <c r="L1287" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1287" t="inlineStr"/>
@@ -56945,7 +56945,7 @@
       </c>
       <c r="L1295" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1295" t="inlineStr"/>
@@ -56990,7 +56990,7 @@
       </c>
       <c r="L1296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1296" t="inlineStr"/>
@@ -57121,7 +57121,7 @@
       </c>
       <c r="L1299" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1299" t="inlineStr"/>
@@ -57412,7 +57412,7 @@
       </c>
       <c r="L1306" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1306" t="inlineStr"/>
@@ -57457,7 +57457,7 @@
       </c>
       <c r="L1307" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1307" t="inlineStr"/>
@@ -57502,7 +57502,7 @@
       </c>
       <c r="L1308" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1308" t="inlineStr"/>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="L1310" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1310" t="inlineStr"/>
@@ -57793,7 +57793,7 @@
       </c>
       <c r="L1315" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1315" t="inlineStr"/>
@@ -57838,7 +57838,7 @@
       </c>
       <c r="L1316" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1316" t="inlineStr"/>
@@ -57924,7 +57924,7 @@
       </c>
       <c r="L1318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1318" t="inlineStr"/>
@@ -57969,7 +57969,7 @@
       </c>
       <c r="L1319" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1319" t="inlineStr"/>
@@ -58014,7 +58014,7 @@
       </c>
       <c r="L1320" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1320" t="inlineStr"/>
@@ -58059,7 +58059,7 @@
       </c>
       <c r="L1321" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1321" t="inlineStr"/>
@@ -58149,7 +58149,7 @@
       </c>
       <c r="L1323" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1323" t="inlineStr"/>
@@ -58194,7 +58194,7 @@
       </c>
       <c r="L1324" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1324" t="inlineStr"/>
@@ -58239,7 +58239,7 @@
       </c>
       <c r="L1325" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1325" t="inlineStr"/>
@@ -58325,7 +58325,7 @@
       </c>
       <c r="L1327" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1327" t="inlineStr"/>
@@ -58411,7 +58411,7 @@
       </c>
       <c r="L1329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1329" t="inlineStr"/>
@@ -58497,7 +58497,7 @@
       </c>
       <c r="L1331" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1331" t="inlineStr"/>
@@ -58583,7 +58583,7 @@
       </c>
       <c r="L1333" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1333" t="inlineStr"/>
@@ -58669,7 +58669,7 @@
       </c>
       <c r="L1335" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1335" t="inlineStr"/>
@@ -58714,7 +58714,7 @@
       </c>
       <c r="L1336" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1336" t="inlineStr"/>
@@ -58759,7 +58759,7 @@
       </c>
       <c r="L1337" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1337" t="inlineStr"/>
@@ -58849,7 +58849,7 @@
       </c>
       <c r="L1339" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1339" t="inlineStr"/>
@@ -58894,7 +58894,7 @@
       </c>
       <c r="L1340" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1340" t="inlineStr"/>
@@ -58980,7 +58980,7 @@
       </c>
       <c r="L1342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1342" t="inlineStr"/>
@@ -59115,7 +59115,7 @@
       </c>
       <c r="L1345" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1345" t="inlineStr"/>
@@ -59250,7 +59250,7 @@
       </c>
       <c r="L1348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1348" t="inlineStr"/>
@@ -59295,7 +59295,7 @@
       </c>
       <c r="L1349" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1349" t="inlineStr"/>
@@ -59340,7 +59340,7 @@
       </c>
       <c r="L1350" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1350" t="inlineStr"/>
@@ -59512,7 +59512,7 @@
       </c>
       <c r="L1354" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1354" t="inlineStr"/>
@@ -59598,7 +59598,7 @@
       </c>
       <c r="L1356" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1356" t="inlineStr"/>
@@ -59643,7 +59643,7 @@
       </c>
       <c r="L1357" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1357" t="inlineStr"/>
@@ -59774,7 +59774,7 @@
       </c>
       <c r="L1360" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1360" t="inlineStr"/>
@@ -59819,7 +59819,7 @@
       </c>
       <c r="L1361" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1361" t="inlineStr"/>
@@ -59905,7 +59905,7 @@
       </c>
       <c r="L1363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1363" t="inlineStr"/>
@@ -59950,7 +59950,7 @@
       </c>
       <c r="L1364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1364" t="inlineStr"/>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="L1366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1366" t="inlineStr"/>
@@ -60126,7 +60126,7 @@
       </c>
       <c r="L1368" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1368" t="inlineStr"/>
@@ -60212,7 +60212,7 @@
       </c>
       <c r="L1370" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1370" t="inlineStr"/>
@@ -60302,7 +60302,7 @@
       </c>
       <c r="L1372" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1372" t="inlineStr"/>
@@ -60433,7 +60433,7 @@
       </c>
       <c r="L1375" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1375" t="inlineStr"/>
@@ -60478,7 +60478,7 @@
       </c>
       <c r="L1376" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1376" t="inlineStr"/>
@@ -60523,7 +60523,7 @@
       </c>
       <c r="L1377" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1377" t="inlineStr"/>
@@ -60568,7 +60568,7 @@
       </c>
       <c r="L1378" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1378" t="inlineStr"/>
@@ -60613,7 +60613,7 @@
       </c>
       <c r="L1379" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1379" t="inlineStr"/>
@@ -60744,7 +60744,7 @@
       </c>
       <c r="L1382" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1382" t="inlineStr"/>
@@ -60830,7 +60830,7 @@
       </c>
       <c r="L1384" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1384" t="inlineStr"/>
@@ -60920,7 +60920,7 @@
       </c>
       <c r="L1386" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1386" t="inlineStr"/>
@@ -60965,7 +60965,7 @@
       </c>
       <c r="L1387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1387" t="inlineStr"/>
@@ -61010,7 +61010,7 @@
       </c>
       <c r="L1388" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1388" t="inlineStr"/>
@@ -61096,7 +61096,7 @@
       </c>
       <c r="L1390" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1390" t="inlineStr"/>
@@ -61186,7 +61186,7 @@
       </c>
       <c r="L1392" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1392" t="inlineStr"/>
@@ -61276,7 +61276,7 @@
       </c>
       <c r="L1394" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="M1394" t="inlineStr"/>
@@ -61407,7 +61407,7 @@
       </c>
       <c r="L1397" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1397" t="inlineStr"/>
@@ -61452,7 +61452,7 @@
       </c>
       <c r="L1398" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1398" t="inlineStr"/>
@@ -61497,7 +61497,7 @@
       </c>
       <c r="L1399" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1399" t="inlineStr"/>
@@ -61542,7 +61542,7 @@
       </c>
       <c r="L1400" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1400" t="inlineStr"/>
@@ -61632,7 +61632,7 @@
       </c>
       <c r="L1402" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1402" t="inlineStr"/>
@@ -61759,7 +61759,7 @@
       </c>
       <c r="L1405" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1405" t="inlineStr"/>
@@ -61804,7 +61804,7 @@
       </c>
       <c r="L1406" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1406" t="inlineStr"/>
@@ -61849,7 +61849,7 @@
       </c>
       <c r="L1407" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1407" t="inlineStr"/>
@@ -61894,7 +61894,7 @@
       </c>
       <c r="L1408" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1408" t="inlineStr"/>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="L1410" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1410" t="inlineStr"/>
@@ -62111,7 +62111,7 @@
       </c>
       <c r="L1413" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1413" t="inlineStr"/>
@@ -62156,7 +62156,7 @@
       </c>
       <c r="L1414" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1414" t="inlineStr"/>

--- a/WD_BDRC_data.xlsx
+++ b/WD_BDRC_data.xlsx
@@ -593,7 +593,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
@@ -716,7 +716,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr"/>
@@ -2273,7 +2273,11 @@
           <t>WA0RK0104</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -2316,7 +2320,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr"/>
@@ -2406,7 +2410,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M44" t="inlineStr"/>
@@ -2496,7 +2500,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -2541,7 +2545,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -2631,7 +2635,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
@@ -2676,7 +2680,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -2766,7 +2770,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M52" t="inlineStr"/>
@@ -2811,7 +2815,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -2946,7 +2950,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr"/>
@@ -3073,7 +3077,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr"/>
@@ -3204,7 +3208,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr"/>
@@ -3249,7 +3253,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr"/>
@@ -3294,7 +3298,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -3339,7 +3343,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr"/>
@@ -3429,7 +3433,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M67" t="inlineStr"/>
@@ -3519,7 +3523,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -3564,7 +3568,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M70" t="inlineStr"/>
@@ -3609,7 +3613,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr"/>
@@ -3654,7 +3658,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
@@ -3744,7 +3748,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M74" t="inlineStr"/>
@@ -3834,7 +3838,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -3924,7 +3928,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -3969,7 +3973,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -4104,7 +4108,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -4149,7 +4153,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -4239,7 +4243,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -4284,7 +4288,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -4329,7 +4333,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -4419,7 +4423,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -4462,7 +4466,11 @@
           <t>WA0RK0115</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -4505,7 +4513,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -4593,7 +4601,11 @@
           <t>WA0RK0116</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -4636,7 +4648,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -4726,7 +4738,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -4771,7 +4783,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -4861,7 +4873,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
@@ -4906,7 +4918,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -5471,7 +5483,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -5561,7 +5573,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M115" t="inlineStr"/>
@@ -5606,7 +5618,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -5651,7 +5663,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -5696,7 +5708,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -5739,7 +5751,11 @@
           <t>WA0RK0128</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -5782,7 +5798,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -5870,7 +5886,11 @@
           <t>WA0RK0129</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -5913,7 +5933,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -5958,7 +5978,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M124" t="inlineStr"/>
@@ -6003,7 +6023,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -6093,7 +6113,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -6226,7 +6246,11 @@
           <t>WA0RK0131</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
@@ -6269,7 +6293,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -6449,7 +6473,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
@@ -6494,7 +6518,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -6539,7 +6563,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -6629,7 +6653,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
@@ -6674,7 +6698,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -6719,7 +6743,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -6764,7 +6788,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -6809,7 +6833,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -6854,7 +6878,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
@@ -6944,7 +6968,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -7032,7 +7056,11 @@
           <t>WA0RK0142</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -7075,7 +7103,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -7120,7 +7148,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -7210,7 +7238,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -7255,7 +7283,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M153" t="inlineStr"/>
@@ -7300,7 +7328,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -7345,7 +7373,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -7390,7 +7418,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -7480,7 +7508,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -7525,7 +7553,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -7570,7 +7598,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M160" t="inlineStr"/>
@@ -7656,7 +7684,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M162" t="inlineStr"/>
@@ -7701,7 +7729,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M163" t="inlineStr"/>
@@ -7789,7 +7817,11 @@
           <t>WA0RK0152</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -7877,7 +7909,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M167" t="inlineStr"/>
@@ -7967,7 +7999,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M169" t="inlineStr"/>
@@ -8012,7 +8044,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M170" t="inlineStr"/>
@@ -8100,7 +8132,11 @@
           <t>WA0RK0154</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -8188,7 +8224,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M174" t="inlineStr"/>
@@ -8278,7 +8314,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M176" t="inlineStr"/>
@@ -8323,7 +8359,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M177" t="inlineStr"/>
@@ -8413,7 +8449,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M179" t="inlineStr"/>
@@ -8458,7 +8494,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M180" t="inlineStr"/>
@@ -8548,7 +8584,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M182" t="inlineStr"/>
@@ -8638,7 +8674,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
@@ -8683,7 +8719,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M185" t="inlineStr"/>
@@ -8863,7 +8899,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M189" t="inlineStr"/>
@@ -8908,7 +8944,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M190" t="inlineStr"/>
@@ -8953,7 +8989,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M191" t="inlineStr"/>
@@ -9043,7 +9079,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M193" t="inlineStr"/>
@@ -9088,7 +9124,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M194" t="inlineStr"/>
@@ -9178,7 +9214,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M196" t="inlineStr"/>
@@ -9223,7 +9259,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M197" t="inlineStr"/>
@@ -9403,7 +9439,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M201" t="inlineStr"/>
@@ -9448,7 +9484,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M202" t="inlineStr"/>
@@ -9538,7 +9574,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M204" t="inlineStr"/>
@@ -9583,7 +9619,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M205" t="inlineStr"/>
@@ -9628,7 +9664,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M206" t="inlineStr"/>
@@ -9716,7 +9752,11 @@
           <t>WA0RK0169</t>
         </is>
       </c>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
@@ -9759,7 +9799,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M209" t="inlineStr"/>
@@ -9849,7 +9889,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M211" t="inlineStr"/>
@@ -9894,7 +9934,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M212" t="inlineStr"/>
@@ -9982,7 +10022,11 @@
           <t>WA0RK0171</t>
         </is>
       </c>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
@@ -10025,7 +10069,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M215" t="inlineStr"/>
@@ -10160,7 +10204,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M218" t="inlineStr"/>
@@ -10205,7 +10249,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M219" t="inlineStr"/>
@@ -10295,7 +10339,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M221" t="inlineStr"/>
@@ -10385,7 +10429,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="M223" t="inlineStr"/>
@@ -10430,7 +10474,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M224" t="inlineStr"/>
@@ -10565,7 +10609,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M227" t="inlineStr"/>
@@ -10700,7 +10744,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M230" t="inlineStr"/>
@@ -10745,7 +10789,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M231" t="inlineStr"/>
@@ -10790,7 +10834,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M232" t="inlineStr"/>
@@ -10880,7 +10924,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M234" t="inlineStr"/>
@@ -10970,7 +11014,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M236" t="inlineStr"/>
@@ -11015,7 +11059,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M237" t="inlineStr"/>
@@ -11105,7 +11149,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M239" t="inlineStr"/>
@@ -11236,7 +11280,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M242" t="inlineStr"/>
@@ -11416,7 +11460,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M246" t="inlineStr"/>
@@ -11461,7 +11505,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M247" t="inlineStr"/>
@@ -11506,7 +11550,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M248" t="inlineStr"/>
@@ -11551,7 +11595,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M249" t="inlineStr"/>
@@ -11639,7 +11683,11 @@
           <t>WA0RK0195</t>
         </is>
       </c>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
@@ -11682,7 +11730,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M252" t="inlineStr"/>
@@ -11772,7 +11820,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M254" t="inlineStr"/>
@@ -11817,7 +11865,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M255" t="inlineStr"/>
@@ -11862,7 +11910,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M256" t="inlineStr"/>
@@ -11907,7 +11955,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M257" t="inlineStr"/>
@@ -12042,7 +12090,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M260" t="inlineStr"/>
@@ -12214,7 +12262,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M264" t="inlineStr"/>
@@ -12302,7 +12350,11 @@
           <t>WA0RK0200</t>
         </is>
       </c>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
@@ -12345,7 +12397,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M267" t="inlineStr"/>
@@ -12435,7 +12487,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M269" t="inlineStr"/>
@@ -12480,7 +12532,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M270" t="inlineStr"/>
@@ -12570,7 +12622,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M272" t="inlineStr"/>
@@ -12705,7 +12757,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M275" t="inlineStr"/>
@@ -12750,7 +12802,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M276" t="inlineStr"/>
@@ -13061,7 +13113,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M283" t="inlineStr"/>
@@ -13106,7 +13158,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M284" t="inlineStr"/>
@@ -13401,7 +13453,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M291" t="inlineStr"/>
@@ -13491,7 +13543,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M293" t="inlineStr"/>
@@ -13575,7 +13627,11 @@
           <t>WA0RK0214</t>
         </is>
       </c>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
@@ -13618,7 +13674,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M296" t="inlineStr"/>
@@ -13661,7 +13717,11 @@
           <t>WA0RK0215</t>
         </is>
       </c>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -13704,7 +13764,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M298" t="inlineStr"/>
@@ -13792,7 +13852,11 @@
           <t>WA0RK0217</t>
         </is>
       </c>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
@@ -13835,7 +13899,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M301" t="inlineStr"/>
@@ -13925,7 +13989,7 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M303" t="inlineStr"/>
@@ -13970,7 +14034,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M304" t="inlineStr"/>
@@ -14058,7 +14122,11 @@
           <t>WA0RK0219</t>
         </is>
       </c>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
@@ -14101,7 +14169,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M307" t="inlineStr"/>
@@ -14187,7 +14255,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M309" t="inlineStr"/>
@@ -14318,7 +14386,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M312" t="inlineStr"/>
@@ -14363,7 +14431,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M313" t="inlineStr"/>
@@ -14453,7 +14521,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M315" t="inlineStr"/>
@@ -14498,7 +14566,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M316" t="inlineStr"/>
@@ -14543,7 +14611,7 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M317" t="inlineStr"/>
@@ -14588,7 +14656,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M318" t="inlineStr"/>
@@ -14678,7 +14746,7 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M320" t="inlineStr"/>
@@ -14723,7 +14791,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M321" t="inlineStr"/>
@@ -14813,7 +14881,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M323" t="inlineStr"/>
@@ -14901,7 +14969,11 @@
           <t>WA0RK0226</t>
         </is>
       </c>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
@@ -14944,7 +15016,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M326" t="inlineStr"/>
@@ -15079,7 +15151,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M329" t="inlineStr"/>
@@ -15169,7 +15241,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M331" t="inlineStr"/>
@@ -15304,7 +15376,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M334" t="inlineStr"/>
@@ -15394,7 +15466,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M336" t="inlineStr"/>
@@ -15484,7 +15556,7 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M338" t="inlineStr"/>
@@ -15574,7 +15646,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M340" t="inlineStr"/>
@@ -15664,7 +15736,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M342" t="inlineStr"/>
@@ -15799,7 +15871,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M345" t="inlineStr"/>
@@ -15889,7 +15961,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M347" t="inlineStr"/>
@@ -15934,7 +16006,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M348" t="inlineStr"/>
@@ -15977,7 +16049,11 @@
           <t>WA0RK0238</t>
         </is>
       </c>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>{'eft:manjusrigarbha'}</t>
+        </is>
+      </c>
       <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
@@ -16065,7 +16141,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M351" t="inlineStr"/>
@@ -16110,7 +16186,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M352" t="inlineStr"/>
@@ -16288,7 +16364,11 @@
           <t>WA0RK0240</t>
         </is>
       </c>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
@@ -16376,7 +16456,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M358" t="inlineStr"/>
@@ -16466,7 +16546,7 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M360" t="inlineStr"/>
@@ -16511,7 +16591,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M361" t="inlineStr"/>
@@ -16556,7 +16636,7 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M362" t="inlineStr"/>
@@ -16601,7 +16681,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M363" t="inlineStr"/>
@@ -16689,7 +16769,11 @@
           <t>WA0RK0246</t>
         </is>
       </c>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
@@ -16732,7 +16816,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M366" t="inlineStr"/>
@@ -16820,7 +16904,11 @@
           <t>WA0RK0247</t>
         </is>
       </c>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
@@ -16863,7 +16951,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M369" t="inlineStr"/>
@@ -16908,7 +16996,7 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M370" t="inlineStr"/>
@@ -17080,7 +17168,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M374" t="inlineStr"/>
@@ -17215,7 +17303,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M377" t="inlineStr"/>
@@ -17481,7 +17569,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M383" t="inlineStr"/>
@@ -17569,7 +17657,11 @@
           <t>WA0RK0259</t>
         </is>
       </c>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M385" t="inlineStr"/>
     </row>
     <row r="386">
@@ -17657,7 +17749,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M387" t="inlineStr"/>
@@ -17878,7 +17970,7 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M392" t="inlineStr"/>
@@ -18013,7 +18105,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M395" t="inlineStr"/>
@@ -18058,7 +18150,7 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M396" t="inlineStr"/>
@@ -18103,7 +18195,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M397" t="inlineStr"/>
@@ -18191,7 +18283,11 @@
           <t>WA0RK0273</t>
         </is>
       </c>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M399" t="inlineStr"/>
     </row>
     <row r="400">
@@ -18234,7 +18330,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M400" t="inlineStr"/>
@@ -18406,7 +18502,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M404" t="inlineStr"/>
@@ -18451,7 +18547,7 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M405" t="inlineStr"/>
@@ -18496,7 +18592,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M406" t="inlineStr"/>
@@ -18586,7 +18682,7 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M408" t="inlineStr"/>
@@ -18631,7 +18727,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M409" t="inlineStr"/>
@@ -18721,7 +18817,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M411" t="inlineStr"/>
@@ -18811,7 +18907,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M413" t="inlineStr"/>
@@ -18901,7 +18997,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M415" t="inlineStr"/>
@@ -18946,7 +19042,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M416" t="inlineStr"/>
@@ -19036,7 +19132,7 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M418" t="inlineStr"/>
@@ -19126,7 +19222,7 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M420" t="inlineStr"/>
@@ -19171,7 +19267,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M421" t="inlineStr"/>
@@ -19261,7 +19357,7 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M423" t="inlineStr"/>
@@ -19306,7 +19402,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M424" t="inlineStr"/>
@@ -19396,7 +19492,7 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M426" t="inlineStr"/>
@@ -19441,7 +19537,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M427" t="inlineStr"/>
@@ -19531,7 +19627,7 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M429" t="inlineStr"/>
@@ -19576,7 +19672,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M430" t="inlineStr"/>
@@ -19666,7 +19762,7 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M432" t="inlineStr"/>
@@ -19711,7 +19807,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M433" t="inlineStr"/>
@@ -19801,7 +19897,7 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M435" t="inlineStr"/>
@@ -19846,7 +19942,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M436" t="inlineStr"/>
@@ -19932,7 +20028,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M438" t="inlineStr"/>
@@ -20067,7 +20163,7 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M441" t="inlineStr"/>
@@ -20198,7 +20294,7 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M444" t="inlineStr"/>
@@ -20460,7 +20556,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M450" t="inlineStr"/>
@@ -20595,7 +20691,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M453" t="inlineStr"/>
@@ -20685,7 +20781,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M455" t="inlineStr"/>
@@ -20902,7 +20998,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M460" t="inlineStr"/>
@@ -20947,7 +21043,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M461" t="inlineStr"/>
@@ -20992,7 +21088,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M462" t="inlineStr"/>
@@ -21209,7 +21305,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M467" t="inlineStr"/>
@@ -21254,7 +21350,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M468" t="inlineStr"/>
@@ -21385,7 +21481,7 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M471" t="inlineStr"/>
@@ -21516,7 +21612,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M474" t="inlineStr"/>
@@ -21688,7 +21784,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M478" t="inlineStr"/>
@@ -21823,7 +21919,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M481" t="inlineStr"/>
@@ -22175,7 +22271,7 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M489" t="inlineStr"/>
@@ -22265,7 +22361,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M491" t="inlineStr"/>
@@ -22355,7 +22451,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M493" t="inlineStr"/>
@@ -23108,7 +23204,7 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M510" t="inlineStr"/>
@@ -24153,7 +24249,7 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M535" t="inlineStr"/>
@@ -25601,7 +25697,11 @@
           <t>WA0RK0381</t>
         </is>
       </c>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M569" t="inlineStr"/>
     </row>
     <row r="570">
@@ -25728,7 +25828,11 @@
           <t>WA0RK0382</t>
         </is>
       </c>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M572" t="inlineStr"/>
     </row>
     <row r="573">
@@ -25769,7 +25873,11 @@
           <t>WA0RK0382</t>
         </is>
       </c>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M573" t="inlineStr"/>
     </row>
     <row r="574">
@@ -25855,7 +25963,11 @@
           <t>WA0RK0383</t>
         </is>
       </c>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M575" t="inlineStr"/>
     </row>
     <row r="576">
@@ -25941,7 +26053,11 @@
           <t>WA0RK0384</t>
         </is>
       </c>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M577" t="inlineStr"/>
     </row>
     <row r="578">
@@ -26027,7 +26143,11 @@
           <t>WA0RK0385</t>
         </is>
       </c>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M579" t="inlineStr"/>
     </row>
     <row r="580">
@@ -26113,7 +26233,11 @@
           <t>WA0RK0386</t>
         </is>
       </c>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M581" t="inlineStr"/>
     </row>
     <row r="582">
@@ -26199,7 +26323,11 @@
           <t>WA0RK0387</t>
         </is>
       </c>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M583" t="inlineStr"/>
     </row>
     <row r="584">
@@ -26285,7 +26413,11 @@
           <t>WA0RK0388</t>
         </is>
       </c>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M585" t="inlineStr"/>
     </row>
     <row r="586">
@@ -26371,7 +26503,11 @@
           <t>WA0RK0389</t>
         </is>
       </c>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M587" t="inlineStr"/>
     </row>
     <row r="588">
@@ -26584,7 +26720,11 @@
           <t>WA0RK0390</t>
         </is>
       </c>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M592" t="inlineStr"/>
     </row>
     <row r="593">
@@ -26674,7 +26814,11 @@
           <t>WA0RK0391</t>
         </is>
       </c>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M594" t="inlineStr"/>
     </row>
     <row r="595">
@@ -26756,7 +26900,11 @@
           <t>WA0RK0392</t>
         </is>
       </c>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M596" t="inlineStr"/>
     </row>
     <row r="597">
@@ -26838,7 +26986,11 @@
           <t>WA0RK0393</t>
         </is>
       </c>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M598" t="inlineStr"/>
     </row>
     <row r="599">
@@ -26920,7 +27072,11 @@
           <t>WA0RK0394</t>
         </is>
       </c>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M600" t="inlineStr"/>
     </row>
     <row r="601">
@@ -27006,7 +27162,11 @@
           <t>WA0RK0395</t>
         </is>
       </c>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M602" t="inlineStr"/>
     </row>
     <row r="603">
@@ -27088,7 +27248,11 @@
           <t>WA0RK0396</t>
         </is>
       </c>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M604" t="inlineStr"/>
     </row>
     <row r="605">
@@ -27174,7 +27338,11 @@
           <t>WA0RK0397</t>
         </is>
       </c>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M606" t="inlineStr"/>
     </row>
     <row r="607">
@@ -27260,7 +27428,11 @@
           <t>WA0RK0398</t>
         </is>
       </c>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M608" t="inlineStr"/>
     </row>
     <row r="609">
@@ -27346,7 +27518,11 @@
           <t>WA0RK0399</t>
         </is>
       </c>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M610" t="inlineStr"/>
     </row>
     <row r="611">
@@ -27434,7 +27610,7 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M612" t="inlineStr"/>
@@ -27522,7 +27698,11 @@
           <t>WA0RK0400</t>
         </is>
       </c>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M614" t="inlineStr"/>
     </row>
     <row r="615">
@@ -27608,7 +27788,11 @@
           <t>WA0RK0401</t>
         </is>
       </c>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M616" t="inlineStr"/>
     </row>
     <row r="617">
@@ -27694,7 +27878,11 @@
           <t>WA0RK0402</t>
         </is>
       </c>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M618" t="inlineStr"/>
     </row>
     <row r="619">
@@ -27776,7 +27964,11 @@
           <t>WA0RK0403</t>
         </is>
       </c>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M620" t="inlineStr"/>
     </row>
     <row r="621">
@@ -27862,7 +28054,11 @@
           <t>WA0RK0404</t>
         </is>
       </c>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M622" t="inlineStr"/>
     </row>
     <row r="623">
@@ -27944,7 +28140,11 @@
           <t>WA0RK0405</t>
         </is>
       </c>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M624" t="inlineStr"/>
     </row>
     <row r="625">
@@ -28030,7 +28230,11 @@
           <t>WA0RK0406</t>
         </is>
       </c>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M626" t="inlineStr"/>
     </row>
     <row r="627">
@@ -28116,7 +28320,11 @@
           <t>WA0RK0407</t>
         </is>
       </c>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M628" t="inlineStr"/>
     </row>
     <row r="629">
@@ -28202,7 +28410,11 @@
           <t>WA0RK0408</t>
         </is>
       </c>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M630" t="inlineStr"/>
     </row>
     <row r="631">
@@ -28288,7 +28500,11 @@
           <t>WA0RK0409</t>
         </is>
       </c>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M632" t="inlineStr"/>
     </row>
     <row r="633">
@@ -28374,7 +28590,11 @@
           <t>WA0RK0410</t>
         </is>
       </c>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M634" t="inlineStr"/>
     </row>
     <row r="635">
@@ -28460,7 +28680,11 @@
           <t>WA0RK0411</t>
         </is>
       </c>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M636" t="inlineStr"/>
     </row>
     <row r="637">
@@ -28628,7 +28852,11 @@
           <t>WA0RK0413</t>
         </is>
       </c>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M640" t="inlineStr"/>
     </row>
     <row r="641">
@@ -28714,7 +28942,11 @@
           <t>WA0RK0414</t>
         </is>
       </c>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M642" t="inlineStr"/>
     </row>
     <row r="643">
@@ -28968,7 +29200,11 @@
           <t>WA0RK0418</t>
         </is>
       </c>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M648" t="inlineStr"/>
     </row>
     <row r="649">
@@ -29099,7 +29335,11 @@
           <t>WA0RK0419</t>
         </is>
       </c>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M651" t="inlineStr"/>
     </row>
     <row r="652">
@@ -29685,7 +29925,11 @@
           <t>WA0RK0426</t>
         </is>
       </c>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M665" t="inlineStr"/>
     </row>
     <row r="666">
@@ -29771,7 +30015,11 @@
           <t>WA0RK0427</t>
         </is>
       </c>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M667" t="inlineStr"/>
     </row>
     <row r="668">
@@ -31842,7 +32090,7 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M716" t="inlineStr"/>
@@ -32059,7 +32307,7 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M721" t="inlineStr"/>
@@ -32641,7 +32889,7 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M735" t="inlineStr"/>
@@ -33190,7 +33438,7 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M748" t="inlineStr"/>
@@ -33532,7 +33780,11 @@
           <t>WA0RK0047</t>
         </is>
       </c>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M756" t="inlineStr"/>
     </row>
     <row r="757">
@@ -33620,7 +33872,7 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M758" t="inlineStr"/>
@@ -33796,7 +34048,7 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M762" t="inlineStr"/>
@@ -35380,7 +35632,11 @@
           <t>WA0RK0049</t>
         </is>
       </c>
-      <c r="L800" t="inlineStr"/>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M800" t="inlineStr"/>
     </row>
     <row r="801">
@@ -35423,7 +35679,7 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M801" t="inlineStr"/>
@@ -35755,7 +36011,7 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M809" t="inlineStr"/>
@@ -35800,7 +36056,7 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M810" t="inlineStr"/>
@@ -36050,7 +36306,7 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M816" t="inlineStr"/>
@@ -36095,7 +36351,7 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M817" t="inlineStr"/>
@@ -36140,7 +36396,7 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M818" t="inlineStr"/>
@@ -36185,7 +36441,7 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M819" t="inlineStr"/>
@@ -36273,7 +36529,11 @@
           <t>WA0RK0497</t>
         </is>
       </c>
-      <c r="L821" t="inlineStr"/>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>{'eft:phakpa-sherab'}</t>
+        </is>
+      </c>
       <c r="M821" t="inlineStr"/>
     </row>
     <row r="822">
@@ -36316,7 +36576,7 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M822" t="inlineStr"/>
@@ -36541,7 +36801,7 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M827" t="inlineStr"/>
@@ -36586,7 +36846,7 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M828" t="inlineStr"/>
@@ -36762,7 +37022,7 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M832" t="inlineStr"/>
@@ -36930,7 +37190,7 @@
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M836" t="inlineStr"/>
@@ -37153,7 +37413,11 @@
           <t>WA0RK0502</t>
         </is>
       </c>
-      <c r="L841" t="inlineStr"/>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M841" t="inlineStr"/>
     </row>
     <row r="842">
@@ -37196,7 +37460,7 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M842" t="inlineStr"/>
@@ -37241,7 +37505,7 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M843" t="inlineStr"/>
@@ -37329,7 +37593,11 @@
           <t>WA0RK0503</t>
         </is>
       </c>
-      <c r="L845" t="inlineStr"/>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M845" t="inlineStr"/>
     </row>
     <row r="846">
@@ -37372,7 +37640,7 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M846" t="inlineStr"/>
@@ -37460,7 +37728,11 @@
           <t>WA0RK0504</t>
         </is>
       </c>
-      <c r="L848" t="inlineStr"/>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M848" t="inlineStr"/>
     </row>
     <row r="849">
@@ -37503,7 +37775,7 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M849" t="inlineStr"/>
@@ -37548,7 +37820,7 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M850" t="inlineStr"/>
@@ -37724,7 +37996,7 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M854" t="inlineStr"/>
@@ -37769,7 +38041,7 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M855" t="inlineStr"/>
@@ -37900,7 +38172,7 @@
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M858" t="inlineStr"/>
@@ -37945,7 +38217,7 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M859" t="inlineStr"/>
@@ -38074,7 +38346,11 @@
           <t>WA0RK0273</t>
         </is>
       </c>
-      <c r="L862" t="inlineStr"/>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M862" t="inlineStr"/>
     </row>
     <row r="863">
@@ -38117,7 +38393,7 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M863" t="inlineStr"/>
@@ -38205,7 +38481,11 @@
           <t>WA0RK0512</t>
         </is>
       </c>
-      <c r="L865" t="inlineStr"/>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M865" t="inlineStr"/>
     </row>
     <row r="866">
@@ -38248,7 +38528,7 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M866" t="inlineStr"/>
@@ -38336,7 +38616,11 @@
           <t>WA0RK0513</t>
         </is>
       </c>
-      <c r="L868" t="inlineStr"/>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M868" t="inlineStr"/>
     </row>
     <row r="869">
@@ -38379,7 +38663,7 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M869" t="inlineStr"/>
@@ -38467,7 +38751,11 @@
           <t>WA0RK0514</t>
         </is>
       </c>
-      <c r="L871" t="inlineStr"/>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M871" t="inlineStr"/>
     </row>
     <row r="872">
@@ -38510,7 +38798,7 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M872" t="inlineStr"/>
@@ -38598,7 +38886,11 @@
           <t>WA0RK0516</t>
         </is>
       </c>
-      <c r="L874" t="inlineStr"/>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M874" t="inlineStr"/>
     </row>
     <row r="875">
@@ -38641,7 +38933,7 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M875" t="inlineStr"/>
@@ -38729,7 +39021,11 @@
           <t>WA0RK0517</t>
         </is>
       </c>
-      <c r="L877" t="inlineStr"/>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M877" t="inlineStr"/>
     </row>
     <row r="878">
@@ -38772,7 +39068,7 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M878" t="inlineStr"/>
@@ -38907,7 +39203,7 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M881" t="inlineStr"/>
@@ -38995,7 +39291,11 @@
           <t>WA0RK0522</t>
         </is>
       </c>
-      <c r="L883" t="inlineStr"/>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M883" t="inlineStr"/>
     </row>
     <row r="884">
@@ -39038,7 +39338,7 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M884" t="inlineStr"/>
@@ -39083,7 +39383,7 @@
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M885" t="inlineStr"/>
@@ -39173,7 +39473,7 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M887" t="inlineStr"/>
@@ -39261,7 +39561,11 @@
           <t>WA0RK0528</t>
         </is>
       </c>
-      <c r="L889" t="inlineStr"/>
+      <c r="L889" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M889" t="inlineStr"/>
     </row>
     <row r="890">
@@ -39304,7 +39608,7 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M890" t="inlineStr"/>
@@ -39439,7 +39743,7 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M893" t="inlineStr"/>
@@ -39738,7 +40042,7 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M900" t="inlineStr"/>
@@ -39826,7 +40130,11 @@
           <t>WA0RK0540</t>
         </is>
       </c>
-      <c r="L902" t="inlineStr"/>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M902" t="inlineStr"/>
     </row>
     <row r="903">
@@ -39869,7 +40177,7 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M903" t="inlineStr"/>
@@ -40000,7 +40308,7 @@
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M906" t="inlineStr"/>
@@ -40348,7 +40656,7 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M914" t="inlineStr"/>
@@ -40393,7 +40701,7 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M915" t="inlineStr"/>
@@ -40438,7 +40746,7 @@
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M916" t="inlineStr"/>
@@ -40483,7 +40791,7 @@
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="M917" t="inlineStr"/>
@@ -40573,7 +40881,7 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M919" t="inlineStr"/>
@@ -40659,7 +40967,7 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M921" t="inlineStr"/>
@@ -40704,7 +41012,7 @@
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="M922" t="inlineStr"/>
@@ -40794,7 +41102,7 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M924" t="inlineStr"/>
@@ -40884,7 +41192,7 @@
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M926" t="inlineStr"/>
@@ -40929,7 +41237,7 @@
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M927" t="inlineStr"/>
@@ -41017,7 +41325,11 @@
           <t>WA0RK0556</t>
         </is>
       </c>
-      <c r="L929" t="inlineStr"/>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M929" t="inlineStr"/>
     </row>
     <row r="930">
@@ -41060,7 +41372,7 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M930" t="inlineStr"/>
@@ -41146,7 +41458,7 @@
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M932" t="inlineStr"/>
@@ -41191,7 +41503,7 @@
       </c>
       <c r="L933" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="M933" t="inlineStr"/>
@@ -41281,7 +41593,7 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M935" t="inlineStr"/>
@@ -41367,7 +41679,7 @@
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M937" t="inlineStr"/>
@@ -41412,7 +41724,7 @@
       </c>
       <c r="L938" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="M938" t="inlineStr"/>
@@ -41502,7 +41814,7 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M940" t="inlineStr"/>
@@ -41672,7 +41984,11 @@
           <t>WA0RK0562</t>
         </is>
       </c>
-      <c r="L944" t="inlineStr"/>
+      <c r="L944" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M944" t="inlineStr"/>
     </row>
     <row r="945">
@@ -41715,7 +42031,7 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M945" t="inlineStr"/>
@@ -41803,7 +42119,11 @@
           <t>WA0RK0564</t>
         </is>
       </c>
-      <c r="L947" t="inlineStr"/>
+      <c r="L947" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M947" t="inlineStr"/>
     </row>
     <row r="948">
@@ -41846,7 +42166,7 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M948" t="inlineStr"/>
@@ -41934,7 +42254,11 @@
           <t>WA0RK0565</t>
         </is>
       </c>
-      <c r="L950" t="inlineStr"/>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M950" t="inlineStr"/>
     </row>
     <row r="951">
@@ -41977,7 +42301,7 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M951" t="inlineStr"/>
@@ -42022,7 +42346,7 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M952" t="inlineStr"/>
@@ -42067,7 +42391,7 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M953" t="inlineStr"/>
@@ -42112,7 +42436,7 @@
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M954" t="inlineStr"/>
@@ -42202,7 +42526,7 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M956" t="inlineStr"/>
@@ -42501,7 +42825,7 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M963" t="inlineStr"/>
@@ -42673,7 +42997,7 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M967" t="inlineStr"/>
@@ -42718,7 +43042,7 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M968" t="inlineStr"/>
@@ -42894,7 +43218,7 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M972" t="inlineStr"/>
@@ -42982,7 +43306,11 @@
           <t>WA0RK0060</t>
         </is>
       </c>
-      <c r="L974" t="inlineStr"/>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M974" t="inlineStr"/>
     </row>
     <row r="975">
@@ -43025,7 +43353,7 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M975" t="inlineStr"/>
@@ -43113,7 +43441,11 @@
           <t>WA0RK0600</t>
         </is>
       </c>
-      <c r="L977" t="inlineStr"/>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M977" t="inlineStr"/>
     </row>
     <row r="978">
@@ -43156,7 +43488,7 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M978" t="inlineStr"/>
@@ -43246,7 +43578,7 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M980" t="inlineStr"/>
@@ -43334,7 +43666,11 @@
           <t>WA0RK0603</t>
         </is>
       </c>
-      <c r="L982" t="inlineStr"/>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M982" t="inlineStr"/>
     </row>
     <row r="983">
@@ -43377,7 +43713,7 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M983" t="inlineStr"/>
@@ -43465,7 +43801,11 @@
           <t>WA0RK0604</t>
         </is>
       </c>
-      <c r="L985" t="inlineStr"/>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M985" t="inlineStr"/>
     </row>
     <row r="986">
@@ -43508,7 +43848,7 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M986" t="inlineStr"/>
@@ -43596,7 +43936,11 @@
           <t>WA0RK0606</t>
         </is>
       </c>
-      <c r="L988" t="inlineStr"/>
+      <c r="L988" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M988" t="inlineStr"/>
     </row>
     <row r="989">
@@ -43639,7 +43983,7 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M989" t="inlineStr"/>
@@ -43727,7 +44071,11 @@
           <t>WA0RK0608</t>
         </is>
       </c>
-      <c r="L991" t="inlineStr"/>
+      <c r="L991" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M991" t="inlineStr"/>
     </row>
     <row r="992">
@@ -43770,7 +44118,7 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M992" t="inlineStr"/>
@@ -43858,7 +44206,11 @@
           <t>WA0RK0609</t>
         </is>
       </c>
-      <c r="L994" t="inlineStr"/>
+      <c r="L994" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M994" t="inlineStr"/>
     </row>
     <row r="995">
@@ -43901,7 +44253,7 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M995" t="inlineStr"/>
@@ -43991,7 +44343,7 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M997" t="inlineStr"/>
@@ -44036,7 +44388,7 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M998" t="inlineStr"/>
@@ -44124,7 +44476,11 @@
           <t>WA0RK0313</t>
         </is>
       </c>
-      <c r="L1000" t="inlineStr"/>
+      <c r="L1000" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1000" t="inlineStr"/>
     </row>
     <row r="1001">
@@ -44167,7 +44523,7 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1001" t="inlineStr"/>
@@ -44255,7 +44611,11 @@
           <t>WA0RK0062</t>
         </is>
       </c>
-      <c r="L1003" t="inlineStr"/>
+      <c r="L1003" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1003" t="inlineStr"/>
     </row>
     <row r="1004">
@@ -44343,7 +44703,7 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1005" t="inlineStr"/>
@@ -44431,7 +44791,11 @@
           <t>WA0RK0615</t>
         </is>
       </c>
-      <c r="L1007" t="inlineStr"/>
+      <c r="L1007" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1007" t="inlineStr"/>
     </row>
     <row r="1008">
@@ -44474,7 +44838,7 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1008" t="inlineStr"/>
@@ -44562,7 +44926,11 @@
           <t>WA0RK0619</t>
         </is>
       </c>
-      <c r="L1010" t="inlineStr"/>
+      <c r="L1010" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1010" t="inlineStr"/>
     </row>
     <row r="1011">
@@ -44605,7 +44973,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr"/>
@@ -44695,7 +45063,7 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1013" t="inlineStr"/>
@@ -44785,7 +45153,7 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1015" t="inlineStr"/>
@@ -44955,7 +45323,11 @@
           <t>WA0RK0627</t>
         </is>
       </c>
-      <c r="L1019" t="inlineStr"/>
+      <c r="L1019" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1019" t="inlineStr"/>
     </row>
     <row r="1020">
@@ -44998,7 +45370,7 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1020" t="inlineStr"/>
@@ -45168,7 +45540,11 @@
           <t>WA0RK0638</t>
         </is>
       </c>
-      <c r="L1024" t="inlineStr"/>
+      <c r="L1024" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1024" t="inlineStr"/>
     </row>
     <row r="1025">
@@ -45211,7 +45587,7 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1025" t="inlineStr"/>
@@ -45256,7 +45632,7 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1026" t="inlineStr"/>
@@ -45346,7 +45722,7 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1028" t="inlineStr"/>
@@ -45391,7 +45767,7 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1029" t="inlineStr"/>
@@ -45612,7 +45988,7 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1034" t="inlineStr"/>
@@ -45657,7 +46033,7 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1035" t="inlineStr"/>
@@ -45747,7 +46123,7 @@
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1037" t="inlineStr"/>
@@ -45792,7 +46168,7 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1038" t="inlineStr"/>
@@ -45882,7 +46258,7 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1040" t="inlineStr"/>
@@ -45927,7 +46303,7 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1041" t="inlineStr"/>
@@ -46017,7 +46393,7 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1043" t="inlineStr"/>
@@ -46062,7 +46438,7 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1044" t="inlineStr"/>
@@ -46197,7 +46573,7 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1047" t="inlineStr"/>
@@ -46332,7 +46708,7 @@
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1050" t="inlineStr"/>
@@ -46377,7 +46753,7 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1051" t="inlineStr"/>
@@ -46467,7 +46843,7 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M1053" t="inlineStr"/>
@@ -46594,7 +46970,7 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1056" t="inlineStr"/>
@@ -46639,7 +47015,7 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1057" t="inlineStr"/>
@@ -46774,7 +47150,7 @@
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1060" t="inlineStr"/>
@@ -46819,7 +47195,7 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1061" t="inlineStr"/>
@@ -46995,7 +47371,7 @@
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1065" t="inlineStr"/>
@@ -47085,7 +47461,7 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1067" t="inlineStr"/>
@@ -47917,7 +48293,7 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1087" t="inlineStr"/>
@@ -48044,7 +48420,7 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1090" t="inlineStr"/>
@@ -48089,7 +48465,7 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1091" t="inlineStr"/>
@@ -48218,7 +48594,11 @@
           <t>WA0RK0693</t>
         </is>
       </c>
-      <c r="L1094" t="inlineStr"/>
+      <c r="L1094" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1094" t="inlineStr"/>
     </row>
     <row r="1095">
@@ -48261,7 +48641,7 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1095" t="inlineStr"/>
@@ -48396,7 +48776,7 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1098" t="inlineStr"/>
@@ -48884,7 +49264,7 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1110" t="inlineStr"/>
@@ -48929,7 +49309,7 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1111" t="inlineStr"/>
@@ -48974,7 +49354,7 @@
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1112" t="inlineStr"/>
@@ -49019,7 +49399,7 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1113" t="inlineStr"/>
@@ -49154,7 +49534,7 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1116" t="inlineStr"/>
@@ -49504,7 +49884,11 @@
           <t>WA0RK0072</t>
         </is>
       </c>
-      <c r="L1124" t="inlineStr"/>
+      <c r="L1124" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1124" t="inlineStr"/>
     </row>
     <row r="1125">
@@ -49547,7 +49931,7 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1125" t="inlineStr"/>
@@ -49592,7 +49976,7 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1126" t="inlineStr"/>
@@ -49637,7 +50021,7 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1127" t="inlineStr"/>
@@ -49680,7 +50064,11 @@
           <t>WA0RK0717</t>
         </is>
       </c>
-      <c r="L1128" t="inlineStr"/>
+      <c r="L1128" t="inlineStr">
+        <is>
+          <t>{'eft:sakya-yesh-'}</t>
+        </is>
+      </c>
       <c r="M1128" t="inlineStr"/>
     </row>
     <row r="1129">
@@ -49848,7 +50236,11 @@
           <t>WA0RK0719</t>
         </is>
       </c>
-      <c r="L1132" t="inlineStr"/>
+      <c r="L1132" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1132" t="inlineStr"/>
     </row>
     <row r="1133">
@@ -49891,7 +50283,7 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1133" t="inlineStr"/>
@@ -50108,7 +50500,7 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1138" t="inlineStr"/>
@@ -50243,7 +50635,7 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1141" t="inlineStr"/>
@@ -50333,7 +50725,7 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1143" t="inlineStr"/>
@@ -50423,7 +50815,7 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1145" t="inlineStr"/>
@@ -50718,7 +51110,7 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1152" t="inlineStr"/>
@@ -50849,7 +51241,7 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M1155" t="inlineStr"/>
@@ -51019,7 +51411,11 @@
           <t>WA0RK0075</t>
         </is>
       </c>
-      <c r="L1159" t="inlineStr"/>
+      <c r="L1159" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1159" t="inlineStr"/>
     </row>
     <row r="1160">
@@ -51062,7 +51458,7 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1160" t="inlineStr"/>
@@ -51150,7 +51546,11 @@
           <t>WA0RK0744</t>
         </is>
       </c>
-      <c r="L1162" t="inlineStr"/>
+      <c r="L1162" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1162" t="inlineStr"/>
     </row>
     <row r="1163">
@@ -51193,7 +51593,7 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1163" t="inlineStr"/>
@@ -51238,7 +51638,7 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1164" t="inlineStr"/>
@@ -51283,7 +51683,7 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="M1165" t="inlineStr"/>
@@ -51328,7 +51728,7 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1166" t="inlineStr"/>
@@ -51416,7 +51816,11 @@
           <t>WA0RK0746</t>
         </is>
       </c>
-      <c r="L1168" t="inlineStr"/>
+      <c r="L1168" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1168" t="inlineStr"/>
     </row>
     <row r="1169">
@@ -51459,7 +51863,7 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1169" t="inlineStr"/>
@@ -51547,7 +51951,11 @@
           <t>WA0RK0748</t>
         </is>
       </c>
-      <c r="L1171" t="inlineStr"/>
+      <c r="L1171" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1171" t="inlineStr"/>
     </row>
     <row r="1172">
@@ -51590,7 +51998,7 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1172" t="inlineStr"/>
@@ -51635,7 +52043,7 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1173" t="inlineStr"/>
@@ -51725,7 +52133,7 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1175" t="inlineStr"/>
@@ -51901,7 +52309,7 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1179" t="inlineStr"/>
@@ -51946,7 +52354,7 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M1180" t="inlineStr"/>
@@ -52442,7 +52850,7 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1192" t="inlineStr"/>
@@ -52569,7 +52977,7 @@
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1195" t="inlineStr"/>
@@ -52614,7 +53022,7 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1196" t="inlineStr"/>
@@ -52659,7 +53067,7 @@
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1197" t="inlineStr"/>
@@ -52704,7 +53112,7 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1198" t="inlineStr"/>
@@ -52794,7 +53202,7 @@
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1200" t="inlineStr"/>
@@ -52839,7 +53247,7 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1201" t="inlineStr"/>
@@ -52927,7 +53335,11 @@
           <t>WA0RK0079</t>
         </is>
       </c>
-      <c r="L1203" t="inlineStr"/>
+      <c r="L1203" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1203" t="inlineStr"/>
     </row>
     <row r="1204">
@@ -53015,7 +53427,7 @@
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1205" t="inlineStr"/>
@@ -53060,7 +53472,7 @@
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1206" t="inlineStr"/>
@@ -53236,7 +53648,7 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1210" t="inlineStr"/>
@@ -53279,7 +53691,11 @@
           <t>WA0RK0081</t>
         </is>
       </c>
-      <c r="L1211" t="inlineStr"/>
+      <c r="L1211" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1211" t="inlineStr"/>
     </row>
     <row r="1212">
@@ -53367,7 +53783,7 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1213" t="inlineStr"/>
@@ -53457,7 +53873,7 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M1215" t="inlineStr"/>
@@ -53502,7 +53918,7 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1216" t="inlineStr"/>
@@ -53545,7 +53961,11 @@
           <t>WA0RK0082</t>
         </is>
       </c>
-      <c r="L1217" t="inlineStr"/>
+      <c r="L1217" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1217" t="inlineStr"/>
     </row>
     <row r="1218">
@@ -53629,7 +54049,7 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1219" t="inlineStr"/>
@@ -53719,7 +54139,7 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1221" t="inlineStr"/>
@@ -53809,7 +54229,7 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1223" t="inlineStr"/>
@@ -54030,7 +54450,7 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1228" t="inlineStr"/>
@@ -54366,7 +54786,7 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1236" t="inlineStr"/>
@@ -54501,7 +54921,7 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1239" t="inlineStr"/>
@@ -54679,7 +55099,11 @@
           <t>WA0RK0273</t>
         </is>
       </c>
-      <c r="L1243" t="inlineStr"/>
+      <c r="L1243" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1243" t="inlineStr"/>
     </row>
     <row r="1244">
@@ -54722,7 +55146,7 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1244" t="inlineStr"/>
@@ -54810,7 +55234,11 @@
           <t>WA0RK0513</t>
         </is>
       </c>
-      <c r="L1246" t="inlineStr"/>
+      <c r="L1246" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1246" t="inlineStr"/>
     </row>
     <row r="1247">
@@ -54853,7 +55281,7 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1247" t="inlineStr"/>
@@ -54941,7 +55369,11 @@
           <t>WA0RK0514</t>
         </is>
       </c>
-      <c r="L1249" t="inlineStr"/>
+      <c r="L1249" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1249" t="inlineStr"/>
     </row>
     <row r="1250">
@@ -54984,7 +55416,7 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1250" t="inlineStr"/>
@@ -55072,7 +55504,11 @@
           <t>WA0RK0512</t>
         </is>
       </c>
-      <c r="L1252" t="inlineStr"/>
+      <c r="L1252" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1252" t="inlineStr"/>
     </row>
     <row r="1253">
@@ -55115,7 +55551,7 @@
       </c>
       <c r="L1253" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1253" t="inlineStr"/>
@@ -55203,7 +55639,11 @@
           <t>WA0RK0517</t>
         </is>
       </c>
-      <c r="L1255" t="inlineStr"/>
+      <c r="L1255" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1255" t="inlineStr"/>
     </row>
     <row r="1256">
@@ -55246,7 +55686,7 @@
       </c>
       <c r="L1256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1256" t="inlineStr"/>
@@ -55334,7 +55774,11 @@
           <t>WA0RK0564</t>
         </is>
       </c>
-      <c r="L1258" t="inlineStr"/>
+      <c r="L1258" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1258" t="inlineStr"/>
     </row>
     <row r="1259">
@@ -55377,7 +55821,7 @@
       </c>
       <c r="L1259" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1259" t="inlineStr"/>
@@ -55465,7 +55909,11 @@
           <t>WA0RK0086</t>
         </is>
       </c>
-      <c r="L1261" t="inlineStr"/>
+      <c r="L1261" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1261" t="inlineStr"/>
     </row>
     <row r="1262">
@@ -55508,7 +55956,7 @@
       </c>
       <c r="L1262" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1262" t="inlineStr"/>
@@ -55598,7 +56046,7 @@
       </c>
       <c r="L1264" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1264" t="inlineStr"/>
@@ -55643,7 +56091,7 @@
       </c>
       <c r="L1265" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1265" t="inlineStr"/>
@@ -55731,7 +56179,11 @@
           <t>WA0RK0516</t>
         </is>
       </c>
-      <c r="L1267" t="inlineStr"/>
+      <c r="L1267" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1267" t="inlineStr"/>
     </row>
     <row r="1268">
@@ -55774,7 +56226,7 @@
       </c>
       <c r="L1268" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1268" t="inlineStr"/>
@@ -55862,7 +56314,11 @@
           <t>WA0RK0540</t>
         </is>
       </c>
-      <c r="L1270" t="inlineStr"/>
+      <c r="L1270" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1270" t="inlineStr"/>
     </row>
     <row r="1271">
@@ -55905,7 +56361,7 @@
       </c>
       <c r="L1271" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1271" t="inlineStr"/>
@@ -55995,7 +56451,7 @@
       </c>
       <c r="L1273" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1273" t="inlineStr"/>
@@ -56083,7 +56539,11 @@
           <t>WA0RK0638</t>
         </is>
       </c>
-      <c r="L1275" t="inlineStr"/>
+      <c r="L1275" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1275" t="inlineStr"/>
     </row>
     <row r="1276">
@@ -56126,7 +56586,7 @@
       </c>
       <c r="L1276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1276" t="inlineStr"/>
@@ -56298,7 +56758,7 @@
       </c>
       <c r="L1280" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1280" t="inlineStr"/>
@@ -56341,7 +56801,11 @@
           <t>WA0RK0522</t>
         </is>
       </c>
-      <c r="L1281" t="inlineStr"/>
+      <c r="L1281" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1281" t="inlineStr"/>
     </row>
     <row r="1282">
@@ -56384,7 +56848,7 @@
       </c>
       <c r="L1282" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1282" t="inlineStr"/>
@@ -56472,7 +56936,11 @@
           <t>WA0RK0528</t>
         </is>
       </c>
-      <c r="L1284" t="inlineStr"/>
+      <c r="L1284" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1284" t="inlineStr"/>
     </row>
     <row r="1285">
@@ -56515,7 +56983,7 @@
       </c>
       <c r="L1285" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1285" t="inlineStr"/>
@@ -56605,7 +57073,7 @@
       </c>
       <c r="L1287" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1287" t="inlineStr"/>
@@ -56945,7 +57413,7 @@
       </c>
       <c r="L1295" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1295" t="inlineStr"/>
@@ -56990,7 +57458,7 @@
       </c>
       <c r="L1296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1296" t="inlineStr"/>
@@ -57121,7 +57589,7 @@
       </c>
       <c r="L1299" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1299" t="inlineStr"/>
@@ -57369,7 +57837,11 @@
           <t>WA0RK0693</t>
         </is>
       </c>
-      <c r="L1305" t="inlineStr"/>
+      <c r="L1305" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1305" t="inlineStr"/>
     </row>
     <row r="1306">
@@ -57412,7 +57884,7 @@
       </c>
       <c r="L1306" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1306" t="inlineStr"/>
@@ -57457,7 +57929,7 @@
       </c>
       <c r="L1307" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1307" t="inlineStr"/>
@@ -57502,7 +57974,7 @@
       </c>
       <c r="L1308" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1308" t="inlineStr"/>
@@ -57545,7 +58017,11 @@
           <t>WA0RK0719</t>
         </is>
       </c>
-      <c r="L1309" t="inlineStr"/>
+      <c r="L1309" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1309" t="inlineStr"/>
     </row>
     <row r="1310">
@@ -57588,7 +58064,7 @@
       </c>
       <c r="L1310" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1310" t="inlineStr"/>
@@ -57674,7 +58150,7 @@
       </c>
       <c r="L1312" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M1312" t="inlineStr"/>
@@ -57793,7 +58269,7 @@
       </c>
       <c r="L1315" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1315" t="inlineStr"/>
@@ -57838,7 +58314,7 @@
       </c>
       <c r="L1316" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1316" t="inlineStr"/>
@@ -57881,7 +58357,11 @@
           <t>WA0RK0608</t>
         </is>
       </c>
-      <c r="L1317" t="inlineStr"/>
+      <c r="L1317" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1317" t="inlineStr"/>
     </row>
     <row r="1318">
@@ -57924,7 +58404,7 @@
       </c>
       <c r="L1318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1318" t="inlineStr"/>
@@ -57969,7 +58449,7 @@
       </c>
       <c r="L1319" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1319" t="inlineStr"/>
@@ -58014,7 +58494,7 @@
       </c>
       <c r="L1320" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1320" t="inlineStr"/>
@@ -58149,7 +58629,7 @@
       </c>
       <c r="L1323" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1323" t="inlineStr"/>
@@ -58194,7 +58674,7 @@
       </c>
       <c r="L1324" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1324" t="inlineStr"/>
@@ -58239,7 +58719,7 @@
       </c>
       <c r="L1325" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1325" t="inlineStr"/>
@@ -58282,7 +58762,11 @@
           <t>WA0RK0606</t>
         </is>
       </c>
-      <c r="L1326" t="inlineStr"/>
+      <c r="L1326" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1326" t="inlineStr"/>
     </row>
     <row r="1327">
@@ -58325,7 +58809,7 @@
       </c>
       <c r="L1327" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1327" t="inlineStr"/>
@@ -58368,7 +58852,11 @@
           <t>WA0RK0627</t>
         </is>
       </c>
-      <c r="L1328" t="inlineStr"/>
+      <c r="L1328" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1328" t="inlineStr"/>
     </row>
     <row r="1329">
@@ -58411,7 +58899,7 @@
       </c>
       <c r="L1329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1329" t="inlineStr"/>
@@ -58454,7 +58942,11 @@
           <t>WA0RK0603</t>
         </is>
       </c>
-      <c r="L1330" t="inlineStr"/>
+      <c r="L1330" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1330" t="inlineStr"/>
     </row>
     <row r="1331">
@@ -58497,7 +58989,7 @@
       </c>
       <c r="L1331" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1331" t="inlineStr"/>
@@ -58540,7 +59032,11 @@
           <t>WA0RK0602</t>
         </is>
       </c>
-      <c r="L1332" t="inlineStr"/>
+      <c r="L1332" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1332" t="inlineStr"/>
     </row>
     <row r="1333">
@@ -58583,7 +59079,7 @@
       </c>
       <c r="L1333" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1333" t="inlineStr"/>
@@ -58626,7 +59122,11 @@
           <t>WA0RK0604</t>
         </is>
       </c>
-      <c r="L1334" t="inlineStr"/>
+      <c r="L1334" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1334" t="inlineStr"/>
     </row>
     <row r="1335">
@@ -58669,7 +59169,7 @@
       </c>
       <c r="L1335" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1335" t="inlineStr"/>
@@ -58714,7 +59214,7 @@
       </c>
       <c r="L1336" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1336" t="inlineStr"/>
@@ -58759,7 +59259,7 @@
       </c>
       <c r="L1337" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1337" t="inlineStr"/>
@@ -58849,7 +59349,7 @@
       </c>
       <c r="L1339" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1339" t="inlineStr"/>
@@ -58937,7 +59437,11 @@
           <t>WA0RK0093</t>
         </is>
       </c>
-      <c r="L1341" t="inlineStr"/>
+      <c r="L1341" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1341" t="inlineStr"/>
     </row>
     <row r="1342">
@@ -58980,7 +59484,7 @@
       </c>
       <c r="L1342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1342" t="inlineStr"/>
@@ -59025,7 +59529,7 @@
       </c>
       <c r="L1343" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M1343" t="inlineStr"/>
@@ -59115,7 +59619,7 @@
       </c>
       <c r="L1345" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1345" t="inlineStr"/>
@@ -59205,7 +59709,7 @@
       </c>
       <c r="L1347" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="M1347" t="inlineStr"/>
@@ -59250,7 +59754,7 @@
       </c>
       <c r="L1348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1348" t="inlineStr"/>
@@ -59295,7 +59799,7 @@
       </c>
       <c r="L1349" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1349" t="inlineStr"/>
@@ -59340,7 +59844,7 @@
       </c>
       <c r="L1350" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1350" t="inlineStr"/>
@@ -59385,7 +59889,7 @@
       </c>
       <c r="L1351" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M1351" t="inlineStr"/>
@@ -59555,7 +60059,11 @@
           <t>WA0RK0744</t>
         </is>
       </c>
-      <c r="L1355" t="inlineStr"/>
+      <c r="L1355" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1355" t="inlineStr"/>
     </row>
     <row r="1356">
@@ -59598,7 +60106,7 @@
       </c>
       <c r="L1356" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1356" t="inlineStr"/>
@@ -59686,7 +60194,11 @@
           <t>WA0RK0095</t>
         </is>
       </c>
-      <c r="L1358" t="inlineStr"/>
+      <c r="L1358" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1358" t="inlineStr"/>
     </row>
     <row r="1359">
@@ -59774,7 +60286,7 @@
       </c>
       <c r="L1360" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1360" t="inlineStr"/>
@@ -59862,7 +60374,11 @@
           <t>WA0RK0748</t>
         </is>
       </c>
-      <c r="L1362" t="inlineStr"/>
+      <c r="L1362" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1362" t="inlineStr"/>
     </row>
     <row r="1363">
@@ -59905,7 +60421,7 @@
       </c>
       <c r="L1363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1363" t="inlineStr"/>
@@ -59993,7 +60509,11 @@
           <t>WA0RK0746</t>
         </is>
       </c>
-      <c r="L1365" t="inlineStr"/>
+      <c r="L1365" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1365" t="inlineStr"/>
     </row>
     <row r="1366">
@@ -60036,7 +60556,7 @@
       </c>
       <c r="L1366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1366" t="inlineStr"/>
@@ -60169,7 +60689,11 @@
           <t>WA0RK0600</t>
         </is>
       </c>
-      <c r="L1369" t="inlineStr"/>
+      <c r="L1369" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1369" t="inlineStr"/>
     </row>
     <row r="1370">
@@ -60212,7 +60736,7 @@
       </c>
       <c r="L1370" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1370" t="inlineStr"/>
@@ -60302,7 +60826,7 @@
       </c>
       <c r="L1372" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1372" t="inlineStr"/>
@@ -60347,7 +60871,7 @@
       </c>
       <c r="L1373" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="M1373" t="inlineStr"/>
@@ -60433,7 +60957,7 @@
       </c>
       <c r="L1375" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1375" t="inlineStr"/>
@@ -60478,7 +61002,7 @@
       </c>
       <c r="L1376" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1376" t="inlineStr"/>
@@ -60523,7 +61047,7 @@
       </c>
       <c r="L1377" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1377" t="inlineStr"/>
@@ -60613,7 +61137,7 @@
       </c>
       <c r="L1379" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1379" t="inlineStr"/>
@@ -60658,7 +61182,7 @@
       </c>
       <c r="L1380" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M1380" t="inlineStr"/>
@@ -60787,7 +61311,11 @@
           <t>WA0RK0313</t>
         </is>
       </c>
-      <c r="L1383" t="inlineStr"/>
+      <c r="L1383" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1383" t="inlineStr"/>
     </row>
     <row r="1384">
@@ -60830,7 +61358,7 @@
       </c>
       <c r="L1384" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1384" t="inlineStr"/>
@@ -60920,7 +61448,7 @@
       </c>
       <c r="L1386" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1386" t="inlineStr"/>
@@ -60965,7 +61493,7 @@
       </c>
       <c r="L1387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1387" t="inlineStr"/>
@@ -61053,7 +61581,11 @@
           <t>WA0RK0609</t>
         </is>
       </c>
-      <c r="L1389" t="inlineStr"/>
+      <c r="L1389" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1389" t="inlineStr"/>
     </row>
     <row r="1390">
@@ -61096,7 +61628,7 @@
       </c>
       <c r="L1390" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1390" t="inlineStr"/>
@@ -61141,7 +61673,7 @@
       </c>
       <c r="L1391" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1391" t="inlineStr"/>
@@ -61186,7 +61718,7 @@
       </c>
       <c r="L1392" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1392" t="inlineStr"/>
@@ -61231,7 +61763,7 @@
       </c>
       <c r="L1393" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M1393" t="inlineStr"/>
@@ -61276,7 +61808,7 @@
       </c>
       <c r="L1394" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1394" t="inlineStr"/>
@@ -61321,7 +61853,7 @@
       </c>
       <c r="L1395" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="M1395" t="inlineStr"/>
@@ -61452,7 +61984,7 @@
       </c>
       <c r="L1398" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1398" t="inlineStr"/>
@@ -61497,7 +62029,7 @@
       </c>
       <c r="L1399" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1399" t="inlineStr"/>
@@ -61632,7 +62164,7 @@
       </c>
       <c r="L1402" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1402" t="inlineStr"/>
@@ -61759,7 +62291,7 @@
       </c>
       <c r="L1405" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="M1405" t="inlineStr"/>
@@ -61804,7 +62336,7 @@
       </c>
       <c r="L1406" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="M1406" t="inlineStr"/>
@@ -61849,7 +62381,7 @@
       </c>
       <c r="L1407" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1407" t="inlineStr"/>
@@ -61937,7 +62469,11 @@
           <t>WA0RK0565</t>
         </is>
       </c>
-      <c r="L1409" t="inlineStr"/>
+      <c r="L1409" t="inlineStr">
+        <is>
+          <t>{'eft:danasila'}</t>
+        </is>
+      </c>
       <c r="M1409" t="inlineStr"/>
     </row>
     <row r="1410">
@@ -61980,7 +62516,7 @@
       </c>
       <c r="L1410" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1410" t="inlineStr"/>
@@ -62111,7 +62647,7 @@
       </c>
       <c r="L1413" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1413" t="inlineStr"/>
@@ -62156,7 +62692,7 @@
       </c>
       <c r="L1414" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="M1414" t="inlineStr"/>

--- a/WD_BDRC_data.xlsx
+++ b/WD_BDRC_data.xlsx
@@ -599,7 +599,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -737,7 +737,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -7991,7 +7991,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -10133,7 +10133,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -11083,7 +11083,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -12625,7 +12625,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
@@ -12725,7 +12725,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -13125,7 +13125,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -13459,7 +13459,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -13509,7 +13509,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -13659,7 +13659,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -13759,7 +13759,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -13909,7 +13909,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -14055,7 +14055,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
@@ -14105,7 +14105,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -14447,7 +14447,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -14497,7 +14497,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -15049,7 +15049,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
@@ -15149,7 +15149,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -15349,7 +15349,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -15399,7 +15399,7 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
@@ -15449,7 +15449,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -15499,7 +15499,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
@@ -15599,7 +15599,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
@@ -15783,7 +15783,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
@@ -15833,7 +15833,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
@@ -16133,7 +16133,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
@@ -16383,7 +16383,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
@@ -16433,7 +16433,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
@@ -16533,7 +16533,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -16633,7 +16633,7 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
@@ -16933,7 +16933,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
@@ -17233,7 +17233,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
@@ -17333,7 +17333,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
@@ -17483,7 +17483,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
@@ -17533,7 +17533,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
@@ -17983,7 +17983,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
@@ -18083,7 +18083,7 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
@@ -18133,7 +18133,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
@@ -18233,7 +18233,7 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
@@ -18283,7 +18283,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
@@ -18333,7 +18333,7 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
@@ -18433,7 +18433,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
@@ -18533,7 +18533,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
@@ -18583,7 +18583,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
@@ -18683,7 +18683,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
@@ -18917,7 +18917,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
@@ -18967,7 +18967,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
@@ -19067,7 +19067,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
@@ -19409,7 +19409,7 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
@@ -19509,7 +19509,7 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
@@ -19559,7 +19559,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
@@ -19801,7 +19801,7 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
@@ -19851,7 +19851,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
@@ -19951,7 +19951,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
@@ -20051,7 +20051,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
@@ -20201,7 +20201,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
@@ -20335,7 +20335,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
@@ -20385,7 +20385,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
@@ -20435,7 +20435,7 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
@@ -20485,7 +20485,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
@@ -20535,7 +20535,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
@@ -20585,7 +20585,7 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
@@ -20635,7 +20635,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
@@ -20735,7 +20735,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
@@ -20835,7 +20835,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">
@@ -20985,7 +20985,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
@@ -21035,7 +21035,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M417" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
@@ -21135,7 +21135,7 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M419" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M420" t="inlineStr">
@@ -21235,7 +21235,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
@@ -21285,7 +21285,7 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M422" t="inlineStr">
@@ -21335,7 +21335,7 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
@@ -21385,7 +21385,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
@@ -21435,7 +21435,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
@@ -21485,7 +21485,7 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
@@ -21535,7 +21535,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M427" t="inlineStr">
@@ -21585,7 +21585,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M428" t="inlineStr">
@@ -21635,7 +21635,7 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
@@ -21685,7 +21685,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
@@ -21735,7 +21735,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
@@ -21785,7 +21785,7 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
@@ -21835,7 +21835,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
@@ -21885,7 +21885,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
@@ -21935,7 +21935,7 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M435" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
@@ -22227,7 +22227,7 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
@@ -22369,7 +22369,7 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M444" t="inlineStr">
@@ -22653,7 +22653,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M450" t="inlineStr">
@@ -22803,7 +22803,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M453" t="inlineStr">
@@ -22903,7 +22903,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
@@ -23087,7 +23087,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M460" t="inlineStr">
@@ -23187,7 +23187,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M461" t="inlineStr">
@@ -23237,7 +23237,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M462" t="inlineStr">
@@ -23471,7 +23471,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M467" t="inlineStr">
@@ -23521,7 +23521,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M468" t="inlineStr">
@@ -23663,7 +23663,7 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M471" t="inlineStr">
@@ -23805,7 +23805,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M474" t="inlineStr">
@@ -23989,7 +23989,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M478" t="inlineStr">
@@ -24139,7 +24139,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M489" t="inlineStr">
@@ -24619,7 +24619,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M491" t="inlineStr">
@@ -24669,7 +24669,7 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M492" t="inlineStr">
@@ -24719,7 +24719,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
@@ -24911,7 +24911,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M497" t="inlineStr">
@@ -25541,7 +25541,7 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M510" t="inlineStr">
@@ -26623,7 +26623,7 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M535" t="inlineStr">
@@ -30179,7 +30179,7 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M611" t="inlineStr">
@@ -30229,7 +30229,7 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M612" t="inlineStr">
@@ -34917,7 +34917,7 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M714" t="inlineStr">
@@ -35017,7 +35017,7 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M716" t="inlineStr">
@@ -35247,7 +35247,7 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M721" t="inlineStr">
@@ -35851,7 +35851,7 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M735" t="inlineStr">
@@ -36425,7 +36425,7 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M748" t="inlineStr">
@@ -36739,7 +36739,7 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M755" t="inlineStr">
@@ -36839,7 +36839,7 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M757" t="inlineStr">
@@ -36889,7 +36889,7 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M758" t="inlineStr">
@@ -37077,7 +37077,7 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M762" t="inlineStr">
@@ -38683,7 +38683,7 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M799" t="inlineStr">
@@ -38783,7 +38783,7 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M801" t="inlineStr">
@@ -39127,7 +39127,7 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M809" t="inlineStr">
@@ -39177,7 +39177,7 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M810" t="inlineStr">
@@ -39437,7 +39437,7 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M816" t="inlineStr">
@@ -39487,7 +39487,7 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M817" t="inlineStr">
@@ -39537,7 +39537,7 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M818" t="inlineStr">
@@ -39587,7 +39587,7 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M819" t="inlineStr">
@@ -39737,7 +39737,7 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M822" t="inlineStr">
@@ -39987,7 +39987,7 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M827" t="inlineStr">
@@ -40037,7 +40037,7 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M828" t="inlineStr">
@@ -40129,7 +40129,7 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M830" t="inlineStr">
@@ -40229,7 +40229,7 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M832" t="inlineStr">
@@ -40405,7 +40405,7 @@
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M836" t="inlineStr">
@@ -40605,7 +40605,7 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M840" t="inlineStr">
@@ -40705,7 +40705,7 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M842" t="inlineStr">
@@ -40755,7 +40755,7 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M843" t="inlineStr">
@@ -40805,7 +40805,7 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M844" t="inlineStr">
@@ -40905,7 +40905,7 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M846" t="inlineStr">
@@ -40955,7 +40955,7 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M847" t="inlineStr">
@@ -41055,7 +41055,7 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M849" t="inlineStr">
@@ -41105,7 +41105,7 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M850" t="inlineStr">
@@ -41297,7 +41297,7 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M854" t="inlineStr">
@@ -41347,7 +41347,7 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M855" t="inlineStr">
@@ -41489,7 +41489,7 @@
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M858" t="inlineStr">
@@ -41539,7 +41539,7 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M859" t="inlineStr">
@@ -41631,7 +41631,7 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M861" t="inlineStr">
@@ -41731,7 +41731,7 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M863" t="inlineStr">
@@ -41781,7 +41781,7 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M864" t="inlineStr">
@@ -41881,7 +41881,7 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M866" t="inlineStr">
@@ -41931,7 +41931,7 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M867" t="inlineStr">
@@ -42031,7 +42031,7 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M869" t="inlineStr">
@@ -42081,7 +42081,7 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M870" t="inlineStr">
@@ -42181,7 +42181,7 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M872" t="inlineStr">
@@ -42231,7 +42231,7 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M873" t="inlineStr">
@@ -42331,7 +42331,7 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M875" t="inlineStr">
@@ -42381,7 +42381,7 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M876" t="inlineStr">
@@ -42481,7 +42481,7 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M878" t="inlineStr">
@@ -42531,7 +42531,7 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M879" t="inlineStr">
@@ -42631,7 +42631,7 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M881" t="inlineStr">
@@ -42681,7 +42681,7 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M882" t="inlineStr">
@@ -42781,7 +42781,7 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M884" t="inlineStr">
@@ -42831,7 +42831,7 @@
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M885" t="inlineStr">
@@ -42931,7 +42931,7 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M887" t="inlineStr">
@@ -42981,7 +42981,7 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M888" t="inlineStr">
@@ -43081,7 +43081,7 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M890" t="inlineStr">
@@ -43131,7 +43131,7 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M891" t="inlineStr">
@@ -43231,7 +43231,7 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M893" t="inlineStr">
@@ -43449,7 +43449,7 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M898" t="inlineStr">
@@ -43549,7 +43549,7 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M900" t="inlineStr">
@@ -43599,7 +43599,7 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M901" t="inlineStr">
@@ -43699,7 +43699,7 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M903" t="inlineStr">
@@ -43841,7 +43841,7 @@
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M906" t="inlineStr">
@@ -44167,7 +44167,7 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M913" t="inlineStr">
@@ -44217,7 +44217,7 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M914" t="inlineStr">
@@ -44267,7 +44267,7 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M915" t="inlineStr">
@@ -44317,7 +44317,7 @@
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M916" t="inlineStr">
@@ -44367,7 +44367,7 @@
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M917" t="inlineStr">
@@ -44467,7 +44467,7 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M919" t="inlineStr">
@@ -44559,7 +44559,7 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M921" t="inlineStr">
@@ -44609,7 +44609,7 @@
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M922" t="inlineStr">
@@ -44709,7 +44709,7 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M924" t="inlineStr">
@@ -44809,7 +44809,7 @@
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M926" t="inlineStr">
@@ -44909,7 +44909,7 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M928" t="inlineStr">
@@ -45009,7 +45009,7 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M930" t="inlineStr">
@@ -45101,7 +45101,7 @@
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M932" t="inlineStr">
@@ -45151,7 +45151,7 @@
       </c>
       <c r="L933" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M933" t="inlineStr">
@@ -45251,7 +45251,7 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M935" t="inlineStr">
@@ -45343,7 +45343,7 @@
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M937" t="inlineStr">
@@ -45393,7 +45393,7 @@
       </c>
       <c r="L938" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M938" t="inlineStr">
@@ -45493,7 +45493,7 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M940" t="inlineStr">
@@ -45627,7 +45627,7 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M943" t="inlineStr">
@@ -45727,7 +45727,7 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M945" t="inlineStr">
@@ -45777,7 +45777,7 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M946" t="inlineStr">
@@ -45877,7 +45877,7 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M948" t="inlineStr">
@@ -45927,7 +45927,7 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M949" t="inlineStr">
@@ -46027,7 +46027,7 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M951" t="inlineStr">
@@ -46077,7 +46077,7 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M952" t="inlineStr">
@@ -46127,7 +46127,7 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M953" t="inlineStr">
@@ -46177,7 +46177,7 @@
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M954" t="inlineStr">
@@ -46227,7 +46227,7 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M955" t="inlineStr">
@@ -46277,7 +46277,7 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M956" t="inlineStr">
@@ -46495,7 +46495,7 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M961" t="inlineStr">
@@ -46595,7 +46595,7 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M963" t="inlineStr">
@@ -46729,7 +46729,7 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M966" t="inlineStr">
@@ -46779,7 +46779,7 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M967" t="inlineStr">
@@ -46829,7 +46829,7 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M968" t="inlineStr">
@@ -47021,7 +47021,7 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M972" t="inlineStr">
@@ -47071,7 +47071,7 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M973" t="inlineStr">
@@ -47171,7 +47171,7 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M975" t="inlineStr">
@@ -47221,7 +47221,7 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M976" t="inlineStr">
@@ -47321,7 +47321,7 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M978" t="inlineStr">
@@ -47421,7 +47421,7 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M980" t="inlineStr">
@@ -47471,7 +47471,7 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M981" t="inlineStr">
@@ -47571,7 +47571,7 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M983" t="inlineStr">
@@ -47621,7 +47621,7 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M984" t="inlineStr">
@@ -47721,7 +47721,7 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M986" t="inlineStr">
@@ -47771,7 +47771,7 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M987" t="inlineStr">
@@ -47871,7 +47871,7 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M989" t="inlineStr">
@@ -47921,7 +47921,7 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M990" t="inlineStr">
@@ -48021,7 +48021,7 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M992" t="inlineStr">
@@ -48071,7 +48071,7 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M993" t="inlineStr">
@@ -48171,7 +48171,7 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M995" t="inlineStr">
@@ -48271,7 +48271,7 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M997" t="inlineStr">
@@ -48321,7 +48321,7 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M998" t="inlineStr">
@@ -48371,7 +48371,7 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M999" t="inlineStr">
@@ -48471,7 +48471,7 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1001" t="inlineStr">
@@ -48521,7 +48521,7 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1002" t="inlineStr">
@@ -48621,7 +48621,7 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M1004" t="inlineStr">
@@ -48671,7 +48671,7 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1005" t="inlineStr">
@@ -48721,7 +48721,7 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1006" t="inlineStr">
@@ -48821,7 +48821,7 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1008" t="inlineStr">
@@ -48871,7 +48871,7 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1009" t="inlineStr">
@@ -48971,7 +48971,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr">
@@ -49071,7 +49071,7 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1013" t="inlineStr">
@@ -49171,7 +49171,7 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1015" t="inlineStr">
@@ -49305,7 +49305,7 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1018" t="inlineStr">
@@ -49405,7 +49405,7 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1020" t="inlineStr">
@@ -49539,7 +49539,7 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1023" t="inlineStr">
@@ -49639,7 +49639,7 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1025" t="inlineStr">
@@ -49689,7 +49689,7 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1026" t="inlineStr">
@@ -49739,7 +49739,7 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1027" t="inlineStr">
@@ -49789,7 +49789,7 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1028" t="inlineStr">
@@ -49839,7 +49839,7 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1029" t="inlineStr">
@@ -50031,7 +50031,7 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1033" t="inlineStr">
@@ -50081,7 +50081,7 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1034" t="inlineStr">
@@ -50131,7 +50131,7 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1035" t="inlineStr">
@@ -50231,7 +50231,7 @@
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1037" t="inlineStr">
@@ -50281,7 +50281,7 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1038" t="inlineStr">
@@ -50331,7 +50331,7 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1039" t="inlineStr">
@@ -50381,7 +50381,7 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1040" t="inlineStr">
@@ -50431,7 +50431,7 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1041" t="inlineStr">
@@ -50481,7 +50481,7 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1042" t="inlineStr">
@@ -50531,7 +50531,7 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1043" t="inlineStr">
@@ -50581,7 +50581,7 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1044" t="inlineStr">
@@ -50631,7 +50631,7 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1045" t="inlineStr">
@@ -50731,7 +50731,7 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1047" t="inlineStr">
@@ -50781,7 +50781,7 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1048" t="inlineStr">
@@ -50881,7 +50881,7 @@
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1050" t="inlineStr">
@@ -50931,7 +50931,7 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1051" t="inlineStr">
@@ -51027,7 +51027,7 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M1053" t="inlineStr">
@@ -51161,7 +51161,7 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1056" t="inlineStr">
@@ -51211,7 +51211,7 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1057" t="inlineStr">
@@ -51261,7 +51261,7 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1058" t="inlineStr">
@@ -51361,7 +51361,7 @@
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1060" t="inlineStr">
@@ -51411,7 +51411,7 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1061" t="inlineStr">
@@ -51553,7 +51553,7 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1064" t="inlineStr">
@@ -51603,7 +51603,7 @@
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1065" t="inlineStr">
@@ -51703,7 +51703,7 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1067" t="inlineStr">
@@ -52467,7 +52467,7 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1085" t="inlineStr">
@@ -52567,7 +52567,7 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1087" t="inlineStr">
@@ -52701,7 +52701,7 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1090" t="inlineStr">
@@ -52751,7 +52751,7 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1091" t="inlineStr">
@@ -52843,7 +52843,7 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1093" t="inlineStr">
@@ -52943,7 +52943,7 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1095" t="inlineStr">
@@ -53043,7 +53043,7 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1097" t="inlineStr">
@@ -53093,7 +53093,7 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1098" t="inlineStr">
@@ -53597,7 +53597,7 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1110" t="inlineStr">
@@ -53647,7 +53647,7 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1111" t="inlineStr">
@@ -53697,7 +53697,7 @@
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1112" t="inlineStr">
@@ -53747,7 +53747,7 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1113" t="inlineStr">
@@ -53797,7 +53797,7 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1114" t="inlineStr">
@@ -53897,7 +53897,7 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1116" t="inlineStr">
@@ -54231,7 +54231,7 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1123" t="inlineStr">
@@ -54331,7 +54331,7 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1125" t="inlineStr">
@@ -54381,7 +54381,7 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1126" t="inlineStr">
@@ -54431,7 +54431,7 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1127" t="inlineStr">
@@ -54615,7 +54615,7 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1131" t="inlineStr">
@@ -54715,7 +54715,7 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1133" t="inlineStr">
@@ -54849,7 +54849,7 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1136" t="inlineStr">
@@ -54949,7 +54949,7 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1138" t="inlineStr">
@@ -54999,7 +54999,7 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1139" t="inlineStr">
@@ -55099,7 +55099,7 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1141" t="inlineStr">
@@ -55149,7 +55149,7 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1142" t="inlineStr">
@@ -55199,7 +55199,7 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1143" t="inlineStr">
@@ -55249,7 +55249,7 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1144" t="inlineStr">
@@ -55299,7 +55299,7 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1145" t="inlineStr">
@@ -55609,7 +55609,7 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1152" t="inlineStr">
@@ -55751,7 +55751,7 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M1155" t="inlineStr">
@@ -55885,7 +55885,7 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1158" t="inlineStr">
@@ -55985,7 +55985,7 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1160" t="inlineStr">
@@ -56035,7 +56035,7 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1161" t="inlineStr">
@@ -56135,7 +56135,7 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1163" t="inlineStr">
@@ -56185,7 +56185,7 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1164" t="inlineStr">
@@ -56235,7 +56235,7 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M1165" t="inlineStr">
@@ -56285,7 +56285,7 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1166" t="inlineStr">
@@ -56335,7 +56335,7 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1167" t="inlineStr">
@@ -56435,7 +56435,7 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1169" t="inlineStr">
@@ -56485,7 +56485,7 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1170" t="inlineStr">
@@ -56585,7 +56585,7 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1172" t="inlineStr">
@@ -56635,7 +56635,7 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1173" t="inlineStr">
@@ -56685,7 +56685,7 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1174" t="inlineStr">
@@ -56735,7 +56735,7 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1175" t="inlineStr">
@@ -56827,7 +56827,7 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1177" t="inlineStr">
@@ -56927,7 +56927,7 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1179" t="inlineStr">
@@ -56977,7 +56977,7 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M1180" t="inlineStr">
@@ -57397,7 +57397,7 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1190" t="inlineStr">
@@ -57497,7 +57497,7 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1192" t="inlineStr">
@@ -57631,7 +57631,7 @@
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1195" t="inlineStr">
@@ -57681,7 +57681,7 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1196" t="inlineStr">
@@ -57731,7 +57731,7 @@
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1197" t="inlineStr">
@@ -57781,7 +57781,7 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1198" t="inlineStr">
@@ -57831,7 +57831,7 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1199" t="inlineStr">
@@ -57881,7 +57881,7 @@
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1200" t="inlineStr">
@@ -57931,7 +57931,7 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1201" t="inlineStr">
@@ -57981,7 +57981,7 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1202" t="inlineStr">
@@ -58081,7 +58081,7 @@
       </c>
       <c r="L1204" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M1204" t="inlineStr">
@@ -58131,7 +58131,7 @@
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1205" t="inlineStr">
@@ -58181,7 +58181,7 @@
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1206" t="inlineStr">
@@ -58373,7 +58373,7 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1210" t="inlineStr">
@@ -58473,7 +58473,7 @@
       </c>
       <c r="L1212" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M1212" t="inlineStr">
@@ -58523,7 +58523,7 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1213" t="inlineStr">
@@ -58623,7 +58623,7 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1215" t="inlineStr">
@@ -58673,7 +58673,7 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1216" t="inlineStr">
@@ -58815,7 +58815,7 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1219" t="inlineStr">
@@ -58865,7 +58865,7 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1220" t="inlineStr">
@@ -58915,7 +58915,7 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1221" t="inlineStr">
@@ -58965,7 +58965,7 @@
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1222" t="inlineStr">
@@ -59015,7 +59015,7 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1223" t="inlineStr">
@@ -59153,7 +59153,7 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1226" t="inlineStr">
@@ -59253,7 +59253,7 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1228" t="inlineStr">
@@ -59605,7 +59605,7 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1236" t="inlineStr">
@@ -59655,7 +59655,7 @@
       </c>
       <c r="L1237" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1237" t="inlineStr">
@@ -59755,7 +59755,7 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1239" t="inlineStr">
@@ -59905,7 +59905,7 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1242" t="inlineStr">
@@ -60005,7 +60005,7 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1244" t="inlineStr">
@@ -60055,7 +60055,7 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1245" t="inlineStr">
@@ -60155,7 +60155,7 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1247" t="inlineStr">
@@ -60205,7 +60205,7 @@
       </c>
       <c r="L1248" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1248" t="inlineStr">
@@ -60305,7 +60305,7 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1250" t="inlineStr">
@@ -60355,7 +60355,7 @@
       </c>
       <c r="L1251" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1251" t="inlineStr">
@@ -60455,7 +60455,7 @@
       </c>
       <c r="L1253" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1253" t="inlineStr">
@@ -60505,7 +60505,7 @@
       </c>
       <c r="L1254" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1254" t="inlineStr">
@@ -60605,7 +60605,7 @@
       </c>
       <c r="L1256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1256" t="inlineStr">
@@ -60655,7 +60655,7 @@
       </c>
       <c r="L1257" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1257" t="inlineStr">
@@ -60755,7 +60755,7 @@
       </c>
       <c r="L1259" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1259" t="inlineStr">
@@ -60805,7 +60805,7 @@
       </c>
       <c r="L1260" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1260" t="inlineStr">
@@ -60905,7 +60905,7 @@
       </c>
       <c r="L1262" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1262" t="inlineStr">
@@ -60955,7 +60955,7 @@
       </c>
       <c r="L1263" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1263" t="inlineStr">
@@ -61005,7 +61005,7 @@
       </c>
       <c r="L1264" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1264" t="inlineStr">
@@ -61055,7 +61055,7 @@
       </c>
       <c r="L1265" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1265" t="inlineStr">
@@ -61105,7 +61105,7 @@
       </c>
       <c r="L1266" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1266" t="inlineStr">
@@ -61205,7 +61205,7 @@
       </c>
       <c r="L1268" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1268" t="inlineStr">
@@ -61255,7 +61255,7 @@
       </c>
       <c r="L1269" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1269" t="inlineStr">
@@ -61355,7 +61355,7 @@
       </c>
       <c r="L1271" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1271" t="inlineStr">
@@ -61455,7 +61455,7 @@
       </c>
       <c r="L1273" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1273" t="inlineStr">
@@ -61505,7 +61505,7 @@
       </c>
       <c r="L1274" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1274" t="inlineStr">
@@ -61605,7 +61605,7 @@
       </c>
       <c r="L1276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1276" t="inlineStr">
@@ -61789,7 +61789,7 @@
       </c>
       <c r="L1280" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1280" t="inlineStr">
@@ -61889,7 +61889,7 @@
       </c>
       <c r="L1282" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1282" t="inlineStr">
@@ -61939,7 +61939,7 @@
       </c>
       <c r="L1283" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1283" t="inlineStr">
@@ -62039,7 +62039,7 @@
       </c>
       <c r="L1285" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1285" t="inlineStr">
@@ -62139,7 +62139,7 @@
       </c>
       <c r="L1287" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1287" t="inlineStr">
@@ -62499,7 +62499,7 @@
       </c>
       <c r="L1295" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1295" t="inlineStr">
@@ -62549,7 +62549,7 @@
       </c>
       <c r="L1296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1296" t="inlineStr">
@@ -62691,7 +62691,7 @@
       </c>
       <c r="L1299" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1299" t="inlineStr">
@@ -63001,7 +63001,7 @@
       </c>
       <c r="L1306" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1306" t="inlineStr">
@@ -63051,7 +63051,7 @@
       </c>
       <c r="L1307" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1307" t="inlineStr">
@@ -63101,7 +63101,7 @@
       </c>
       <c r="L1308" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1308" t="inlineStr">
@@ -63201,7 +63201,7 @@
       </c>
       <c r="L1310" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1310" t="inlineStr">
@@ -63419,7 +63419,7 @@
       </c>
       <c r="L1315" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1315" t="inlineStr">
@@ -63469,7 +63469,7 @@
       </c>
       <c r="L1316" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1316" t="inlineStr">
@@ -63569,7 +63569,7 @@
       </c>
       <c r="L1318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1318" t="inlineStr">
@@ -63619,7 +63619,7 @@
       </c>
       <c r="L1319" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1319" t="inlineStr">
@@ -63669,7 +63669,7 @@
       </c>
       <c r="L1320" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1320" t="inlineStr">
@@ -63719,7 +63719,7 @@
       </c>
       <c r="L1321" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1321" t="inlineStr">
@@ -63819,7 +63819,7 @@
       </c>
       <c r="L1323" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1323" t="inlineStr">
@@ -63869,7 +63869,7 @@
       </c>
       <c r="L1324" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1324" t="inlineStr">
@@ -63919,7 +63919,7 @@
       </c>
       <c r="L1325" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1325" t="inlineStr">
@@ -64019,7 +64019,7 @@
       </c>
       <c r="L1327" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1327" t="inlineStr">
@@ -64119,7 +64119,7 @@
       </c>
       <c r="L1329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1329" t="inlineStr">
@@ -64219,7 +64219,7 @@
       </c>
       <c r="L1331" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1331" t="inlineStr">
@@ -64319,7 +64319,7 @@
       </c>
       <c r="L1333" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1333" t="inlineStr">
@@ -64419,7 +64419,7 @@
       </c>
       <c r="L1335" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1335" t="inlineStr">
@@ -64469,7 +64469,7 @@
       </c>
       <c r="L1336" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1336" t="inlineStr">
@@ -64519,7 +64519,7 @@
       </c>
       <c r="L1337" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1337" t="inlineStr">
@@ -64619,7 +64619,7 @@
       </c>
       <c r="L1339" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1339" t="inlineStr">
@@ -64669,7 +64669,7 @@
       </c>
       <c r="L1340" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1340" t="inlineStr">
@@ -64769,7 +64769,7 @@
       </c>
       <c r="L1342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1342" t="inlineStr">
@@ -64819,7 +64819,7 @@
       </c>
       <c r="L1343" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M1343" t="inlineStr">
@@ -64919,7 +64919,7 @@
       </c>
       <c r="L1345" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1345" t="inlineStr">
@@ -65019,7 +65019,7 @@
       </c>
       <c r="L1347" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M1347" t="inlineStr">
@@ -65069,7 +65069,7 @@
       </c>
       <c r="L1348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1348" t="inlineStr">
@@ -65119,7 +65119,7 @@
       </c>
       <c r="L1349" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1349" t="inlineStr">
@@ -65169,7 +65169,7 @@
       </c>
       <c r="L1350" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1350" t="inlineStr">
@@ -65219,7 +65219,7 @@
       </c>
       <c r="L1351" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M1351" t="inlineStr">
@@ -65353,7 +65353,7 @@
       </c>
       <c r="L1354" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1354" t="inlineStr">
@@ -65453,7 +65453,7 @@
       </c>
       <c r="L1356" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1356" t="inlineStr">
@@ -65503,7 +65503,7 @@
       </c>
       <c r="L1357" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1357" t="inlineStr">
@@ -65603,7 +65603,7 @@
       </c>
       <c r="L1359" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="M1359" t="inlineStr">
@@ -65653,7 +65653,7 @@
       </c>
       <c r="L1360" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1360" t="inlineStr">
@@ -65703,7 +65703,7 @@
       </c>
       <c r="L1361" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1361" t="inlineStr">
@@ -65803,7 +65803,7 @@
       </c>
       <c r="L1363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1363" t="inlineStr">
@@ -65853,7 +65853,7 @@
       </c>
       <c r="L1364" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1364" t="inlineStr">
@@ -65953,7 +65953,7 @@
       </c>
       <c r="L1366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1366" t="inlineStr">
@@ -66053,7 +66053,7 @@
       </c>
       <c r="L1368" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1368" t="inlineStr">
@@ -66153,7 +66153,7 @@
       </c>
       <c r="L1370" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1370" t="inlineStr">
@@ -66253,7 +66253,7 @@
       </c>
       <c r="L1372" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1372" t="inlineStr">
@@ -66395,7 +66395,7 @@
       </c>
       <c r="L1375" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1375" t="inlineStr">
@@ -66445,7 +66445,7 @@
       </c>
       <c r="L1376" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1376" t="inlineStr">
@@ -66495,7 +66495,7 @@
       </c>
       <c r="L1377" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1377" t="inlineStr">
@@ -66545,7 +66545,7 @@
       </c>
       <c r="L1378" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1378" t="inlineStr">
@@ -66595,7 +66595,7 @@
       </c>
       <c r="L1379" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1379" t="inlineStr">
@@ -66645,7 +66645,7 @@
       </c>
       <c r="L1380" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M1380" t="inlineStr">
@@ -66737,7 +66737,7 @@
       </c>
       <c r="L1382" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1382" t="inlineStr">
@@ -66837,7 +66837,7 @@
       </c>
       <c r="L1384" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1384" t="inlineStr">
@@ -66937,7 +66937,7 @@
       </c>
       <c r="L1386" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1386" t="inlineStr">
@@ -66987,7 +66987,7 @@
       </c>
       <c r="L1387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1387" t="inlineStr">
@@ -67037,7 +67037,7 @@
       </c>
       <c r="L1388" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1388" t="inlineStr">
@@ -67137,7 +67137,7 @@
       </c>
       <c r="L1390" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1390" t="inlineStr">
@@ -67187,7 +67187,7 @@
       </c>
       <c r="L1391" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1391" t="inlineStr">
@@ -67237,7 +67237,7 @@
       </c>
       <c r="L1392" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1392" t="inlineStr">
@@ -67287,7 +67287,7 @@
       </c>
       <c r="L1393" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="M1393" t="inlineStr">
@@ -67337,7 +67337,7 @@
       </c>
       <c r="L1394" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1394" t="inlineStr">
@@ -67387,7 +67387,7 @@
       </c>
       <c r="L1395" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="M1395" t="inlineStr">
@@ -67479,7 +67479,7 @@
       </c>
       <c r="L1397" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1397" t="inlineStr">
@@ -67529,7 +67529,7 @@
       </c>
       <c r="L1398" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1398" t="inlineStr">
@@ -67579,7 +67579,7 @@
       </c>
       <c r="L1399" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1399" t="inlineStr">
@@ -67629,7 +67629,7 @@
       </c>
       <c r="L1400" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1400" t="inlineStr">
@@ -67729,7 +67729,7 @@
       </c>
       <c r="L1402" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1402" t="inlineStr">
@@ -67863,7 +67863,7 @@
       </c>
       <c r="L1405" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="M1405" t="inlineStr">
@@ -67913,7 +67913,7 @@
       </c>
       <c r="L1406" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1406" t="inlineStr">
@@ -67963,7 +67963,7 @@
       </c>
       <c r="L1407" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1407" t="inlineStr">
@@ -68013,7 +68013,7 @@
       </c>
       <c r="L1408" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="M1408" t="inlineStr">
@@ -68113,7 +68113,7 @@
       </c>
       <c r="L1410" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1410" t="inlineStr">
@@ -68251,7 +68251,7 @@
       </c>
       <c r="L1413" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1413" t="inlineStr">
@@ -68301,7 +68301,7 @@
       </c>
       <c r="L1414" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
         </is>
       </c>
       <c r="M1414" t="inlineStr">

--- a/WD_BDRC_data.xlsx
+++ b/WD_BDRC_data.xlsx
@@ -608,7 +608,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -758,7 +758,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -908,7 +908,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -958,7 +958,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1058,7 +1058,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1108,7 +1108,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1158,7 +1158,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1208,7 +1208,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1258,7 +1258,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1408,7 +1408,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1458,7 +1458,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1558,7 +1558,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1608,7 +1608,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1708,7 +1708,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1758,7 +1758,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -1858,7 +1858,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -1958,7 +1958,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2008,7 +2008,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2154,7 +2154,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2300,7 +2300,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2446,7 +2446,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2546,7 +2546,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -2596,7 +2596,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -2646,7 +2646,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -2696,7 +2696,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -2796,7 +2796,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -2846,7 +2846,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -2946,7 +2946,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -2996,7 +2996,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3046,7 +3046,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3096,7 +3096,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3146,7 +3146,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -3246,7 +3246,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -3388,7 +3388,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -3534,7 +3534,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -3584,7 +3584,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -3684,7 +3684,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -3784,7 +3784,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -3884,7 +3884,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -3984,7 +3984,7 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -4034,7 +4034,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -4084,7 +4084,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -4134,7 +4134,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -4184,7 +4184,7 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -4234,7 +4234,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -4284,7 +4284,7 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -4334,7 +4334,7 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -4384,7 +4384,7 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -4434,7 +4434,7 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -4584,7 +4584,7 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -4634,7 +4634,7 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -4684,7 +4684,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -4734,7 +4734,7 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -4884,7 +4884,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -4984,7 +4984,7 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -5034,7 +5034,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -5134,7 +5134,7 @@
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -5284,7 +5284,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -5814,7 +5814,7 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -5864,7 +5864,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -6064,7 +6064,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -6214,7 +6214,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -6264,7 +6264,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -6414,7 +6414,7 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -6464,7 +6464,7 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -6564,7 +6564,7 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -6664,7 +6664,7 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -6764,7 +6764,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -6814,7 +6814,7 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -6964,7 +6964,7 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -7214,7 +7214,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -7264,7 +7264,7 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -7314,7 +7314,7 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -7414,7 +7414,7 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -7464,7 +7464,7 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -7514,7 +7514,7 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -7564,7 +7564,7 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -7614,7 +7614,7 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -7664,7 +7664,7 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -7714,7 +7714,7 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -7764,7 +7764,7 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -7864,7 +7864,7 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -7914,7 +7914,7 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -8014,7 +8014,7 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -8114,7 +8114,7 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -8164,7 +8164,7 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -8214,7 +8214,7 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -8314,7 +8314,7 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -8364,7 +8364,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -8414,7 +8414,7 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -8560,7 +8560,7 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -8610,7 +8610,7 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -8760,7 +8760,7 @@
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -8810,7 +8810,7 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -8910,7 +8910,7 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -8960,7 +8960,7 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -9110,7 +9110,7 @@
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -9210,7 +9210,7 @@
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -9260,7 +9260,7 @@
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -9360,7 +9360,7 @@
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -9410,7 +9410,7 @@
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -9460,7 +9460,7 @@
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -9510,7 +9510,7 @@
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -9660,7 +9660,7 @@
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -9810,7 +9810,7 @@
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -9960,7 +9960,7 @@
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -10110,7 +10110,7 @@
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -10160,7 +10160,7 @@
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -10210,7 +10210,7 @@
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -10260,7 +10260,7 @@
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -10510,7 +10510,7 @@
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -10560,7 +10560,7 @@
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -10610,7 +10610,7 @@
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -10710,7 +10710,7 @@
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -10760,7 +10760,7 @@
       <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -10860,7 +10860,7 @@
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -11010,7 +11010,7 @@
       <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -11060,7 +11060,7 @@
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -11160,7 +11160,7 @@
       <c r="L215" t="inlineStr"/>
       <c r="M215" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -11460,7 +11460,7 @@
       <c r="L221" t="inlineStr"/>
       <c r="M221" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -11510,7 +11510,7 @@
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -11610,7 +11610,7 @@
       <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -11710,7 +11710,7 @@
       <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -11810,7 +11810,7 @@
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr">
         <is>
-          <t>{'eft:rinchen-tso', 'eft:rin-chen-tsho'}</t>
+          <t>{'eft:rin-chen-tsho', 'eft:rinchen-tso'}</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -11860,7 +11860,7 @@
       <c r="L229" t="inlineStr"/>
       <c r="M229" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -11910,7 +11910,7 @@
       <c r="L230" t="inlineStr"/>
       <c r="M230" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -12010,7 +12010,7 @@
       <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -12110,7 +12110,7 @@
       <c r="L234" t="inlineStr"/>
       <c r="M234" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -12160,7 +12160,7 @@
       <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -12260,7 +12260,7 @@
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -12310,7 +12310,7 @@
       <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -12360,7 +12360,7 @@
       <c r="L239" t="inlineStr"/>
       <c r="M239" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -12756,7 +12756,7 @@
       <c r="L247" t="inlineStr"/>
       <c r="M247" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -12806,7 +12806,7 @@
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -12856,7 +12856,7 @@
       <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -12906,7 +12906,7 @@
       <c r="L250" t="inlineStr"/>
       <c r="M250" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -13006,7 +13006,7 @@
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -13106,7 +13106,7 @@
       <c r="L254" t="inlineStr"/>
       <c r="M254" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -13206,7 +13206,7 @@
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -13306,7 +13306,7 @@
       <c r="L258" t="inlineStr"/>
       <c r="M258" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -13406,7 +13406,7 @@
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -13548,7 +13548,7 @@
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -13648,7 +13648,7 @@
       <c r="L265" t="inlineStr"/>
       <c r="M265" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -13748,7 +13748,7 @@
       <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -13848,7 +13848,7 @@
       <c r="L269" t="inlineStr"/>
       <c r="M269" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -13998,7 +13998,7 @@
       <c r="L272" t="inlineStr"/>
       <c r="M272" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -14198,7 +14198,7 @@
       <c r="L276" t="inlineStr"/>
       <c r="M276" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -14248,7 +14248,7 @@
       <c r="L277" t="inlineStr"/>
       <c r="M277" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -14594,7 +14594,7 @@
       <c r="L284" t="inlineStr"/>
       <c r="M284" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -14924,7 +14924,7 @@
       <c r="L291" t="inlineStr"/>
       <c r="M291" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -15170,7 +15170,7 @@
       <c r="L296" t="inlineStr"/>
       <c r="M296" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -15270,7 +15270,7 @@
       <c r="L298" t="inlineStr"/>
       <c r="M298" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
@@ -15320,7 +15320,7 @@
       <c r="L299" t="inlineStr"/>
       <c r="M299" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
@@ -15420,7 +15420,7 @@
       <c r="L301" t="inlineStr"/>
       <c r="M301" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -15470,7 +15470,7 @@
       <c r="L302" t="inlineStr"/>
       <c r="M302" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -15570,7 +15570,7 @@
       <c r="L304" t="inlineStr"/>
       <c r="M304" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -15620,7 +15620,7 @@
       <c r="L305" t="inlineStr"/>
       <c r="M305" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -15720,7 +15720,7 @@
       <c r="L307" t="inlineStr"/>
       <c r="M307" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -15816,7 +15816,7 @@
       <c r="L309" t="inlineStr"/>
       <c r="M309" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -15912,7 +15912,7 @@
       <c r="L311" t="inlineStr"/>
       <c r="M311" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -15962,7 +15962,7 @@
       <c r="L312" t="inlineStr"/>
       <c r="M312" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -16012,7 +16012,7 @@
       <c r="L313" t="inlineStr"/>
       <c r="M313" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -16112,7 +16112,7 @@
       <c r="L315" t="inlineStr"/>
       <c r="M315" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -16162,7 +16162,7 @@
       <c r="L316" t="inlineStr"/>
       <c r="M316" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -16262,7 +16262,7 @@
       <c r="L318" t="inlineStr"/>
       <c r="M318" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -16412,7 +16412,7 @@
       <c r="L321" t="inlineStr"/>
       <c r="M321" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -16462,7 +16462,7 @@
       <c r="L322" t="inlineStr"/>
       <c r="M322" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="N322" t="inlineStr">
@@ -16512,7 +16512,7 @@
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -16562,7 +16562,7 @@
       <c r="L324" t="inlineStr"/>
       <c r="M324" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -16662,7 +16662,7 @@
       <c r="L326" t="inlineStr"/>
       <c r="M326" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
@@ -16712,7 +16712,7 @@
       <c r="L327" t="inlineStr"/>
       <c r="M327" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
@@ -16812,7 +16812,7 @@
       <c r="L329" t="inlineStr"/>
       <c r="M329" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -16912,7 +16912,7 @@
       <c r="L331" t="inlineStr"/>
       <c r="M331" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -16962,7 +16962,7 @@
       <c r="L332" t="inlineStr"/>
       <c r="M332" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -17062,7 +17062,7 @@
       <c r="L334" t="inlineStr"/>
       <c r="M334" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
@@ -17112,7 +17112,7 @@
       <c r="L335" t="inlineStr"/>
       <c r="M335" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -17162,7 +17162,7 @@
       <c r="L336" t="inlineStr"/>
       <c r="M336" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -17212,7 +17212,7 @@
       <c r="L337" t="inlineStr"/>
       <c r="M337" t="inlineStr">
         <is>
-          <t>{'eft:rinchen-tso', 'eft:rin-chen-tsho'}</t>
+          <t>{'eft:rin-chen-tsho', 'eft:rinchen-tso'}</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -17362,7 +17362,7 @@
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -17462,7 +17462,7 @@
       <c r="L342" t="inlineStr"/>
       <c r="M342" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -17512,7 +17512,7 @@
       <c r="L343" t="inlineStr"/>
       <c r="M343" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -17612,7 +17612,7 @@
       <c r="L345" t="inlineStr"/>
       <c r="M345" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -17662,7 +17662,7 @@
       <c r="L346" t="inlineStr"/>
       <c r="M346" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N346" t="inlineStr">
@@ -17712,7 +17712,7 @@
       <c r="L347" t="inlineStr"/>
       <c r="M347" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
@@ -17762,7 +17762,7 @@
       <c r="L348" t="inlineStr"/>
       <c r="M348" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
@@ -17912,7 +17912,7 @@
       <c r="L351" t="inlineStr"/>
       <c r="M351" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
@@ -17962,7 +17962,7 @@
       <c r="L352" t="inlineStr"/>
       <c r="M352" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
@@ -18112,7 +18112,7 @@
       <c r="L355" t="inlineStr"/>
       <c r="M355" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
@@ -18262,7 +18262,7 @@
       <c r="L358" t="inlineStr"/>
       <c r="M358" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -18412,7 +18412,7 @@
       <c r="L361" t="inlineStr"/>
       <c r="M361" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -18512,7 +18512,7 @@
       <c r="L363" t="inlineStr"/>
       <c r="M363" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
@@ -18562,7 +18562,7 @@
       <c r="L364" t="inlineStr"/>
       <c r="M364" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
@@ -18662,7 +18662,7 @@
       <c r="L366" t="inlineStr"/>
       <c r="M366" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
@@ -18712,7 +18712,7 @@
       <c r="L367" t="inlineStr"/>
       <c r="M367" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -18812,7 +18812,7 @@
       <c r="L369" t="inlineStr"/>
       <c r="M369" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
@@ -18862,7 +18862,7 @@
       <c r="L370" t="inlineStr"/>
       <c r="M370" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
@@ -19054,7 +19054,7 @@
       <c r="L374" t="inlineStr"/>
       <c r="M374" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
@@ -19104,7 +19104,7 @@
       <c r="L375" t="inlineStr"/>
       <c r="M375" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
@@ -19204,7 +19204,7 @@
       <c r="L377" t="inlineStr"/>
       <c r="M377" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
@@ -19254,7 +19254,7 @@
       <c r="L378" t="inlineStr"/>
       <c r="M378" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
@@ -19500,7 +19500,7 @@
       <c r="L383" t="inlineStr"/>
       <c r="M383" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
@@ -19550,7 +19550,7 @@
       <c r="L384" t="inlineStr"/>
       <c r="M384" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -19700,7 +19700,7 @@
       <c r="L387" t="inlineStr"/>
       <c r="M387" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N387" t="inlineStr">
@@ -19996,7 +19996,7 @@
       <c r="L393" t="inlineStr"/>
       <c r="M393" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N393" t="inlineStr">
@@ -20096,7 +20096,7 @@
       <c r="L395" t="inlineStr"/>
       <c r="M395" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N395" t="inlineStr">
@@ -20196,7 +20196,7 @@
       <c r="L397" t="inlineStr"/>
       <c r="M397" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N397" t="inlineStr">
@@ -20246,7 +20246,7 @@
       <c r="L398" t="inlineStr"/>
       <c r="M398" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
@@ -20346,7 +20346,7 @@
       <c r="L400" t="inlineStr"/>
       <c r="M400" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
@@ -20488,7 +20488,7 @@
       <c r="L403" t="inlineStr"/>
       <c r="M403" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
@@ -20538,7 +20538,7 @@
       <c r="L404" t="inlineStr"/>
       <c r="M404" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
@@ -20638,7 +20638,7 @@
       <c r="L406" t="inlineStr"/>
       <c r="M406" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
@@ -20688,7 +20688,7 @@
       <c r="L407" t="inlineStr"/>
       <c r="M407" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
@@ -20788,7 +20788,7 @@
       <c r="L409" t="inlineStr"/>
       <c r="M409" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
@@ -20888,7 +20888,7 @@
       <c r="L411" t="inlineStr"/>
       <c r="M411" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
@@ -20988,7 +20988,7 @@
       <c r="L413" t="inlineStr"/>
       <c r="M413" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
@@ -21088,7 +21088,7 @@
       <c r="L415" t="inlineStr"/>
       <c r="M415" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
@@ -21138,7 +21138,7 @@
       <c r="L416" t="inlineStr"/>
       <c r="M416" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N416" t="inlineStr">
@@ -21188,7 +21188,7 @@
       <c r="L417" t="inlineStr"/>
       <c r="M417" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N417" t="inlineStr">
@@ -21288,7 +21288,7 @@
       <c r="L419" t="inlineStr"/>
       <c r="M419" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N419" t="inlineStr">
@@ -21388,7 +21388,7 @@
       <c r="L421" t="inlineStr"/>
       <c r="M421" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N421" t="inlineStr">
@@ -21438,7 +21438,7 @@
       <c r="L422" t="inlineStr"/>
       <c r="M422" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
@@ -21538,7 +21538,7 @@
       <c r="L424" t="inlineStr"/>
       <c r="M424" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N424" t="inlineStr">
@@ -21588,7 +21588,7 @@
       <c r="L425" t="inlineStr"/>
       <c r="M425" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
@@ -21688,7 +21688,7 @@
       <c r="L427" t="inlineStr"/>
       <c r="M427" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N427" t="inlineStr">
@@ -21738,7 +21738,7 @@
       <c r="L428" t="inlineStr"/>
       <c r="M428" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
@@ -21838,7 +21838,7 @@
       <c r="L430" t="inlineStr"/>
       <c r="M430" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
@@ -21888,7 +21888,7 @@
       <c r="L431" t="inlineStr"/>
       <c r="M431" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N431" t="inlineStr">
@@ -21988,7 +21988,7 @@
       <c r="L433" t="inlineStr"/>
       <c r="M433" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
@@ -22038,7 +22038,7 @@
       <c r="L434" t="inlineStr"/>
       <c r="M434" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N434" t="inlineStr">
@@ -22138,7 +22138,7 @@
       <c r="L436" t="inlineStr"/>
       <c r="M436" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N436" t="inlineStr">
@@ -22234,7 +22234,7 @@
       <c r="L438" t="inlineStr"/>
       <c r="M438" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N438" t="inlineStr">
@@ -22384,7 +22384,7 @@
       <c r="L441" t="inlineStr"/>
       <c r="M441" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N441" t="inlineStr">
@@ -22480,7 +22480,7 @@
       <c r="L443" t="inlineStr"/>
       <c r="M443" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N443" t="inlineStr">
@@ -22822,7 +22822,7 @@
       <c r="L450" t="inlineStr"/>
       <c r="M450" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N450" t="inlineStr">
@@ -22972,7 +22972,7 @@
       <c r="L453" t="inlineStr"/>
       <c r="M453" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N453" t="inlineStr">
@@ -23072,7 +23072,7 @@
       <c r="L455" t="inlineStr"/>
       <c r="M455" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N455" t="inlineStr">
@@ -23264,7 +23264,7 @@
       <c r="L459" t="inlineStr"/>
       <c r="M459" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N459" t="inlineStr">
@@ -23364,7 +23364,7 @@
       <c r="L461" t="inlineStr"/>
       <c r="M461" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N461" t="inlineStr">
@@ -23414,7 +23414,7 @@
       <c r="L462" t="inlineStr"/>
       <c r="M462" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N462" t="inlineStr">
@@ -23656,7 +23656,7 @@
       <c r="L467" t="inlineStr"/>
       <c r="M467" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="N467" t="inlineStr">
@@ -23706,7 +23706,7 @@
       <c r="L468" t="inlineStr"/>
       <c r="M468" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N468" t="inlineStr">
@@ -23852,7 +23852,7 @@
       <c r="L471" t="inlineStr"/>
       <c r="M471" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N471" t="inlineStr">
@@ -23998,7 +23998,7 @@
       <c r="L474" t="inlineStr"/>
       <c r="M474" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N474" t="inlineStr">
@@ -24190,7 +24190,7 @@
       <c r="L478" t="inlineStr"/>
       <c r="M478" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N478" t="inlineStr">
@@ -24290,7 +24290,7 @@
       <c r="L480" t="inlineStr"/>
       <c r="M480" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="N480" t="inlineStr">
@@ -24340,7 +24340,7 @@
       <c r="L481" t="inlineStr"/>
       <c r="M481" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
@@ -24632,7 +24632,7 @@
       <c r="L487" t="inlineStr"/>
       <c r="M487" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N487" t="inlineStr">
@@ -24782,7 +24782,7 @@
       <c r="L490" t="inlineStr"/>
       <c r="M490" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="N490" t="inlineStr">
@@ -24832,7 +24832,7 @@
       <c r="L491" t="inlineStr"/>
       <c r="M491" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N491" t="inlineStr">
@@ -24882,7 +24882,7 @@
       <c r="L492" t="inlineStr"/>
       <c r="M492" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N492" t="inlineStr">
@@ -24932,7 +24932,7 @@
       <c r="L493" t="inlineStr"/>
       <c r="M493" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N493" t="inlineStr">
@@ -25128,7 +25128,7 @@
       <c r="L497" t="inlineStr"/>
       <c r="M497" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N497" t="inlineStr">
@@ -25770,7 +25770,7 @@
       <c r="L510" t="inlineStr"/>
       <c r="M510" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N510" t="inlineStr">
@@ -26940,7 +26940,7 @@
       <c r="L535" t="inlineStr"/>
       <c r="M535" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N535" t="inlineStr">
@@ -30636,7 +30636,7 @@
       <c r="L611" t="inlineStr"/>
       <c r="M611" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N611" t="inlineStr">
@@ -35586,7 +35586,7 @@
       <c r="L714" t="inlineStr"/>
       <c r="M714" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N714" t="inlineStr">
@@ -35686,7 +35686,7 @@
       <c r="L716" t="inlineStr"/>
       <c r="M716" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N716" t="inlineStr">
@@ -35928,7 +35928,7 @@
       <c r="L721" t="inlineStr"/>
       <c r="M721" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="N721" t="inlineStr">
@@ -36580,7 +36580,7 @@
       <c r="L735" t="inlineStr"/>
       <c r="M735" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N735" t="inlineStr">
@@ -37194,7 +37194,7 @@
       <c r="L748" t="inlineStr"/>
       <c r="M748" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N748" t="inlineStr">
@@ -37528,7 +37528,7 @@
       <c r="L755" t="inlineStr"/>
       <c r="M755" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N755" t="inlineStr">
@@ -37678,7 +37678,7 @@
       <c r="L758" t="inlineStr"/>
       <c r="M758" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N758" t="inlineStr">
@@ -37874,7 +37874,7 @@
       <c r="L762" t="inlineStr"/>
       <c r="M762" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N762" t="inlineStr">
@@ -39600,7 +39600,7 @@
       <c r="L799" t="inlineStr"/>
       <c r="M799" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N799" t="inlineStr">
@@ -39700,7 +39700,7 @@
       <c r="L801" t="inlineStr"/>
       <c r="M801" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N801" t="inlineStr">
@@ -40072,7 +40072,7 @@
       <c r="L809" t="inlineStr"/>
       <c r="M809" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N809" t="inlineStr">
@@ -40122,7 +40122,7 @@
       <c r="L810" t="inlineStr"/>
       <c r="M810" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N810" t="inlineStr">
@@ -40402,7 +40402,7 @@
       <c r="L816" t="inlineStr"/>
       <c r="M816" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N816" t="inlineStr">
@@ -40452,7 +40452,7 @@
       <c r="L817" t="inlineStr"/>
       <c r="M817" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N817" t="inlineStr">
@@ -40502,7 +40502,7 @@
       <c r="L818" t="inlineStr"/>
       <c r="M818" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N818" t="inlineStr">
@@ -40552,7 +40552,7 @@
       <c r="L819" t="inlineStr"/>
       <c r="M819" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N819" t="inlineStr">
@@ -40702,7 +40702,7 @@
       <c r="L822" t="inlineStr"/>
       <c r="M822" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N822" t="inlineStr">
@@ -40852,7 +40852,7 @@
       <c r="L825" t="inlineStr"/>
       <c r="M825" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="N825" t="inlineStr">
@@ -40952,7 +40952,7 @@
       <c r="L827" t="inlineStr"/>
       <c r="M827" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="N827" t="inlineStr">
@@ -41002,7 +41002,7 @@
       <c r="L828" t="inlineStr"/>
       <c r="M828" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N828" t="inlineStr">
@@ -41098,7 +41098,7 @@
       <c r="L830" t="inlineStr"/>
       <c r="M830" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N830" t="inlineStr">
@@ -41198,7 +41198,7 @@
       <c r="L832" t="inlineStr"/>
       <c r="M832" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N832" t="inlineStr">
@@ -41386,7 +41386,7 @@
       <c r="L836" t="inlineStr"/>
       <c r="M836" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N836" t="inlineStr">
@@ -41586,7 +41586,7 @@
       <c r="L840" t="inlineStr"/>
       <c r="M840" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N840" t="inlineStr">
@@ -41686,7 +41686,7 @@
       <c r="L842" t="inlineStr"/>
       <c r="M842" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N842" t="inlineStr">
@@ -41736,7 +41736,7 @@
       <c r="L843" t="inlineStr"/>
       <c r="M843" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N843" t="inlineStr">
@@ -41786,7 +41786,7 @@
       <c r="L844" t="inlineStr"/>
       <c r="M844" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N844" t="inlineStr">
@@ -41886,7 +41886,7 @@
       <c r="L846" t="inlineStr"/>
       <c r="M846" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N846" t="inlineStr">
@@ -41936,7 +41936,7 @@
       <c r="L847" t="inlineStr"/>
       <c r="M847" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N847" t="inlineStr">
@@ -42036,7 +42036,7 @@
       <c r="L849" t="inlineStr"/>
       <c r="M849" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N849" t="inlineStr">
@@ -42086,7 +42086,7 @@
       <c r="L850" t="inlineStr"/>
       <c r="M850" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N850" t="inlineStr">
@@ -42282,7 +42282,7 @@
       <c r="L854" t="inlineStr"/>
       <c r="M854" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="N854" t="inlineStr">
@@ -42332,7 +42332,7 @@
       <c r="L855" t="inlineStr"/>
       <c r="M855" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N855" t="inlineStr">
@@ -42528,7 +42528,7 @@
       <c r="L859" t="inlineStr"/>
       <c r="M859" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="N859" t="inlineStr">
@@ -42624,7 +42624,7 @@
       <c r="L861" t="inlineStr"/>
       <c r="M861" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N861" t="inlineStr">
@@ -42724,7 +42724,7 @@
       <c r="L863" t="inlineStr"/>
       <c r="M863" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N863" t="inlineStr">
@@ -42774,7 +42774,7 @@
       <c r="L864" t="inlineStr"/>
       <c r="M864" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N864" t="inlineStr">
@@ -42874,7 +42874,7 @@
       <c r="L866" t="inlineStr"/>
       <c r="M866" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N866" t="inlineStr">
@@ -42924,7 +42924,7 @@
       <c r="L867" t="inlineStr"/>
       <c r="M867" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N867" t="inlineStr">
@@ -43024,7 +43024,7 @@
       <c r="L869" t="inlineStr"/>
       <c r="M869" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N869" t="inlineStr">
@@ -43074,7 +43074,7 @@
       <c r="L870" t="inlineStr"/>
       <c r="M870" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N870" t="inlineStr">
@@ -43174,7 +43174,7 @@
       <c r="L872" t="inlineStr"/>
       <c r="M872" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N872" t="inlineStr">
@@ -43224,7 +43224,7 @@
       <c r="L873" t="inlineStr"/>
       <c r="M873" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N873" t="inlineStr">
@@ -43324,7 +43324,7 @@
       <c r="L875" t="inlineStr"/>
       <c r="M875" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N875" t="inlineStr">
@@ -43374,7 +43374,7 @@
       <c r="L876" t="inlineStr"/>
       <c r="M876" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N876" t="inlineStr">
@@ -43474,7 +43474,7 @@
       <c r="L878" t="inlineStr"/>
       <c r="M878" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N878" t="inlineStr">
@@ -43524,7 +43524,7 @@
       <c r="L879" t="inlineStr"/>
       <c r="M879" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N879" t="inlineStr">
@@ -43624,7 +43624,7 @@
       <c r="L881" t="inlineStr"/>
       <c r="M881" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N881" t="inlineStr">
@@ -43674,7 +43674,7 @@
       <c r="L882" t="inlineStr"/>
       <c r="M882" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N882" t="inlineStr">
@@ -43774,7 +43774,7 @@
       <c r="L884" t="inlineStr"/>
       <c r="M884" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N884" t="inlineStr">
@@ -43924,7 +43924,7 @@
       <c r="L887" t="inlineStr"/>
       <c r="M887" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N887" t="inlineStr">
@@ -43974,7 +43974,7 @@
       <c r="L888" t="inlineStr"/>
       <c r="M888" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N888" t="inlineStr">
@@ -44074,7 +44074,7 @@
       <c r="L890" t="inlineStr"/>
       <c r="M890" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N890" t="inlineStr">
@@ -44124,7 +44124,7 @@
       <c r="L891" t="inlineStr"/>
       <c r="M891" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N891" t="inlineStr">
@@ -44224,7 +44224,7 @@
       <c r="L893" t="inlineStr"/>
       <c r="M893" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N893" t="inlineStr">
@@ -44458,7 +44458,7 @@
       <c r="L898" t="inlineStr"/>
       <c r="M898" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N898" t="inlineStr">
@@ -44558,7 +44558,7 @@
       <c r="L900" t="inlineStr"/>
       <c r="M900" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N900" t="inlineStr">
@@ -44608,7 +44608,7 @@
       <c r="L901" t="inlineStr"/>
       <c r="M901" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N901" t="inlineStr">
@@ -44708,7 +44708,7 @@
       <c r="L903" t="inlineStr"/>
       <c r="M903" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N903" t="inlineStr">
@@ -44854,7 +44854,7 @@
       <c r="L906" t="inlineStr"/>
       <c r="M906" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N906" t="inlineStr">
@@ -45000,7 +45000,7 @@
       <c r="L909" t="inlineStr"/>
       <c r="M909" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N909" t="inlineStr">
@@ -45192,7 +45192,7 @@
       <c r="L913" t="inlineStr"/>
       <c r="M913" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N913" t="inlineStr">
@@ -45242,7 +45242,7 @@
       <c r="L914" t="inlineStr"/>
       <c r="M914" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N914" t="inlineStr">
@@ -45292,7 +45292,7 @@
       <c r="L915" t="inlineStr"/>
       <c r="M915" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N915" t="inlineStr">
@@ -45342,7 +45342,7 @@
       <c r="L916" t="inlineStr"/>
       <c r="M916" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N916" t="inlineStr">
@@ -45492,7 +45492,7 @@
       <c r="L919" t="inlineStr"/>
       <c r="M919" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N919" t="inlineStr">
@@ -45588,7 +45588,7 @@
       <c r="L921" t="inlineStr"/>
       <c r="M921" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N921" t="inlineStr">
@@ -45738,7 +45738,7 @@
       <c r="L924" t="inlineStr"/>
       <c r="M924" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N924" t="inlineStr">
@@ -45838,7 +45838,7 @@
       <c r="L926" t="inlineStr"/>
       <c r="M926" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N926" t="inlineStr">
@@ -45938,7 +45938,7 @@
       <c r="L928" t="inlineStr"/>
       <c r="M928" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N928" t="inlineStr">
@@ -46038,7 +46038,7 @@
       <c r="L930" t="inlineStr"/>
       <c r="M930" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N930" t="inlineStr">
@@ -46134,7 +46134,7 @@
       <c r="L932" t="inlineStr"/>
       <c r="M932" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N932" t="inlineStr">
@@ -46284,7 +46284,7 @@
       <c r="L935" t="inlineStr"/>
       <c r="M935" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N935" t="inlineStr">
@@ -46380,7 +46380,7 @@
       <c r="L937" t="inlineStr"/>
       <c r="M937" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N937" t="inlineStr">
@@ -46530,7 +46530,7 @@
       <c r="L940" t="inlineStr"/>
       <c r="M940" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N940" t="inlineStr">
@@ -46672,7 +46672,7 @@
       <c r="L943" t="inlineStr"/>
       <c r="M943" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N943" t="inlineStr">
@@ -46772,7 +46772,7 @@
       <c r="L945" t="inlineStr"/>
       <c r="M945" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N945" t="inlineStr">
@@ -46822,7 +46822,7 @@
       <c r="L946" t="inlineStr"/>
       <c r="M946" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N946" t="inlineStr">
@@ -46922,7 +46922,7 @@
       <c r="L948" t="inlineStr"/>
       <c r="M948" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N948" t="inlineStr">
@@ -46972,7 +46972,7 @@
       <c r="L949" t="inlineStr"/>
       <c r="M949" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N949" t="inlineStr">
@@ -47072,7 +47072,7 @@
       <c r="L951" t="inlineStr"/>
       <c r="M951" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N951" t="inlineStr">
@@ -47122,7 +47122,7 @@
       <c r="L952" t="inlineStr"/>
       <c r="M952" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N952" t="inlineStr">
@@ -47172,7 +47172,7 @@
       <c r="L953" t="inlineStr"/>
       <c r="M953" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N953" t="inlineStr">
@@ -47222,7 +47222,7 @@
       <c r="L954" t="inlineStr"/>
       <c r="M954" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N954" t="inlineStr">
@@ -47272,7 +47272,7 @@
       <c r="L955" t="inlineStr"/>
       <c r="M955" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N955" t="inlineStr">
@@ -47322,7 +47322,7 @@
       <c r="L956" t="inlineStr"/>
       <c r="M956" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N956" t="inlineStr">
@@ -47556,7 +47556,7 @@
       <c r="L961" t="inlineStr"/>
       <c r="M961" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N961" t="inlineStr">
@@ -47656,7 +47656,7 @@
       <c r="L963" t="inlineStr"/>
       <c r="M963" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N963" t="inlineStr">
@@ -47798,7 +47798,7 @@
       <c r="L966" t="inlineStr"/>
       <c r="M966" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N966" t="inlineStr">
@@ -47848,7 +47848,7 @@
       <c r="L967" t="inlineStr"/>
       <c r="M967" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N967" t="inlineStr">
@@ -47898,7 +47898,7 @@
       <c r="L968" t="inlineStr"/>
       <c r="M968" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N968" t="inlineStr">
@@ -48094,7 +48094,7 @@
       <c r="L972" t="inlineStr"/>
       <c r="M972" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N972" t="inlineStr">
@@ -48144,7 +48144,7 @@
       <c r="L973" t="inlineStr"/>
       <c r="M973" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N973" t="inlineStr">
@@ -48244,7 +48244,7 @@
       <c r="L975" t="inlineStr"/>
       <c r="M975" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N975" t="inlineStr">
@@ -48294,7 +48294,7 @@
       <c r="L976" t="inlineStr"/>
       <c r="M976" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N976" t="inlineStr">
@@ -48394,7 +48394,7 @@
       <c r="L978" t="inlineStr"/>
       <c r="M978" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N978" t="inlineStr">
@@ -48494,7 +48494,7 @@
       <c r="L980" t="inlineStr"/>
       <c r="M980" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N980" t="inlineStr">
@@ -48544,7 +48544,7 @@
       <c r="L981" t="inlineStr"/>
       <c r="M981" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N981" t="inlineStr">
@@ -48644,7 +48644,7 @@
       <c r="L983" t="inlineStr"/>
       <c r="M983" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N983" t="inlineStr">
@@ -48694,7 +48694,7 @@
       <c r="L984" t="inlineStr"/>
       <c r="M984" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N984" t="inlineStr">
@@ -48794,7 +48794,7 @@
       <c r="L986" t="inlineStr"/>
       <c r="M986" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N986" t="inlineStr">
@@ -48844,7 +48844,7 @@
       <c r="L987" t="inlineStr"/>
       <c r="M987" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N987" t="inlineStr">
@@ -48944,7 +48944,7 @@
       <c r="L989" t="inlineStr"/>
       <c r="M989" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N989" t="inlineStr">
@@ -48994,7 +48994,7 @@
       <c r="L990" t="inlineStr"/>
       <c r="M990" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N990" t="inlineStr">
@@ -49094,7 +49094,7 @@
       <c r="L992" t="inlineStr"/>
       <c r="M992" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N992" t="inlineStr">
@@ -49144,7 +49144,7 @@
       <c r="L993" t="inlineStr"/>
       <c r="M993" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N993" t="inlineStr">
@@ -49244,7 +49244,7 @@
       <c r="L995" t="inlineStr"/>
       <c r="M995" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N995" t="inlineStr">
@@ -49344,7 +49344,7 @@
       <c r="L997" t="inlineStr"/>
       <c r="M997" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="N997" t="inlineStr">
@@ -49394,7 +49394,7 @@
       <c r="L998" t="inlineStr"/>
       <c r="M998" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N998" t="inlineStr">
@@ -49444,7 +49444,7 @@
       <c r="L999" t="inlineStr"/>
       <c r="M999" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N999" t="inlineStr">
@@ -49544,7 +49544,7 @@
       <c r="L1001" t="inlineStr"/>
       <c r="M1001" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1001" t="inlineStr">
@@ -49594,7 +49594,7 @@
       <c r="L1002" t="inlineStr"/>
       <c r="M1002" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1002" t="inlineStr">
@@ -49744,7 +49744,7 @@
       <c r="L1005" t="inlineStr"/>
       <c r="M1005" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1005" t="inlineStr">
@@ -49794,7 +49794,7 @@
       <c r="L1006" t="inlineStr"/>
       <c r="M1006" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1006" t="inlineStr">
@@ -49894,7 +49894,7 @@
       <c r="L1008" t="inlineStr"/>
       <c r="M1008" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1008" t="inlineStr">
@@ -49944,7 +49944,7 @@
       <c r="L1009" t="inlineStr"/>
       <c r="M1009" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1009" t="inlineStr">
@@ -50044,7 +50044,7 @@
       <c r="L1011" t="inlineStr"/>
       <c r="M1011" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1011" t="inlineStr">
@@ -50144,7 +50144,7 @@
       <c r="L1013" t="inlineStr"/>
       <c r="M1013" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1013" t="inlineStr">
@@ -50244,7 +50244,7 @@
       <c r="L1015" t="inlineStr"/>
       <c r="M1015" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1015" t="inlineStr">
@@ -50386,7 +50386,7 @@
       <c r="L1018" t="inlineStr"/>
       <c r="M1018" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1018" t="inlineStr">
@@ -50486,7 +50486,7 @@
       <c r="L1020" t="inlineStr"/>
       <c r="M1020" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1020" t="inlineStr">
@@ -50628,7 +50628,7 @@
       <c r="L1023" t="inlineStr"/>
       <c r="M1023" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1023" t="inlineStr">
@@ -50728,7 +50728,7 @@
       <c r="L1025" t="inlineStr"/>
       <c r="M1025" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1025" t="inlineStr">
@@ -50778,7 +50778,7 @@
       <c r="L1026" t="inlineStr"/>
       <c r="M1026" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1026" t="inlineStr">
@@ -50828,7 +50828,7 @@
       <c r="L1027" t="inlineStr"/>
       <c r="M1027" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1027" t="inlineStr">
@@ -50928,7 +50928,7 @@
       <c r="L1029" t="inlineStr"/>
       <c r="M1029" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1029" t="inlineStr">
@@ -50978,7 +50978,7 @@
       <c r="L1030" t="inlineStr"/>
       <c r="M1030" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N1030" t="inlineStr">
@@ -51124,7 +51124,7 @@
       <c r="L1033" t="inlineStr"/>
       <c r="M1033" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1033" t="inlineStr">
@@ -51224,7 +51224,7 @@
       <c r="L1035" t="inlineStr"/>
       <c r="M1035" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1035" t="inlineStr">
@@ -51374,7 +51374,7 @@
       <c r="L1038" t="inlineStr"/>
       <c r="M1038" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1038" t="inlineStr">
@@ -51424,7 +51424,7 @@
       <c r="L1039" t="inlineStr"/>
       <c r="M1039" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1039" t="inlineStr">
@@ -51524,7 +51524,7 @@
       <c r="L1041" t="inlineStr"/>
       <c r="M1041" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1041" t="inlineStr">
@@ -51574,7 +51574,7 @@
       <c r="L1042" t="inlineStr"/>
       <c r="M1042" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1042" t="inlineStr">
@@ -51624,7 +51624,7 @@
       <c r="L1043" t="inlineStr"/>
       <c r="M1043" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1043" t="inlineStr">
@@ -51674,7 +51674,7 @@
       <c r="L1044" t="inlineStr"/>
       <c r="M1044" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1044" t="inlineStr">
@@ -51724,7 +51724,7 @@
       <c r="L1045" t="inlineStr"/>
       <c r="M1045" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1045" t="inlineStr">
@@ -51824,7 +51824,7 @@
       <c r="L1047" t="inlineStr"/>
       <c r="M1047" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1047" t="inlineStr">
@@ -51874,7 +51874,7 @@
       <c r="L1048" t="inlineStr"/>
       <c r="M1048" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1048" t="inlineStr">
@@ -52024,7 +52024,7 @@
       <c r="L1051" t="inlineStr"/>
       <c r="M1051" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1051" t="inlineStr">
@@ -52124,7 +52124,7 @@
       <c r="L1053" t="inlineStr"/>
       <c r="M1053" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N1053" t="inlineStr">
@@ -52316,7 +52316,7 @@
       <c r="L1057" t="inlineStr"/>
       <c r="M1057" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1057" t="inlineStr">
@@ -52366,7 +52366,7 @@
       <c r="L1058" t="inlineStr"/>
       <c r="M1058" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1058" t="inlineStr">
@@ -52516,7 +52516,7 @@
       <c r="L1061" t="inlineStr"/>
       <c r="M1061" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1061" t="inlineStr">
@@ -52662,7 +52662,7 @@
       <c r="L1064" t="inlineStr"/>
       <c r="M1064" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1064" t="inlineStr">
@@ -52812,7 +52812,7 @@
       <c r="L1067" t="inlineStr"/>
       <c r="M1067" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1067" t="inlineStr">
@@ -53644,7 +53644,7 @@
       <c r="L1085" t="inlineStr"/>
       <c r="M1085" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1085" t="inlineStr">
@@ -53744,7 +53744,7 @@
       <c r="L1087" t="inlineStr"/>
       <c r="M1087" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1087" t="inlineStr">
@@ -53886,7 +53886,7 @@
       <c r="L1090" t="inlineStr"/>
       <c r="M1090" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1090" t="inlineStr">
@@ -53936,7 +53936,7 @@
       <c r="L1091" t="inlineStr"/>
       <c r="M1091" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1091" t="inlineStr">
@@ -54032,7 +54032,7 @@
       <c r="L1093" t="inlineStr"/>
       <c r="M1093" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1093" t="inlineStr">
@@ -54132,7 +54132,7 @@
       <c r="L1095" t="inlineStr"/>
       <c r="M1095" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1095" t="inlineStr">
@@ -54232,7 +54232,7 @@
       <c r="L1097" t="inlineStr"/>
       <c r="M1097" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1097" t="inlineStr">
@@ -54282,7 +54282,7 @@
       <c r="L1098" t="inlineStr"/>
       <c r="M1098" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1098" t="inlineStr">
@@ -54880,7 +54880,7 @@
       <c r="L1111" t="inlineStr"/>
       <c r="M1111" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1111" t="inlineStr">
@@ -54980,7 +54980,7 @@
       <c r="L1113" t="inlineStr"/>
       <c r="M1113" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1113" t="inlineStr">
@@ -55030,7 +55030,7 @@
       <c r="L1114" t="inlineStr"/>
       <c r="M1114" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1114" t="inlineStr">
@@ -55130,7 +55130,7 @@
       <c r="L1116" t="inlineStr"/>
       <c r="M1116" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1116" t="inlineStr">
@@ -55180,7 +55180,7 @@
       <c r="L1117" t="inlineStr"/>
       <c r="M1117" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N1117" t="inlineStr">
@@ -55326,7 +55326,7 @@
       <c r="L1120" t="inlineStr"/>
       <c r="M1120" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N1120" t="inlineStr">
@@ -55472,7 +55472,7 @@
       <c r="L1123" t="inlineStr"/>
       <c r="M1123" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1123" t="inlineStr">
@@ -55572,7 +55572,7 @@
       <c r="L1125" t="inlineStr"/>
       <c r="M1125" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1125" t="inlineStr">
@@ -55672,7 +55672,7 @@
       <c r="L1127" t="inlineStr"/>
       <c r="M1127" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1127" t="inlineStr">
@@ -55864,7 +55864,7 @@
       <c r="L1131" t="inlineStr"/>
       <c r="M1131" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1131" t="inlineStr">
@@ -55964,7 +55964,7 @@
       <c r="L1133" t="inlineStr"/>
       <c r="M1133" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1133" t="inlineStr">
@@ -56106,7 +56106,7 @@
       <c r="L1136" t="inlineStr"/>
       <c r="M1136" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1136" t="inlineStr">
@@ -56206,7 +56206,7 @@
       <c r="L1138" t="inlineStr"/>
       <c r="M1138" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1138" t="inlineStr">
@@ -56256,7 +56256,7 @@
       <c r="L1139" t="inlineStr"/>
       <c r="M1139" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1139" t="inlineStr">
@@ -56356,7 +56356,7 @@
       <c r="L1141" t="inlineStr"/>
       <c r="M1141" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1141" t="inlineStr">
@@ -56406,7 +56406,7 @@
       <c r="L1142" t="inlineStr"/>
       <c r="M1142" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1142" t="inlineStr">
@@ -56456,7 +56456,7 @@
       <c r="L1143" t="inlineStr"/>
       <c r="M1143" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1143" t="inlineStr">
@@ -56506,7 +56506,7 @@
       <c r="L1144" t="inlineStr"/>
       <c r="M1144" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1144" t="inlineStr">
@@ -56556,7 +56556,7 @@
       <c r="L1145" t="inlineStr"/>
       <c r="M1145" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1145" t="inlineStr">
@@ -56886,7 +56886,7 @@
       <c r="L1152" t="inlineStr"/>
       <c r="M1152" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N1152" t="inlineStr">
@@ -57032,7 +57032,7 @@
       <c r="L1155" t="inlineStr"/>
       <c r="M1155" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N1155" t="inlineStr">
@@ -57174,7 +57174,7 @@
       <c r="L1158" t="inlineStr"/>
       <c r="M1158" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1158" t="inlineStr">
@@ -57274,7 +57274,7 @@
       <c r="L1160" t="inlineStr"/>
       <c r="M1160" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1160" t="inlineStr">
@@ -57324,7 +57324,7 @@
       <c r="L1161" t="inlineStr"/>
       <c r="M1161" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1161" t="inlineStr">
@@ -57424,7 +57424,7 @@
       <c r="L1163" t="inlineStr"/>
       <c r="M1163" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1163" t="inlineStr">
@@ -57474,7 +57474,7 @@
       <c r="L1164" t="inlineStr"/>
       <c r="M1164" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1164" t="inlineStr">
@@ -57574,7 +57574,7 @@
       <c r="L1166" t="inlineStr"/>
       <c r="M1166" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1166" t="inlineStr">
@@ -57624,7 +57624,7 @@
       <c r="L1167" t="inlineStr"/>
       <c r="M1167" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1167" t="inlineStr">
@@ -57724,7 +57724,7 @@
       <c r="L1169" t="inlineStr"/>
       <c r="M1169" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1169" t="inlineStr">
@@ -57774,7 +57774,7 @@
       <c r="L1170" t="inlineStr"/>
       <c r="M1170" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1170" t="inlineStr">
@@ -57874,7 +57874,7 @@
       <c r="L1172" t="inlineStr"/>
       <c r="M1172" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1172" t="inlineStr">
@@ -57924,7 +57924,7 @@
       <c r="L1173" t="inlineStr"/>
       <c r="M1173" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1173" t="inlineStr">
@@ -57974,7 +57974,7 @@
       <c r="L1174" t="inlineStr"/>
       <c r="M1174" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1174" t="inlineStr">
@@ -58024,7 +58024,7 @@
       <c r="L1175" t="inlineStr"/>
       <c r="M1175" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1175" t="inlineStr">
@@ -58120,7 +58120,7 @@
       <c r="L1177" t="inlineStr"/>
       <c r="M1177" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1177" t="inlineStr">
@@ -58220,7 +58220,7 @@
       <c r="L1179" t="inlineStr"/>
       <c r="M1179" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1179" t="inlineStr">
@@ -58726,7 +58726,7 @@
       <c r="L1190" t="inlineStr"/>
       <c r="M1190" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1190" t="inlineStr">
@@ -58826,7 +58826,7 @@
       <c r="L1192" t="inlineStr"/>
       <c r="M1192" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1192" t="inlineStr">
@@ -59018,7 +59018,7 @@
       <c r="L1196" t="inlineStr"/>
       <c r="M1196" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1196" t="inlineStr">
@@ -59118,7 +59118,7 @@
       <c r="L1198" t="inlineStr"/>
       <c r="M1198" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1198" t="inlineStr">
@@ -59168,7 +59168,7 @@
       <c r="L1199" t="inlineStr"/>
       <c r="M1199" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1199" t="inlineStr">
@@ -59268,7 +59268,7 @@
       <c r="L1201" t="inlineStr"/>
       <c r="M1201" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1201" t="inlineStr">
@@ -59318,7 +59318,7 @@
       <c r="L1202" t="inlineStr"/>
       <c r="M1202" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1202" t="inlineStr">
@@ -59468,7 +59468,7 @@
       <c r="L1205" t="inlineStr"/>
       <c r="M1205" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1205" t="inlineStr">
@@ -59714,7 +59714,7 @@
       <c r="L1210" t="inlineStr"/>
       <c r="M1210" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N1210" t="inlineStr">
@@ -59864,7 +59864,7 @@
       <c r="L1213" t="inlineStr"/>
       <c r="M1213" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1213" t="inlineStr">
@@ -59964,7 +59964,7 @@
       <c r="L1215" t="inlineStr"/>
       <c r="M1215" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="N1215" t="inlineStr">
@@ -60014,7 +60014,7 @@
       <c r="L1216" t="inlineStr"/>
       <c r="M1216" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N1216" t="inlineStr">
@@ -60160,7 +60160,7 @@
       <c r="L1219" t="inlineStr"/>
       <c r="M1219" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1219" t="inlineStr">
@@ -60210,7 +60210,7 @@
       <c r="L1220" t="inlineStr"/>
       <c r="M1220" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1220" t="inlineStr">
@@ -60260,7 +60260,7 @@
       <c r="L1221" t="inlineStr"/>
       <c r="M1221" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1221" t="inlineStr">
@@ -60310,7 +60310,7 @@
       <c r="L1222" t="inlineStr"/>
       <c r="M1222" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1222" t="inlineStr">
@@ -60360,7 +60360,7 @@
       <c r="L1223" t="inlineStr"/>
       <c r="M1223" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1223" t="inlineStr">
@@ -60506,7 +60506,7 @@
       <c r="L1226" t="inlineStr"/>
       <c r="M1226" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1226" t="inlineStr">
@@ -60606,7 +60606,7 @@
       <c r="L1228" t="inlineStr"/>
       <c r="M1228" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1228" t="inlineStr">
@@ -60982,7 +60982,7 @@
       <c r="L1236" t="inlineStr"/>
       <c r="M1236" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1236" t="inlineStr">
@@ -61032,7 +61032,7 @@
       <c r="L1237" t="inlineStr"/>
       <c r="M1237" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1237" t="inlineStr">
@@ -61132,7 +61132,7 @@
       <c r="L1239" t="inlineStr"/>
       <c r="M1239" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1239" t="inlineStr">
@@ -61282,7 +61282,7 @@
       <c r="L1242" t="inlineStr"/>
       <c r="M1242" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1242" t="inlineStr">
@@ -61382,7 +61382,7 @@
       <c r="L1244" t="inlineStr"/>
       <c r="M1244" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1244" t="inlineStr">
@@ -61432,7 +61432,7 @@
       <c r="L1245" t="inlineStr"/>
       <c r="M1245" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1245" t="inlineStr">
@@ -61532,7 +61532,7 @@
       <c r="L1247" t="inlineStr"/>
       <c r="M1247" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1247" t="inlineStr">
@@ -61582,7 +61582,7 @@
       <c r="L1248" t="inlineStr"/>
       <c r="M1248" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1248" t="inlineStr">
@@ -61682,7 +61682,7 @@
       <c r="L1250" t="inlineStr"/>
       <c r="M1250" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1250" t="inlineStr">
@@ -61732,7 +61732,7 @@
       <c r="L1251" t="inlineStr"/>
       <c r="M1251" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1251" t="inlineStr">
@@ -61832,7 +61832,7 @@
       <c r="L1253" t="inlineStr"/>
       <c r="M1253" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1253" t="inlineStr">
@@ -61882,7 +61882,7 @@
       <c r="L1254" t="inlineStr"/>
       <c r="M1254" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1254" t="inlineStr">
@@ -61982,7 +61982,7 @@
       <c r="L1256" t="inlineStr"/>
       <c r="M1256" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1256" t="inlineStr">
@@ -62032,7 +62032,7 @@
       <c r="L1257" t="inlineStr"/>
       <c r="M1257" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1257" t="inlineStr">
@@ -62132,7 +62132,7 @@
       <c r="L1259" t="inlineStr"/>
       <c r="M1259" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1259" t="inlineStr">
@@ -62182,7 +62182,7 @@
       <c r="L1260" t="inlineStr"/>
       <c r="M1260" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1260" t="inlineStr">
@@ -62282,7 +62282,7 @@
       <c r="L1262" t="inlineStr"/>
       <c r="M1262" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1262" t="inlineStr">
@@ -62332,7 +62332,7 @@
       <c r="L1263" t="inlineStr"/>
       <c r="M1263" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1263" t="inlineStr">
@@ -62382,7 +62382,7 @@
       <c r="L1264" t="inlineStr"/>
       <c r="M1264" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1264" t="inlineStr">
@@ -62432,7 +62432,7 @@
       <c r="L1265" t="inlineStr"/>
       <c r="M1265" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1265" t="inlineStr">
@@ -62482,7 +62482,7 @@
       <c r="L1266" t="inlineStr"/>
       <c r="M1266" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1266" t="inlineStr">
@@ -62582,7 +62582,7 @@
       <c r="L1268" t="inlineStr"/>
       <c r="M1268" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1268" t="inlineStr">
@@ -62632,7 +62632,7 @@
       <c r="L1269" t="inlineStr"/>
       <c r="M1269" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1269" t="inlineStr">
@@ -62732,7 +62732,7 @@
       <c r="L1271" t="inlineStr"/>
       <c r="M1271" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1271" t="inlineStr">
@@ -62832,7 +62832,7 @@
       <c r="L1273" t="inlineStr"/>
       <c r="M1273" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1273" t="inlineStr">
@@ -62882,7 +62882,7 @@
       <c r="L1274" t="inlineStr"/>
       <c r="M1274" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1274" t="inlineStr">
@@ -62982,7 +62982,7 @@
       <c r="L1276" t="inlineStr"/>
       <c r="M1276" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1276" t="inlineStr">
@@ -63174,7 +63174,7 @@
       <c r="L1280" t="inlineStr"/>
       <c r="M1280" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="N1280" t="inlineStr">
@@ -63274,7 +63274,7 @@
       <c r="L1282" t="inlineStr"/>
       <c r="M1282" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1282" t="inlineStr">
@@ -63324,7 +63324,7 @@
       <c r="L1283" t="inlineStr"/>
       <c r="M1283" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1283" t="inlineStr">
@@ -63424,7 +63424,7 @@
       <c r="L1285" t="inlineStr"/>
       <c r="M1285" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1285" t="inlineStr">
@@ -63524,7 +63524,7 @@
       <c r="L1287" t="inlineStr"/>
       <c r="M1287" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1287" t="inlineStr">
@@ -63666,7 +63666,7 @@
       <c r="L1290" t="inlineStr"/>
       <c r="M1290" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="N1290" t="inlineStr">
@@ -63904,7 +63904,7 @@
       <c r="L1295" t="inlineStr"/>
       <c r="M1295" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1295" t="inlineStr">
@@ -63954,7 +63954,7 @@
       <c r="L1296" t="inlineStr"/>
       <c r="M1296" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1296" t="inlineStr">
@@ -64100,7 +64100,7 @@
       <c r="L1299" t="inlineStr"/>
       <c r="M1299" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1299" t="inlineStr">
@@ -64430,7 +64430,7 @@
       <c r="L1306" t="inlineStr"/>
       <c r="M1306" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1306" t="inlineStr">
@@ -64530,7 +64530,7 @@
       <c r="L1308" t="inlineStr"/>
       <c r="M1308" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1308" t="inlineStr">
@@ -64630,7 +64630,7 @@
       <c r="L1310" t="inlineStr"/>
       <c r="M1310" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1310" t="inlineStr">
@@ -64910,7 +64910,7 @@
       <c r="L1316" t="inlineStr"/>
       <c r="M1316" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1316" t="inlineStr">
@@ -65010,7 +65010,7 @@
       <c r="L1318" t="inlineStr"/>
       <c r="M1318" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1318" t="inlineStr">
@@ -65110,7 +65110,7 @@
       <c r="L1320" t="inlineStr"/>
       <c r="M1320" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1320" t="inlineStr">
@@ -65160,7 +65160,7 @@
       <c r="L1321" t="inlineStr"/>
       <c r="M1321" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1321" t="inlineStr">
@@ -65260,7 +65260,7 @@
       <c r="L1323" t="inlineStr"/>
       <c r="M1323" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1323" t="inlineStr">
@@ -65310,7 +65310,7 @@
       <c r="L1324" t="inlineStr"/>
       <c r="M1324" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1324" t="inlineStr">
@@ -65360,7 +65360,7 @@
       <c r="L1325" t="inlineStr"/>
       <c r="M1325" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1325" t="inlineStr">
@@ -65460,7 +65460,7 @@
       <c r="L1327" t="inlineStr"/>
       <c r="M1327" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1327" t="inlineStr">
@@ -65560,7 +65560,7 @@
       <c r="L1329" t="inlineStr"/>
       <c r="M1329" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1329" t="inlineStr">
@@ -65660,7 +65660,7 @@
       <c r="L1331" t="inlineStr"/>
       <c r="M1331" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1331" t="inlineStr">
@@ -65760,7 +65760,7 @@
       <c r="L1333" t="inlineStr"/>
       <c r="M1333" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1333" t="inlineStr">
@@ -65860,7 +65860,7 @@
       <c r="L1335" t="inlineStr"/>
       <c r="M1335" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1335" t="inlineStr">
@@ -65960,7 +65960,7 @@
       <c r="L1337" t="inlineStr"/>
       <c r="M1337" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1337" t="inlineStr">
@@ -66060,7 +66060,7 @@
       <c r="L1339" t="inlineStr"/>
       <c r="M1339" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1339" t="inlineStr">
@@ -66110,7 +66110,7 @@
       <c r="L1340" t="inlineStr"/>
       <c r="M1340" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1340" t="inlineStr">
@@ -66210,7 +66210,7 @@
       <c r="L1342" t="inlineStr"/>
       <c r="M1342" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1342" t="inlineStr">
@@ -66360,7 +66360,7 @@
       <c r="L1345" t="inlineStr"/>
       <c r="M1345" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N1345" t="inlineStr">
@@ -66510,7 +66510,7 @@
       <c r="L1348" t="inlineStr"/>
       <c r="M1348" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1348" t="inlineStr">
@@ -66560,7 +66560,7 @@
       <c r="L1349" t="inlineStr"/>
       <c r="M1349" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1349" t="inlineStr">
@@ -66610,7 +66610,7 @@
       <c r="L1350" t="inlineStr"/>
       <c r="M1350" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1350" t="inlineStr">
@@ -66660,7 +66660,7 @@
       <c r="L1351" t="inlineStr"/>
       <c r="M1351" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N1351" t="inlineStr">
@@ -66802,7 +66802,7 @@
       <c r="L1354" t="inlineStr"/>
       <c r="M1354" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1354" t="inlineStr">
@@ -66902,7 +66902,7 @@
       <c r="L1356" t="inlineStr"/>
       <c r="M1356" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1356" t="inlineStr">
@@ -66952,7 +66952,7 @@
       <c r="L1357" t="inlineStr"/>
       <c r="M1357" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1357" t="inlineStr">
@@ -67102,7 +67102,7 @@
       <c r="L1360" t="inlineStr"/>
       <c r="M1360" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1360" t="inlineStr">
@@ -67152,7 +67152,7 @@
       <c r="L1361" t="inlineStr"/>
       <c r="M1361" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1361" t="inlineStr">
@@ -67252,7 +67252,7 @@
       <c r="L1363" t="inlineStr"/>
       <c r="M1363" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1363" t="inlineStr">
@@ -67302,7 +67302,7 @@
       <c r="L1364" t="inlineStr"/>
       <c r="M1364" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1364" t="inlineStr">
@@ -67402,7 +67402,7 @@
       <c r="L1366" t="inlineStr"/>
       <c r="M1366" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1366" t="inlineStr">
@@ -67502,7 +67502,7 @@
       <c r="L1368" t="inlineStr"/>
       <c r="M1368" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1368" t="inlineStr">
@@ -67602,7 +67602,7 @@
       <c r="L1370" t="inlineStr"/>
       <c r="M1370" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1370" t="inlineStr">
@@ -67702,7 +67702,7 @@
       <c r="L1372" t="inlineStr"/>
       <c r="M1372" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1372" t="inlineStr">
@@ -67898,7 +67898,7 @@
       <c r="L1376" t="inlineStr"/>
       <c r="M1376" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1376" t="inlineStr">
@@ -67948,7 +67948,7 @@
       <c r="L1377" t="inlineStr"/>
       <c r="M1377" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1377" t="inlineStr">
@@ -67998,7 +67998,7 @@
       <c r="L1378" t="inlineStr"/>
       <c r="M1378" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1378" t="inlineStr">
@@ -68048,7 +68048,7 @@
       <c r="L1379" t="inlineStr"/>
       <c r="M1379" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1379" t="inlineStr">
@@ -68194,7 +68194,7 @@
       <c r="L1382" t="inlineStr"/>
       <c r="M1382" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1382" t="inlineStr">
@@ -68294,7 +68294,7 @@
       <c r="L1384" t="inlineStr"/>
       <c r="M1384" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1384" t="inlineStr">
@@ -68444,7 +68444,7 @@
       <c r="L1387" t="inlineStr"/>
       <c r="M1387" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1387" t="inlineStr">
@@ -68494,7 +68494,7 @@
       <c r="L1388" t="inlineStr"/>
       <c r="M1388" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1388" t="inlineStr">
@@ -68594,7 +68594,7 @@
       <c r="L1390" t="inlineStr"/>
       <c r="M1390" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1390" t="inlineStr">
@@ -68694,7 +68694,7 @@
       <c r="L1392" t="inlineStr"/>
       <c r="M1392" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1392" t="inlineStr">
@@ -68794,7 +68794,7 @@
       <c r="L1394" t="inlineStr"/>
       <c r="M1394" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="N1394" t="inlineStr">
@@ -68844,7 +68844,7 @@
       <c r="L1395" t="inlineStr"/>
       <c r="M1395" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="N1395" t="inlineStr">
@@ -68940,7 +68940,7 @@
       <c r="L1397" t="inlineStr"/>
       <c r="M1397" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1397" t="inlineStr">
@@ -68990,7 +68990,7 @@
       <c r="L1398" t="inlineStr"/>
       <c r="M1398" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1398" t="inlineStr">
@@ -69040,7 +69040,7 @@
       <c r="L1399" t="inlineStr"/>
       <c r="M1399" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1399" t="inlineStr">
@@ -69090,7 +69090,7 @@
       <c r="L1400" t="inlineStr"/>
       <c r="M1400" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1400" t="inlineStr">
@@ -69190,7 +69190,7 @@
       <c r="L1402" t="inlineStr"/>
       <c r="M1402" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1402" t="inlineStr">
@@ -69382,7 +69382,7 @@
       <c r="L1406" t="inlineStr"/>
       <c r="M1406" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="N1406" t="inlineStr">
@@ -69432,7 +69432,7 @@
       <c r="L1407" t="inlineStr"/>
       <c r="M1407" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="N1407" t="inlineStr">
@@ -69482,7 +69482,7 @@
       <c r="L1408" t="inlineStr"/>
       <c r="M1408" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1408" t="inlineStr">
@@ -69582,7 +69582,7 @@
       <c r="L1410" t="inlineStr"/>
       <c r="M1410" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1410" t="inlineStr">
@@ -69728,7 +69728,7 @@
       <c r="L1413" t="inlineStr"/>
       <c r="M1413" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="N1413" t="inlineStr">
@@ -69778,7 +69778,7 @@
       <c r="L1414" t="inlineStr"/>
       <c r="M1414" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1414" t="inlineStr">
@@ -69870,7 +69870,7 @@
       <c r="L1416" t="inlineStr"/>
       <c r="M1416" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1416" t="inlineStr">
@@ -69962,7 +69962,7 @@
       <c r="L1418" t="inlineStr"/>
       <c r="M1418" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1418" t="inlineStr">
@@ -70054,7 +70054,7 @@
       <c r="L1420" t="inlineStr"/>
       <c r="M1420" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1420" t="inlineStr">
@@ -70146,7 +70146,7 @@
       <c r="L1422" t="inlineStr"/>
       <c r="M1422" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1422" t="inlineStr">
@@ -70238,7 +70238,7 @@
       <c r="L1424" t="inlineStr"/>
       <c r="M1424" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1424" t="inlineStr">
@@ -70330,7 +70330,7 @@
       <c r="L1426" t="inlineStr"/>
       <c r="M1426" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1426" t="inlineStr">
@@ -70376,7 +70376,7 @@
       <c r="L1427" t="inlineStr"/>
       <c r="M1427" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="N1427" t="inlineStr">
@@ -70468,7 +70468,7 @@
       <c r="L1429" t="inlineStr"/>
       <c r="M1429" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="N1429" t="inlineStr">

--- a/WD_BDRC_data.xlsx
+++ b/WD_BDRC_data.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -8442,7 +8442,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -10059,7 +10059,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -10843,7 +10843,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -10941,7 +10941,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -11088,7 +11088,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -11382,7 +11382,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -11480,7 +11480,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
@@ -11578,7 +11578,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>{'eft:rinchen-tso', 'eft:rin-chen-tsho'}</t>
+          <t>{'eft:rin-chen-tsho', 'eft:rinchen-tso'}</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -11774,7 +11774,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -11872,7 +11872,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
@@ -12603,7 +12603,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -13330,7 +13330,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -13918,7 +13918,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -13967,7 +13967,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
@@ -14629,7 +14629,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -14870,7 +14870,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
@@ -15115,7 +15115,7 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
@@ -15164,7 +15164,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
@@ -15409,7 +15409,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
@@ -15695,7 +15695,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
@@ -15793,7 +15793,7 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
@@ -15842,7 +15842,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
@@ -16185,7 +16185,7 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
@@ -16234,7 +16234,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
@@ -16577,7 +16577,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
@@ -16724,7 +16724,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>{'eft:rinchen-tso', 'eft:rin-chen-tsho'}</t>
+          <t>{'eft:rin-chen-tsho', 'eft:rinchen-tso'}</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
@@ -16920,7 +16920,7 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
@@ -17018,7 +17018,7 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
@@ -17312,7 +17312,7 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
@@ -17361,7 +17361,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
@@ -17410,7 +17410,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
@@ -17557,7 +17557,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
@@ -17900,7 +17900,7 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
@@ -18047,7 +18047,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
@@ -18145,7 +18145,7 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
@@ -18194,7 +18194,7 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
@@ -18292,7 +18292,7 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
@@ -18439,7 +18439,7 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
@@ -18676,7 +18676,7 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
@@ -18725,7 +18725,7 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
@@ -18823,7 +18823,7 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
@@ -19162,7 +19162,7 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
@@ -19309,7 +19309,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
@@ -19550,7 +19550,7 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
@@ -19599,7 +19599,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
@@ -19697,7 +19697,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
@@ -19795,7 +19795,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
@@ -19942,7 +19942,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
@@ -20081,7 +20081,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
@@ -20130,7 +20130,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
@@ -20228,7 +20228,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
@@ -20277,7 +20277,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
@@ -20375,7 +20375,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
@@ -20473,7 +20473,7 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
@@ -20571,7 +20571,7 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
@@ -20669,7 +20669,7 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M415" t="inlineStr">
@@ -20718,7 +20718,7 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M417" t="inlineStr">
@@ -20865,7 +20865,7 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M419" t="inlineStr">
@@ -20963,7 +20963,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M422" t="inlineStr">
@@ -21110,7 +21110,7 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M424" t="inlineStr">
@@ -21159,7 +21159,7 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
@@ -21257,7 +21257,7 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M427" t="inlineStr">
@@ -21306,7 +21306,7 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M428" t="inlineStr">
@@ -21404,7 +21404,7 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
@@ -21551,7 +21551,7 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
@@ -21600,7 +21600,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
@@ -21698,7 +21698,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
@@ -21792,7 +21792,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
@@ -22033,7 +22033,7 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
@@ -22082,7 +22082,7 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M444" t="inlineStr">
@@ -22368,7 +22368,7 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M450" t="inlineStr">
@@ -22515,7 +22515,7 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M453" t="inlineStr">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
@@ -22801,7 +22801,7 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M461" t="inlineStr">
@@ -22948,7 +22948,7 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M462" t="inlineStr">
@@ -23185,7 +23185,7 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M467" t="inlineStr">
@@ -23234,7 +23234,7 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M468" t="inlineStr">
@@ -23377,7 +23377,7 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M471" t="inlineStr">
@@ -23520,7 +23520,7 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M474" t="inlineStr">
@@ -23708,7 +23708,7 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M478" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
@@ -24141,7 +24141,7 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
@@ -24337,7 +24337,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M491" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M492" t="inlineStr">
@@ -24435,7 +24435,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
@@ -24627,7 +24627,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M497" t="inlineStr">
@@ -30021,7 +30021,7 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M611" t="inlineStr">
@@ -30070,7 +30070,7 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M612" t="inlineStr">
@@ -34868,7 +34868,7 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M714" t="inlineStr">
@@ -34966,7 +34966,7 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M716" t="inlineStr">
@@ -35203,7 +35203,7 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M721" t="inlineStr">
@@ -35841,7 +35841,7 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M735" t="inlineStr">
@@ -36769,7 +36769,7 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M755" t="inlineStr">
@@ -36916,7 +36916,7 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M758" t="inlineStr">
@@ -38797,7 +38797,7 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M799" t="inlineStr">
@@ -38895,7 +38895,7 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M801" t="inlineStr">
@@ -39259,7 +39259,7 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M809" t="inlineStr">
@@ -39308,7 +39308,7 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M810" t="inlineStr">
@@ -39582,7 +39582,7 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M816" t="inlineStr">
@@ -39631,7 +39631,7 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M817" t="inlineStr">
@@ -39680,7 +39680,7 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M818" t="inlineStr">
@@ -39729,7 +39729,7 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M819" t="inlineStr">
@@ -40121,7 +40121,7 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M827" t="inlineStr">
@@ -40170,7 +40170,7 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M828" t="inlineStr">
@@ -40264,7 +40264,7 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M830" t="inlineStr">
@@ -40362,7 +40362,7 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M832" t="inlineStr">
@@ -40742,7 +40742,7 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M840" t="inlineStr">
@@ -40840,7 +40840,7 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M842" t="inlineStr">
@@ -40889,7 +40889,7 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M843" t="inlineStr">
@@ -40938,7 +40938,7 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M844" t="inlineStr">
@@ -41036,7 +41036,7 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M846" t="inlineStr">
@@ -41085,7 +41085,7 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M847" t="inlineStr">
@@ -41183,7 +41183,7 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M849" t="inlineStr">
@@ -41232,7 +41232,7 @@
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M850" t="inlineStr">
@@ -41424,7 +41424,7 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M854" t="inlineStr">
@@ -41473,7 +41473,7 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M855" t="inlineStr">
@@ -41665,7 +41665,7 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M859" t="inlineStr">
@@ -41759,7 +41759,7 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M861" t="inlineStr">
@@ -41857,7 +41857,7 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M863" t="inlineStr">
@@ -41906,7 +41906,7 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M864" t="inlineStr">
@@ -42004,7 +42004,7 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M866" t="inlineStr">
@@ -42053,7 +42053,7 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M867" t="inlineStr">
@@ -42151,7 +42151,7 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M869" t="inlineStr">
@@ -42200,7 +42200,7 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M870" t="inlineStr">
@@ -42298,7 +42298,7 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M872" t="inlineStr">
@@ -42347,7 +42347,7 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M873" t="inlineStr">
@@ -42445,7 +42445,7 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M875" t="inlineStr">
@@ -42494,7 +42494,7 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M876" t="inlineStr">
@@ -42592,7 +42592,7 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M878" t="inlineStr">
@@ -42641,7 +42641,7 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M879" t="inlineStr">
@@ -42739,7 +42739,7 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M881" t="inlineStr">
@@ -42788,7 +42788,7 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M882" t="inlineStr">
@@ -42886,7 +42886,7 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M884" t="inlineStr">
@@ -43033,7 +43033,7 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M887" t="inlineStr">
@@ -43082,7 +43082,7 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M888" t="inlineStr">
@@ -43180,7 +43180,7 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M890" t="inlineStr">
@@ -43229,7 +43229,7 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M891" t="inlineStr">
@@ -43327,7 +43327,7 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M893" t="inlineStr">
@@ -43556,7 +43556,7 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M898" t="inlineStr">
@@ -43654,7 +43654,7 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M900" t="inlineStr">
@@ -43703,7 +43703,7 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M901" t="inlineStr">
@@ -43801,7 +43801,7 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M903" t="inlineStr">
@@ -44087,7 +44087,7 @@
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M909" t="inlineStr">
@@ -44275,7 +44275,7 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M913" t="inlineStr">
@@ -44324,7 +44324,7 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M914" t="inlineStr">
@@ -44373,7 +44373,7 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M915" t="inlineStr">
@@ -44422,7 +44422,7 @@
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M916" t="inlineStr">
@@ -44471,7 +44471,7 @@
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M917" t="inlineStr">
@@ -44569,7 +44569,7 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M919" t="inlineStr">
@@ -44663,7 +44663,7 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M921" t="inlineStr">
@@ -44712,7 +44712,7 @@
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M922" t="inlineStr">
@@ -44810,7 +44810,7 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M924" t="inlineStr">
@@ -44908,7 +44908,7 @@
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M926" t="inlineStr">
@@ -44957,7 +44957,7 @@
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M927" t="inlineStr">
@@ -45006,7 +45006,7 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M928" t="inlineStr">
@@ -45104,7 +45104,7 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M930" t="inlineStr">
@@ -45198,7 +45198,7 @@
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M932" t="inlineStr">
@@ -45247,7 +45247,7 @@
       </c>
       <c r="L933" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M933" t="inlineStr">
@@ -45345,7 +45345,7 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M935" t="inlineStr">
@@ -45439,7 +45439,7 @@
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M937" t="inlineStr">
@@ -45488,7 +45488,7 @@
       </c>
       <c r="L938" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M938" t="inlineStr">
@@ -45586,7 +45586,7 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M940" t="inlineStr">
@@ -45725,7 +45725,7 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M943" t="inlineStr">
@@ -45823,7 +45823,7 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M945" t="inlineStr">
@@ -45872,7 +45872,7 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M946" t="inlineStr">
@@ -45970,7 +45970,7 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M948" t="inlineStr">
@@ -46019,7 +46019,7 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M949" t="inlineStr">
@@ -46117,7 +46117,7 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M951" t="inlineStr">
@@ -46166,7 +46166,7 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M952" t="inlineStr">
@@ -46215,7 +46215,7 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M953" t="inlineStr">
@@ -46264,7 +46264,7 @@
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M954" t="inlineStr">
@@ -46313,7 +46313,7 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M955" t="inlineStr">
@@ -46362,7 +46362,7 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M956" t="inlineStr">
@@ -46591,7 +46591,7 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M961" t="inlineStr">
@@ -46689,7 +46689,7 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M963" t="inlineStr">
@@ -46828,7 +46828,7 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M966" t="inlineStr">
@@ -46877,7 +46877,7 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M967" t="inlineStr">
@@ -46926,7 +46926,7 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M968" t="inlineStr">
@@ -47118,7 +47118,7 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M972" t="inlineStr">
@@ -47167,7 +47167,7 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M973" t="inlineStr">
@@ -47265,7 +47265,7 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M975" t="inlineStr">
@@ -47314,7 +47314,7 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M976" t="inlineStr">
@@ -47412,7 +47412,7 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M978" t="inlineStr">
@@ -47510,7 +47510,7 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M980" t="inlineStr">
@@ -47559,7 +47559,7 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M981" t="inlineStr">
@@ -47657,7 +47657,7 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M983" t="inlineStr">
@@ -47706,7 +47706,7 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M984" t="inlineStr">
@@ -47804,7 +47804,7 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M986" t="inlineStr">
@@ -47853,7 +47853,7 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M987" t="inlineStr">
@@ -47951,7 +47951,7 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M989" t="inlineStr">
@@ -48000,7 +48000,7 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M990" t="inlineStr">
@@ -48098,7 +48098,7 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M992" t="inlineStr">
@@ -48147,7 +48147,7 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M993" t="inlineStr">
@@ -48245,7 +48245,7 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M995" t="inlineStr">
@@ -48343,7 +48343,7 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M997" t="inlineStr">
@@ -48392,7 +48392,7 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M998" t="inlineStr">
@@ -48441,7 +48441,7 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M999" t="inlineStr">
@@ -48539,7 +48539,7 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1001" t="inlineStr">
@@ -48588,7 +48588,7 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1002" t="inlineStr">
@@ -48735,7 +48735,7 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1005" t="inlineStr">
@@ -48784,7 +48784,7 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1006" t="inlineStr">
@@ -48882,7 +48882,7 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1008" t="inlineStr">
@@ -48931,7 +48931,7 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1009" t="inlineStr">
@@ -49029,7 +49029,7 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1011" t="inlineStr">
@@ -49127,7 +49127,7 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1013" t="inlineStr">
@@ -49225,7 +49225,7 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1015" t="inlineStr">
@@ -49364,7 +49364,7 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1018" t="inlineStr">
@@ -49462,7 +49462,7 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1020" t="inlineStr">
@@ -49601,7 +49601,7 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1023" t="inlineStr">
@@ -49699,7 +49699,7 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1025" t="inlineStr">
@@ -49748,7 +49748,7 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1026" t="inlineStr">
@@ -49797,7 +49797,7 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1027" t="inlineStr">
@@ -49895,7 +49895,7 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1029" t="inlineStr">
@@ -49944,7 +49944,7 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1030" t="inlineStr">
@@ -50087,7 +50087,7 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1033" t="inlineStr">
@@ -50185,7 +50185,7 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1035" t="inlineStr">
@@ -50332,7 +50332,7 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1038" t="inlineStr">
@@ -50381,7 +50381,7 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1039" t="inlineStr">
@@ -50479,7 +50479,7 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1041" t="inlineStr">
@@ -50528,7 +50528,7 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1042" t="inlineStr">
@@ -50577,7 +50577,7 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1043" t="inlineStr">
@@ -50626,7 +50626,7 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1044" t="inlineStr">
@@ -50675,7 +50675,7 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1045" t="inlineStr">
@@ -50773,7 +50773,7 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1047" t="inlineStr">
@@ -50822,7 +50822,7 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1048" t="inlineStr">
@@ -50969,7 +50969,7 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1051" t="inlineStr">
@@ -51255,7 +51255,7 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1057" t="inlineStr">
@@ -51304,7 +51304,7 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1058" t="inlineStr">
@@ -51451,7 +51451,7 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1061" t="inlineStr">
@@ -51594,7 +51594,7 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1064" t="inlineStr">
@@ -51741,7 +51741,7 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1067" t="inlineStr">
@@ -52555,7 +52555,7 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1085" t="inlineStr">
@@ -52653,7 +52653,7 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1087" t="inlineStr">
@@ -52792,7 +52792,7 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1090" t="inlineStr">
@@ -52841,7 +52841,7 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1091" t="inlineStr">
@@ -52935,7 +52935,7 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1093" t="inlineStr">
@@ -53033,7 +53033,7 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1095" t="inlineStr">
@@ -53131,7 +53131,7 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1097" t="inlineStr">
@@ -53180,7 +53180,7 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1098" t="inlineStr">
@@ -53765,7 +53765,7 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1111" t="inlineStr">
@@ -53863,7 +53863,7 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1113" t="inlineStr">
@@ -53912,7 +53912,7 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1114" t="inlineStr">
@@ -54010,7 +54010,7 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1116" t="inlineStr">
@@ -54059,7 +54059,7 @@
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1117" t="inlineStr">
@@ -54202,7 +54202,7 @@
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1120" t="inlineStr">
@@ -54345,7 +54345,7 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1123" t="inlineStr">
@@ -54443,7 +54443,7 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1125" t="inlineStr">
@@ -54492,7 +54492,7 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1126" t="inlineStr">
@@ -54541,7 +54541,7 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1127" t="inlineStr">
@@ -54729,7 +54729,7 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1131" t="inlineStr">
@@ -54827,7 +54827,7 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1133" t="inlineStr">
@@ -54966,7 +54966,7 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1136" t="inlineStr">
@@ -55064,7 +55064,7 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1138" t="inlineStr">
@@ -55113,7 +55113,7 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1139" t="inlineStr">
@@ -55211,7 +55211,7 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1141" t="inlineStr">
@@ -55260,7 +55260,7 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1142" t="inlineStr">
@@ -55309,7 +55309,7 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1143" t="inlineStr">
@@ -55358,7 +55358,7 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1144" t="inlineStr">
@@ -55407,7 +55407,7 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1145" t="inlineStr">
@@ -55730,7 +55730,7 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1152" t="inlineStr">
@@ -56012,7 +56012,7 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1158" t="inlineStr">
@@ -56110,7 +56110,7 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1160" t="inlineStr">
@@ -56159,7 +56159,7 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1161" t="inlineStr">
@@ -56257,7 +56257,7 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1163" t="inlineStr">
@@ -56306,7 +56306,7 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1164" t="inlineStr">
@@ -56355,7 +56355,7 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M1165" t="inlineStr">
@@ -56404,7 +56404,7 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1166" t="inlineStr">
@@ -56453,7 +56453,7 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1167" t="inlineStr">
@@ -56551,7 +56551,7 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1169" t="inlineStr">
@@ -56600,7 +56600,7 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1170" t="inlineStr">
@@ -56698,7 +56698,7 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1172" t="inlineStr">
@@ -56747,7 +56747,7 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1173" t="inlineStr">
@@ -56796,7 +56796,7 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1174" t="inlineStr">
@@ -56845,7 +56845,7 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1175" t="inlineStr">
@@ -56939,7 +56939,7 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1177" t="inlineStr">
@@ -57037,7 +57037,7 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1179" t="inlineStr">
@@ -57532,7 +57532,7 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1190" t="inlineStr">
@@ -57630,7 +57630,7 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1192" t="inlineStr">
@@ -57818,7 +57818,7 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1196" t="inlineStr">
@@ -57916,7 +57916,7 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1198" t="inlineStr">
@@ -57965,7 +57965,7 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1199" t="inlineStr">
@@ -58063,7 +58063,7 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1201" t="inlineStr">
@@ -58112,7 +58112,7 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1202" t="inlineStr">
@@ -58259,7 +58259,7 @@
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1205" t="inlineStr">
@@ -58308,7 +58308,7 @@
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="M1206" t="inlineStr">
@@ -58500,7 +58500,7 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1210" t="inlineStr">
@@ -58647,7 +58647,7 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1213" t="inlineStr">
@@ -58745,7 +58745,7 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1215" t="inlineStr">
@@ -58794,7 +58794,7 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1216" t="inlineStr">
@@ -58937,7 +58937,7 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1219" t="inlineStr">
@@ -58986,7 +58986,7 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1220" t="inlineStr">
@@ -59035,7 +59035,7 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1221" t="inlineStr">
@@ -59084,7 +59084,7 @@
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1222" t="inlineStr">
@@ -59133,7 +59133,7 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1223" t="inlineStr">
@@ -59276,7 +59276,7 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1226" t="inlineStr">
@@ -59374,7 +59374,7 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1228" t="inlineStr">
@@ -59742,7 +59742,7 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1236" t="inlineStr">
@@ -59791,7 +59791,7 @@
       </c>
       <c r="L1237" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1237" t="inlineStr">
@@ -59889,7 +59889,7 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1239" t="inlineStr">
@@ -60036,7 +60036,7 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1242" t="inlineStr">
@@ -60134,7 +60134,7 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1244" t="inlineStr">
@@ -60183,7 +60183,7 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1245" t="inlineStr">
@@ -60281,7 +60281,7 @@
       </c>
       <c r="L1247" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1247" t="inlineStr">
@@ -60330,7 +60330,7 @@
       </c>
       <c r="L1248" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1248" t="inlineStr">
@@ -60428,7 +60428,7 @@
       </c>
       <c r="L1250" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1250" t="inlineStr">
@@ -60477,7 +60477,7 @@
       </c>
       <c r="L1251" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1251" t="inlineStr">
@@ -60575,7 +60575,7 @@
       </c>
       <c r="L1253" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1253" t="inlineStr">
@@ -60624,7 +60624,7 @@
       </c>
       <c r="L1254" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1254" t="inlineStr">
@@ -60722,7 +60722,7 @@
       </c>
       <c r="L1256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1256" t="inlineStr">
@@ -60771,7 +60771,7 @@
       </c>
       <c r="L1257" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1257" t="inlineStr">
@@ -60869,7 +60869,7 @@
       </c>
       <c r="L1259" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1259" t="inlineStr">
@@ -60918,7 +60918,7 @@
       </c>
       <c r="L1260" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1260" t="inlineStr">
@@ -61016,7 +61016,7 @@
       </c>
       <c r="L1262" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1262" t="inlineStr">
@@ -61065,7 +61065,7 @@
       </c>
       <c r="L1263" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1263" t="inlineStr">
@@ -61114,7 +61114,7 @@
       </c>
       <c r="L1264" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1264" t="inlineStr">
@@ -61163,7 +61163,7 @@
       </c>
       <c r="L1265" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1265" t="inlineStr">
@@ -61212,7 +61212,7 @@
       </c>
       <c r="L1266" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1266" t="inlineStr">
@@ -61310,7 +61310,7 @@
       </c>
       <c r="L1268" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1268" t="inlineStr">
@@ -61359,7 +61359,7 @@
       </c>
       <c r="L1269" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1269" t="inlineStr">
@@ -61457,7 +61457,7 @@
       </c>
       <c r="L1271" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1271" t="inlineStr">
@@ -61555,7 +61555,7 @@
       </c>
       <c r="L1273" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1273" t="inlineStr">
@@ -61604,7 +61604,7 @@
       </c>
       <c r="L1274" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1274" t="inlineStr">
@@ -61702,7 +61702,7 @@
       </c>
       <c r="L1276" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1276" t="inlineStr">
@@ -61890,7 +61890,7 @@
       </c>
       <c r="L1280" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="M1280" t="inlineStr">
@@ -61988,7 +61988,7 @@
       </c>
       <c r="L1282" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1282" t="inlineStr">
@@ -62037,7 +62037,7 @@
       </c>
       <c r="L1283" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1283" t="inlineStr">
@@ -62135,7 +62135,7 @@
       </c>
       <c r="L1285" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1285" t="inlineStr">
@@ -62233,7 +62233,7 @@
       </c>
       <c r="L1287" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1287" t="inlineStr">
@@ -62372,7 +62372,7 @@
       </c>
       <c r="L1290" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="M1290" t="inlineStr">
@@ -62605,7 +62605,7 @@
       </c>
       <c r="L1295" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1295" t="inlineStr">
@@ -62654,7 +62654,7 @@
       </c>
       <c r="L1296" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1296" t="inlineStr">
@@ -62797,7 +62797,7 @@
       </c>
       <c r="L1299" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1299" t="inlineStr">
@@ -63120,7 +63120,7 @@
       </c>
       <c r="L1306" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1306" t="inlineStr">
@@ -63218,7 +63218,7 @@
       </c>
       <c r="L1308" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1308" t="inlineStr">
@@ -63316,7 +63316,7 @@
       </c>
       <c r="L1310" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1310" t="inlineStr">
@@ -63410,7 +63410,7 @@
       </c>
       <c r="L1312" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="M1312" t="inlineStr">
@@ -63590,7 +63590,7 @@
       </c>
       <c r="L1316" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1316" t="inlineStr">
@@ -63688,7 +63688,7 @@
       </c>
       <c r="L1318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1318" t="inlineStr">
@@ -63786,7 +63786,7 @@
       </c>
       <c r="L1320" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1320" t="inlineStr">
@@ -63835,7 +63835,7 @@
       </c>
       <c r="L1321" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1321" t="inlineStr">
@@ -63933,7 +63933,7 @@
       </c>
       <c r="L1323" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1323" t="inlineStr">
@@ -63982,7 +63982,7 @@
       </c>
       <c r="L1324" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1324" t="inlineStr">
@@ -64031,7 +64031,7 @@
       </c>
       <c r="L1325" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1325" t="inlineStr">
@@ -64129,7 +64129,7 @@
       </c>
       <c r="L1327" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1327" t="inlineStr">
@@ -64227,7 +64227,7 @@
       </c>
       <c r="L1329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1329" t="inlineStr">
@@ -64325,7 +64325,7 @@
       </c>
       <c r="L1331" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1331" t="inlineStr">
@@ -64423,7 +64423,7 @@
       </c>
       <c r="L1333" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1333" t="inlineStr">
@@ -64521,7 +64521,7 @@
       </c>
       <c r="L1335" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1335" t="inlineStr">
@@ -64619,7 +64619,7 @@
       </c>
       <c r="L1337" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1337" t="inlineStr">
@@ -64717,7 +64717,7 @@
       </c>
       <c r="L1339" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1339" t="inlineStr">
@@ -64766,7 +64766,7 @@
       </c>
       <c r="L1340" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1340" t="inlineStr">
@@ -64864,7 +64864,7 @@
       </c>
       <c r="L1342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1342" t="inlineStr">
@@ -65011,7 +65011,7 @@
       </c>
       <c r="L1345" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="M1345" t="inlineStr">
@@ -65109,7 +65109,7 @@
       </c>
       <c r="L1347" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="M1347" t="inlineStr">
@@ -65158,7 +65158,7 @@
       </c>
       <c r="L1348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1348" t="inlineStr">
@@ -65207,7 +65207,7 @@
       </c>
       <c r="L1349" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="M1349" t="inlineStr">
@@ -65256,7 +65256,7 @@
       </c>
       <c r="L1350" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="M1350" t="inlineStr">
@@ -65444,7 +65444,7 @@
       </c>
       <c r="L1354" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="M1354" t="inlineStr">
@@ -65542,7 +65542,7 @@
       </c>
       <c r="L1356" t="inlineStr">
         <is>
-        